--- a/data/Data_extraction_postcrosschecking.xlsx
+++ b/data/Data_extraction_postcrosschecking.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unsw-my.sharepoint.com/personal/z3439723_ad_unsw_edu_au/Documents/Overview of reviews_trans environment effects/Analysis/Nongen_map_of_reviews/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="551" documentId="8_{5C8DE252-67D3-437E-999F-0322730C74C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{266BCD83-1113-4D2F-93BD-6AAE9990697D}"/>
+  <xr:revisionPtr revIDLastSave="552" documentId="8_{5C8DE252-67D3-437E-999F-0322730C74C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7584C4ED-54D4-4265-9F0C-C836A4364D10}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-30" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{E4D07577-1050-462D-A7B0-049CD472D6CE}"/>
   </bookViews>
@@ -108,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6081" uniqueCount="1181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6082" uniqueCount="1182">
   <si>
     <t>id</t>
   </si>
@@ -3651,6 +3651,9 @@
   </si>
   <si>
     <t>Hexanauplia</t>
+  </si>
+  <si>
+    <t>Class</t>
   </si>
 </sst>
 </file>
@@ -16478,8 +16481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B61DB050-FA39-425C-8BE9-84756207D428}">
   <dimension ref="A1:D559"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A532" workbookViewId="0">
-      <selection activeCell="H552" sqref="H552"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16497,6 +16500,9 @@
       </c>
       <c r="C1" t="s">
         <v>277</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1181</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">

--- a/data/Data_extraction_postcrosschecking.xlsx
+++ b/data/Data_extraction_postcrosschecking.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unsw-my.sharepoint.com/personal/z3439723_ad_unsw_edu_au/Documents/Overview of reviews_trans environment effects/Analysis/Nongen_map_of_reviews/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unsw-my.sharepoint.com/personal/z3439723_ad_unsw_edu_au/Documents/Overview of reviews_trans environment effects/Analysis/Nongen_map_of_reviews/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="623" documentId="8_{5C8DE252-67D3-437E-999F-0322730C74C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{442A8E61-3A94-47C3-8CCE-131D5004D6CE}"/>
+  <xr:revisionPtr revIDLastSave="644" documentId="8_{5C8DE252-67D3-437E-999F-0322730C74C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EEF73DB5-9031-4AC0-BFCE-46F28607D1B6}"/>
   <bookViews>
-    <workbookView xWindow="-29850" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{E4D07577-1050-462D-A7B0-049CD472D6CE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{E4D07577-1050-462D-A7B0-049CD472D6CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Publication_info" sheetId="1" r:id="rId1"/>
@@ -108,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6636" uniqueCount="1200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6646" uniqueCount="1199">
   <si>
     <t>id</t>
   </si>
@@ -3653,61 +3653,58 @@
     <t>broad_taxa</t>
   </si>
   <si>
-    <t>Fish</t>
-  </si>
-  <si>
-    <t>Bird</t>
-  </si>
-  <si>
-    <t>Crustacean</t>
-  </si>
-  <si>
-    <t>Mollusc</t>
-  </si>
-  <si>
-    <t>Algae</t>
-  </si>
-  <si>
-    <t>Echinoderm</t>
-  </si>
-  <si>
-    <t>Hexapod</t>
-  </si>
-  <si>
-    <t>Gastropod</t>
-  </si>
-  <si>
-    <t>Bryozoan</t>
-  </si>
-  <si>
-    <t>Plant</t>
-  </si>
-  <si>
-    <t>Cnidarian</t>
-  </si>
-  <si>
-    <t>Mammal</t>
-  </si>
-  <si>
-    <t>Annelid</t>
-  </si>
-  <si>
-    <t>Reptile</t>
-  </si>
-  <si>
-    <t>Arachnid</t>
-  </si>
-  <si>
-    <t>Ascidian</t>
-  </si>
-  <si>
-    <t>Amphibian</t>
-  </si>
-  <si>
     <t>comment</t>
   </si>
   <si>
-    <t>Nematode</t>
+    <t>amphibian</t>
+  </si>
+  <si>
+    <t>nematode</t>
+  </si>
+  <si>
+    <t>annelid</t>
+  </si>
+  <si>
+    <t>arachnid</t>
+  </si>
+  <si>
+    <t>ascidian</t>
+  </si>
+  <si>
+    <t>bird</t>
+  </si>
+  <si>
+    <t>bryozoan</t>
+  </si>
+  <si>
+    <t>cnidarian</t>
+  </si>
+  <si>
+    <t>crustacean</t>
+  </si>
+  <si>
+    <t>echinoderm</t>
+  </si>
+  <si>
+    <t>fish</t>
+  </si>
+  <si>
+    <t>gastropod</t>
+  </si>
+  <si>
+    <t>hexapod</t>
+  </si>
+  <si>
+    <t>mammal</t>
+  </si>
+  <si>
+    <t>mollusc</t>
+  </si>
+  <si>
+    <t>plant</t>
+  </si>
+  <si>
+    <t>reptile</t>
   </si>
 </sst>
 </file>
@@ -3765,9 +3762,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -14696,7 +14694,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B936721-69C3-4A8C-8098-3E46F9E5D7C2}">
   <dimension ref="A1:I60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
@@ -16533,16 +16531,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B61DB050-FA39-425C-8BE9-84756207D428}">
-  <dimension ref="A1:E559"/>
+  <dimension ref="A1:F559"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.5703125" customWidth="1"/>
     <col min="2" max="2" width="28.42578125" customWidth="1"/>
+    <col min="4" max="6" width="14.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -16553,12 +16552,12 @@
         <v>275</v>
       </c>
       <c r="C1" t="s">
-        <v>1198</v>
-      </c>
-      <c r="D1" t="s">
+        <v>1181</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>1179</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>1180</v>
       </c>
     </row>
@@ -16569,11 +16568,11 @@
       <c r="B2" t="s">
         <v>442</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>1163</v>
       </c>
-      <c r="E2" t="s">
-        <v>1185</v>
+      <c r="E2" s="2" t="s">
+        <v>769</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -16583,11 +16582,11 @@
       <c r="B3" t="s">
         <v>412</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="2" t="s">
         <v>1176</v>
       </c>
-      <c r="E3" t="s">
-        <v>1197</v>
+      <c r="E3" s="2" t="s">
+        <v>1182</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -16600,11 +16599,11 @@
       <c r="C4" t="s">
         <v>1046</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="2" t="s">
         <v>1176</v>
       </c>
-      <c r="E4" t="s">
-        <v>1197</v>
+      <c r="E4" s="2" t="s">
+        <v>1182</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -16614,11 +16613,11 @@
       <c r="B5" t="s">
         <v>413</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="2" t="s">
         <v>1176</v>
       </c>
-      <c r="E5" t="s">
-        <v>1197</v>
+      <c r="E5" s="2" t="s">
+        <v>1182</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -16631,11 +16630,11 @@
       <c r="C6" t="s">
         <v>1046</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="2" t="s">
         <v>1176</v>
       </c>
-      <c r="E6" t="s">
-        <v>1197</v>
+      <c r="E6" s="2" t="s">
+        <v>1182</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -16645,11 +16644,11 @@
       <c r="B7" t="s">
         <v>414</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="2" t="s">
         <v>1176</v>
       </c>
-      <c r="E7" t="s">
-        <v>1197</v>
+      <c r="E7" s="2" t="s">
+        <v>1182</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -16659,11 +16658,11 @@
       <c r="B8" t="s">
         <v>533</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="2" t="s">
         <v>1176</v>
       </c>
-      <c r="E8" t="s">
-        <v>1197</v>
+      <c r="E8" s="2" t="s">
+        <v>1182</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -16673,11 +16672,11 @@
       <c r="B9" t="s">
         <v>300</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="2" t="s">
         <v>1162</v>
       </c>
-      <c r="E9" t="s">
-        <v>1199</v>
+      <c r="E9" s="2" t="s">
+        <v>1183</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -16687,11 +16686,11 @@
       <c r="B10" t="s">
         <v>300</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="2" t="s">
         <v>1162</v>
       </c>
-      <c r="E10" t="s">
-        <v>1199</v>
+      <c r="E10" s="2" t="s">
+        <v>1183</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -16701,11 +16700,11 @@
       <c r="B11" t="s">
         <v>300</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="2" t="s">
         <v>1162</v>
       </c>
-      <c r="E11" t="s">
-        <v>1199</v>
+      <c r="E11" s="2" t="s">
+        <v>1183</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -16715,11 +16714,11 @@
       <c r="B12" t="s">
         <v>325</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="2" t="s">
         <v>1162</v>
       </c>
-      <c r="E12" t="s">
-        <v>1199</v>
+      <c r="E12" s="2" t="s">
+        <v>1183</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -16729,11 +16728,11 @@
       <c r="B13" t="s">
         <v>311</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="2" t="s">
         <v>1166</v>
       </c>
-      <c r="E13" t="s">
-        <v>1193</v>
+      <c r="E13" s="2" t="s">
+        <v>1184</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -16743,11 +16742,11 @@
       <c r="B14" t="s">
         <v>276</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="2" t="s">
         <v>1170</v>
       </c>
-      <c r="E14" t="s">
-        <v>1193</v>
+      <c r="E14" s="2" t="s">
+        <v>1184</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -16757,11 +16756,11 @@
       <c r="B15" t="s">
         <v>276</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="2" t="s">
         <v>1170</v>
       </c>
-      <c r="E15" t="s">
-        <v>1193</v>
+      <c r="E15" s="2" t="s">
+        <v>1184</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -16771,11 +16770,11 @@
       <c r="B16" t="s">
         <v>520</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="2" t="s">
         <v>1170</v>
       </c>
-      <c r="E16" t="s">
-        <v>1193</v>
+      <c r="E16" s="2" t="s">
+        <v>1184</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -16785,11 +16784,11 @@
       <c r="B17" t="s">
         <v>317</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="2" t="s">
         <v>1170</v>
       </c>
-      <c r="E17" t="s">
-        <v>1193</v>
+      <c r="E17" s="2" t="s">
+        <v>1184</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -16799,11 +16798,11 @@
       <c r="B18" t="s">
         <v>537</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="2" t="s">
         <v>1164</v>
       </c>
-      <c r="E18" t="s">
-        <v>1195</v>
+      <c r="E18" s="2" t="s">
+        <v>1185</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -16813,11 +16812,11 @@
       <c r="B19" t="s">
         <v>379</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="2" t="s">
         <v>1164</v>
       </c>
-      <c r="E19" t="s">
-        <v>1195</v>
+      <c r="E19" s="2" t="s">
+        <v>1185</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -16827,11 +16826,11 @@
       <c r="B20" t="s">
         <v>343</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="2" t="s">
         <v>1177</v>
       </c>
-      <c r="E20" t="s">
-        <v>1196</v>
+      <c r="E20" s="2" t="s">
+        <v>1186</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -16841,11 +16840,11 @@
       <c r="B21" t="s">
         <v>343</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="2" t="s">
         <v>1177</v>
       </c>
-      <c r="E21" t="s">
-        <v>1196</v>
+      <c r="E21" s="2" t="s">
+        <v>1186</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -16858,11 +16857,11 @@
       <c r="C22" t="s">
         <v>1046</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="2" t="s">
         <v>1151</v>
       </c>
-      <c r="E22" t="s">
-        <v>1182</v>
+      <c r="E22" s="2" t="s">
+        <v>1187</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -16875,11 +16874,11 @@
       <c r="C23" t="s">
         <v>1046</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="2" t="s">
         <v>1151</v>
       </c>
-      <c r="E23" t="s">
-        <v>1182</v>
+      <c r="E23" s="2" t="s">
+        <v>1187</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -16892,11 +16891,11 @@
       <c r="C24" t="s">
         <v>1046</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="2" t="s">
         <v>1151</v>
       </c>
-      <c r="E24" t="s">
-        <v>1182</v>
+      <c r="E24" s="2" t="s">
+        <v>1187</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -16909,11 +16908,11 @@
       <c r="C25" t="s">
         <v>1046</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="2" t="s">
         <v>1151</v>
       </c>
-      <c r="E25" t="s">
-        <v>1182</v>
+      <c r="E25" s="2" t="s">
+        <v>1187</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -16926,11 +16925,11 @@
       <c r="C26" t="s">
         <v>1046</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="2" t="s">
         <v>1151</v>
       </c>
-      <c r="E26" t="s">
-        <v>1182</v>
+      <c r="E26" s="2" t="s">
+        <v>1187</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -16943,11 +16942,11 @@
       <c r="C27" t="s">
         <v>1046</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="2" t="s">
         <v>1151</v>
       </c>
-      <c r="E27" t="s">
-        <v>1182</v>
+      <c r="E27" s="2" t="s">
+        <v>1187</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -16960,11 +16959,11 @@
       <c r="C28" t="s">
         <v>1046</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="2" t="s">
         <v>1151</v>
       </c>
-      <c r="E28" t="s">
-        <v>1182</v>
+      <c r="E28" s="2" t="s">
+        <v>1187</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -16974,11 +16973,11 @@
       <c r="B29" t="s">
         <v>282</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="2" t="s">
         <v>1151</v>
       </c>
-      <c r="E29" t="s">
-        <v>1182</v>
+      <c r="E29" s="2" t="s">
+        <v>1187</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -16988,11 +16987,11 @@
       <c r="B30" t="s">
         <v>281</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="2" t="s">
         <v>1151</v>
       </c>
-      <c r="E30" t="s">
-        <v>1182</v>
+      <c r="E30" s="2" t="s">
+        <v>1187</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -17002,11 +17001,11 @@
       <c r="B31" t="s">
         <v>395</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="2" t="s">
         <v>1151</v>
       </c>
-      <c r="E31" t="s">
-        <v>1182</v>
+      <c r="E31" s="2" t="s">
+        <v>1187</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -17016,11 +17015,11 @@
       <c r="B32" t="s">
         <v>395</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="2" t="s">
         <v>1151</v>
       </c>
-      <c r="E32" t="s">
-        <v>1182</v>
+      <c r="E32" s="2" t="s">
+        <v>1187</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -17033,11 +17032,11 @@
       <c r="C33" t="s">
         <v>1046</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="2" t="s">
         <v>1151</v>
       </c>
-      <c r="E33" t="s">
-        <v>1182</v>
+      <c r="E33" s="2" t="s">
+        <v>1187</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -17047,11 +17046,11 @@
       <c r="B34" t="s">
         <v>506</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="2" t="s">
         <v>1151</v>
       </c>
-      <c r="E34" t="s">
-        <v>1182</v>
+      <c r="E34" s="2" t="s">
+        <v>1187</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -17061,11 +17060,11 @@
       <c r="B35" t="s">
         <v>506</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="2" t="s">
         <v>1151</v>
       </c>
-      <c r="E35" t="s">
-        <v>1182</v>
+      <c r="E35" s="2" t="s">
+        <v>1187</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -17078,11 +17077,11 @@
       <c r="C36" t="s">
         <v>1046</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="2" t="s">
         <v>1151</v>
       </c>
-      <c r="E36" t="s">
-        <v>1182</v>
+      <c r="E36" s="2" t="s">
+        <v>1187</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -17095,11 +17094,11 @@
       <c r="C37" t="s">
         <v>1046</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="2" t="s">
         <v>1151</v>
       </c>
-      <c r="E37" t="s">
-        <v>1182</v>
+      <c r="E37" s="2" t="s">
+        <v>1187</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -17112,11 +17111,11 @@
       <c r="C38" t="s">
         <v>1046</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="2" t="s">
         <v>1151</v>
       </c>
-      <c r="E38" t="s">
-        <v>1182</v>
+      <c r="E38" s="2" t="s">
+        <v>1187</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -17129,11 +17128,11 @@
       <c r="C39" t="s">
         <v>545</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" s="2" t="s">
         <v>1151</v>
       </c>
-      <c r="E39" t="s">
-        <v>1182</v>
+      <c r="E39" s="2" t="s">
+        <v>1187</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -17143,11 +17142,11 @@
       <c r="B40" t="s">
         <v>454</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" s="2" t="s">
         <v>1151</v>
       </c>
-      <c r="E40" t="s">
-        <v>1182</v>
+      <c r="E40" s="2" t="s">
+        <v>1187</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -17157,11 +17156,11 @@
       <c r="B41" t="s">
         <v>454</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" s="2" t="s">
         <v>1151</v>
       </c>
-      <c r="E41" t="s">
-        <v>1182</v>
+      <c r="E41" s="2" t="s">
+        <v>1187</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -17171,11 +17170,11 @@
       <c r="B42" t="s">
         <v>454</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42" s="2" t="s">
         <v>1151</v>
       </c>
-      <c r="E42" t="s">
-        <v>1182</v>
+      <c r="E42" s="2" t="s">
+        <v>1187</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -17185,11 +17184,11 @@
       <c r="B43" t="s">
         <v>455</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43" s="2" t="s">
         <v>1151</v>
       </c>
-      <c r="E43" t="s">
-        <v>1182</v>
+      <c r="E43" s="2" t="s">
+        <v>1187</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -17199,11 +17198,11 @@
       <c r="B44" t="s">
         <v>455</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D44" s="2" t="s">
         <v>1151</v>
       </c>
-      <c r="E44" t="s">
-        <v>1182</v>
+      <c r="E44" s="2" t="s">
+        <v>1187</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -17216,11 +17215,11 @@
       <c r="C45" t="s">
         <v>1046</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D45" s="2" t="s">
         <v>1151</v>
       </c>
-      <c r="E45" t="s">
-        <v>1182</v>
+      <c r="E45" s="2" t="s">
+        <v>1187</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -17230,11 +17229,11 @@
       <c r="B46" t="s">
         <v>460</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D46" s="2" t="s">
         <v>1151</v>
       </c>
-      <c r="E46" t="s">
-        <v>1182</v>
+      <c r="E46" s="2" t="s">
+        <v>1187</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -17244,11 +17243,11 @@
       <c r="B47" t="s">
         <v>462</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D47" s="2" t="s">
         <v>1151</v>
       </c>
-      <c r="E47" t="s">
-        <v>1182</v>
+      <c r="E47" s="2" t="s">
+        <v>1187</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -17261,11 +17260,11 @@
       <c r="C48" t="s">
         <v>1046</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D48" s="2" t="s">
         <v>1151</v>
       </c>
-      <c r="E48" t="s">
-        <v>1182</v>
+      <c r="E48" s="2" t="s">
+        <v>1187</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -17275,11 +17274,11 @@
       <c r="B49" t="s">
         <v>322</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D49" s="2" t="s">
         <v>1151</v>
       </c>
-      <c r="E49" t="s">
-        <v>1182</v>
+      <c r="E49" s="2" t="s">
+        <v>1187</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -17292,11 +17291,11 @@
       <c r="C50" t="s">
         <v>1046</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D50" s="2" t="s">
         <v>1151</v>
       </c>
-      <c r="E50" t="s">
-        <v>1182</v>
+      <c r="E50" s="2" t="s">
+        <v>1187</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -17306,11 +17305,11 @@
       <c r="B51" t="s">
         <v>411</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D51" s="2" t="s">
         <v>1151</v>
       </c>
-      <c r="E51" t="s">
-        <v>1182</v>
+      <c r="E51" s="2" t="s">
+        <v>1187</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -17323,11 +17322,11 @@
       <c r="C52" t="s">
         <v>1046</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D52" s="2" t="s">
         <v>1151</v>
       </c>
-      <c r="E52" t="s">
-        <v>1182</v>
+      <c r="E52" s="2" t="s">
+        <v>1187</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -17337,11 +17336,11 @@
       <c r="B53" t="s">
         <v>479</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D53" s="2" t="s">
         <v>1151</v>
       </c>
-      <c r="E53" t="s">
-        <v>1182</v>
+      <c r="E53" s="2" t="s">
+        <v>1187</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -17354,11 +17353,11 @@
       <c r="C54" t="s">
         <v>1046</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D54" s="2" t="s">
         <v>1151</v>
       </c>
-      <c r="E54" t="s">
-        <v>1182</v>
+      <c r="E54" s="2" t="s">
+        <v>1187</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -17371,11 +17370,11 @@
       <c r="C55" t="s">
         <v>1046</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D55" s="2" t="s">
         <v>1151</v>
       </c>
-      <c r="E55" t="s">
-        <v>1182</v>
+      <c r="E55" s="2" t="s">
+        <v>1187</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -17385,11 +17384,11 @@
       <c r="B56" t="s">
         <v>490</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D56" s="2" t="s">
         <v>1151</v>
       </c>
-      <c r="E56" t="s">
-        <v>1182</v>
+      <c r="E56" s="2" t="s">
+        <v>1187</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -17402,11 +17401,11 @@
       <c r="C57" t="s">
         <v>1046</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D57" s="2" t="s">
         <v>1151</v>
       </c>
-      <c r="E57" t="s">
-        <v>1182</v>
+      <c r="E57" s="2" t="s">
+        <v>1187</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -17416,11 +17415,11 @@
       <c r="B58" t="s">
         <v>327</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D58" s="2" t="s">
         <v>1151</v>
       </c>
-      <c r="E58" t="s">
-        <v>1182</v>
+      <c r="E58" s="2" t="s">
+        <v>1187</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -17430,11 +17429,11 @@
       <c r="B59" t="s">
         <v>319</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D59" s="2" t="s">
         <v>1151</v>
       </c>
-      <c r="E59" t="s">
-        <v>1182</v>
+      <c r="E59" s="2" t="s">
+        <v>1187</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -17447,11 +17446,11 @@
       <c r="C60" t="s">
         <v>1046</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D60" s="2" t="s">
         <v>1151</v>
       </c>
-      <c r="E60" t="s">
-        <v>1182</v>
+      <c r="E60" s="2" t="s">
+        <v>1187</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -17461,11 +17460,11 @@
       <c r="B61" t="s">
         <v>319</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D61" s="2" t="s">
         <v>1151</v>
       </c>
-      <c r="E61" t="s">
-        <v>1182</v>
+      <c r="E61" s="2" t="s">
+        <v>1187</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -17475,11 +17474,11 @@
       <c r="B62" t="s">
         <v>352</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D62" s="2" t="s">
         <v>1161</v>
       </c>
-      <c r="E62" t="s">
-        <v>1189</v>
+      <c r="E62" s="2" t="s">
+        <v>1188</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -17489,11 +17488,11 @@
       <c r="B63" t="s">
         <v>335</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D63" s="2" t="s">
         <v>1169</v>
       </c>
-      <c r="E63" t="s">
-        <v>1189</v>
+      <c r="E63" s="2" t="s">
+        <v>1188</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -17503,11 +17502,11 @@
       <c r="B64" t="s">
         <v>420</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D64" s="2" t="s">
         <v>1152</v>
       </c>
-      <c r="E64" t="s">
-        <v>1191</v>
+      <c r="E64" s="2" t="s">
+        <v>1189</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -17517,11 +17516,11 @@
       <c r="B65" t="s">
         <v>320</v>
       </c>
-      <c r="D65" t="s">
+      <c r="D65" s="2" t="s">
         <v>1152</v>
       </c>
-      <c r="E65" t="s">
-        <v>1191</v>
+      <c r="E65" s="2" t="s">
+        <v>1189</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -17531,11 +17530,11 @@
       <c r="B66" t="s">
         <v>424</v>
       </c>
-      <c r="D66" t="s">
+      <c r="D66" s="2" t="s">
         <v>1160</v>
       </c>
-      <c r="E66" t="s">
-        <v>1183</v>
+      <c r="E66" s="2" t="s">
+        <v>1190</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -17545,11 +17544,11 @@
       <c r="B67" t="s">
         <v>346</v>
       </c>
-      <c r="D67" t="s">
+      <c r="D67" s="2" t="s">
         <v>1160</v>
       </c>
-      <c r="E67" t="s">
-        <v>1183</v>
+      <c r="E67" s="2" t="s">
+        <v>1190</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -17559,11 +17558,11 @@
       <c r="B68" t="s">
         <v>326</v>
       </c>
-      <c r="D68" t="s">
+      <c r="D68" s="2" t="s">
         <v>1160</v>
       </c>
-      <c r="E68" t="s">
-        <v>1183</v>
+      <c r="E68" s="2" t="s">
+        <v>1190</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -17573,11 +17572,11 @@
       <c r="B69" t="s">
         <v>313</v>
       </c>
-      <c r="D69" t="s">
+      <c r="D69" s="2" t="s">
         <v>1160</v>
       </c>
-      <c r="E69" t="s">
-        <v>1183</v>
+      <c r="E69" s="2" t="s">
+        <v>1190</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -17587,11 +17586,11 @@
       <c r="B70" t="s">
         <v>349</v>
       </c>
-      <c r="D70" t="s">
+      <c r="D70" s="2" t="s">
         <v>1160</v>
       </c>
-      <c r="E70" t="s">
-        <v>1183</v>
+      <c r="E70" s="2" t="s">
+        <v>1190</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -17601,11 +17600,11 @@
       <c r="B71" t="s">
         <v>308</v>
       </c>
-      <c r="D71" t="s">
+      <c r="D71" s="2" t="s">
         <v>1160</v>
       </c>
-      <c r="E71" t="s">
-        <v>1183</v>
+      <c r="E71" s="2" t="s">
+        <v>1190</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -17615,11 +17614,11 @@
       <c r="B72" t="s">
         <v>308</v>
       </c>
-      <c r="D72" t="s">
+      <c r="D72" s="2" t="s">
         <v>1160</v>
       </c>
-      <c r="E72" t="s">
-        <v>1183</v>
+      <c r="E72" s="2" t="s">
+        <v>1190</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -17629,11 +17628,11 @@
       <c r="B73" t="s">
         <v>312</v>
       </c>
-      <c r="D73" t="s">
+      <c r="D73" s="2" t="s">
         <v>1160</v>
       </c>
-      <c r="E73" t="s">
-        <v>1183</v>
+      <c r="E73" s="2" t="s">
+        <v>1190</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -17643,11 +17642,11 @@
       <c r="B74" t="s">
         <v>329</v>
       </c>
-      <c r="D74" t="s">
+      <c r="D74" s="2" t="s">
         <v>1171</v>
       </c>
-      <c r="E74" t="s">
-        <v>1183</v>
+      <c r="E74" s="2" t="s">
+        <v>1190</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -17657,11 +17656,11 @@
       <c r="B75" t="s">
         <v>457</v>
       </c>
-      <c r="D75" t="s">
+      <c r="D75" s="2" t="s">
         <v>1172</v>
       </c>
-      <c r="E75" t="s">
-        <v>1183</v>
+      <c r="E75" s="2" t="s">
+        <v>1190</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -17671,11 +17670,11 @@
       <c r="B76" t="s">
         <v>371</v>
       </c>
-      <c r="D76" t="s">
+      <c r="D76" s="2" t="s">
         <v>1160</v>
       </c>
-      <c r="E76" t="s">
-        <v>1183</v>
+      <c r="E76" s="2" t="s">
+        <v>1190</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -17685,11 +17684,11 @@
       <c r="B77" t="s">
         <v>341</v>
       </c>
-      <c r="D77" t="s">
+      <c r="D77" s="2" t="s">
         <v>1174</v>
       </c>
-      <c r="E77" t="s">
-        <v>1183</v>
+      <c r="E77" s="2" t="s">
+        <v>1190</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
@@ -17702,11 +17701,11 @@
       <c r="C78" t="s">
         <v>1046</v>
       </c>
-      <c r="D78" t="s">
+      <c r="D78" s="2" t="s">
         <v>1174</v>
       </c>
-      <c r="E78" t="s">
-        <v>1183</v>
+      <c r="E78" s="2" t="s">
+        <v>1190</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -17716,11 +17715,11 @@
       <c r="B79" t="s">
         <v>368</v>
       </c>
-      <c r="D79" t="s">
+      <c r="D79" s="2" t="s">
         <v>1178</v>
       </c>
-      <c r="E79" t="s">
-        <v>1183</v>
+      <c r="E79" s="2" t="s">
+        <v>1190</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
@@ -17730,11 +17729,11 @@
       <c r="B80" t="s">
         <v>303</v>
       </c>
-      <c r="D80" t="s">
+      <c r="D80" s="2" t="s">
         <v>1159</v>
       </c>
-      <c r="E80" t="s">
-        <v>1186</v>
+      <c r="E80" s="2" t="s">
+        <v>1191</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
@@ -17744,11 +17743,11 @@
       <c r="B81" t="s">
         <v>303</v>
       </c>
-      <c r="D81" t="s">
+      <c r="D81" s="2" t="s">
         <v>1159</v>
       </c>
-      <c r="E81" t="s">
-        <v>1186</v>
+      <c r="E81" s="2" t="s">
+        <v>1191</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
@@ -17758,11 +17757,11 @@
       <c r="B82" t="s">
         <v>526</v>
       </c>
-      <c r="D82" t="s">
+      <c r="D82" s="2" t="s">
         <v>1167</v>
       </c>
-      <c r="E82" t="s">
-        <v>1186</v>
+      <c r="E82" s="2" t="s">
+        <v>1191</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
@@ -17772,11 +17771,11 @@
       <c r="B83" t="s">
         <v>418</v>
       </c>
-      <c r="D83" t="s">
+      <c r="D83" s="2" t="s">
         <v>1167</v>
       </c>
-      <c r="E83" t="s">
-        <v>1186</v>
+      <c r="E83" s="2" t="s">
+        <v>1191</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
@@ -17786,11 +17785,11 @@
       <c r="B84" t="s">
         <v>522</v>
       </c>
-      <c r="D84" t="s">
+      <c r="D84" s="2" t="s">
         <v>1167</v>
       </c>
-      <c r="E84" t="s">
-        <v>1186</v>
+      <c r="E84" s="2" t="s">
+        <v>1191</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -17800,11 +17799,11 @@
       <c r="B85" t="s">
         <v>522</v>
       </c>
-      <c r="D85" t="s">
+      <c r="D85" s="2" t="s">
         <v>1167</v>
       </c>
-      <c r="E85" t="s">
-        <v>1186</v>
+      <c r="E85" s="2" t="s">
+        <v>1191</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -17817,11 +17816,11 @@
       <c r="C86" t="s">
         <v>1046</v>
       </c>
-      <c r="D86" t="s">
+      <c r="D86" s="2" t="s">
         <v>1167</v>
       </c>
-      <c r="E86" t="s">
-        <v>1186</v>
+      <c r="E86" s="2" t="s">
+        <v>1191</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
@@ -17831,11 +17830,11 @@
       <c r="B87" t="s">
         <v>495</v>
       </c>
-      <c r="D87" t="s">
+      <c r="D87" s="2" t="s">
         <v>1167</v>
       </c>
-      <c r="E87" t="s">
-        <v>1186</v>
+      <c r="E87" s="2" t="s">
+        <v>1191</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -17845,11 +17844,11 @@
       <c r="B88" t="s">
         <v>1010</v>
       </c>
-      <c r="D88" t="s">
+      <c r="D88" s="2" t="s">
         <v>1150</v>
       </c>
-      <c r="E88" t="s">
-        <v>1181</v>
+      <c r="E88" s="2" t="s">
+        <v>1192</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
@@ -17862,11 +17861,11 @@
       <c r="C89" t="s">
         <v>1046</v>
       </c>
-      <c r="D89" t="s">
+      <c r="D89" s="2" t="s">
         <v>1150</v>
       </c>
-      <c r="E89" t="s">
-        <v>1181</v>
+      <c r="E89" s="2" t="s">
+        <v>1192</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
@@ -17876,11 +17875,11 @@
       <c r="B90" t="s">
         <v>425</v>
       </c>
-      <c r="D90" t="s">
+      <c r="D90" s="2" t="s">
         <v>1150</v>
       </c>
-      <c r="E90" t="s">
-        <v>1181</v>
+      <c r="E90" s="2" t="s">
+        <v>1192</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
@@ -17893,11 +17892,11 @@
       <c r="C91" t="s">
         <v>1049</v>
       </c>
-      <c r="D91" t="s">
+      <c r="D91" s="2" t="s">
         <v>1150</v>
       </c>
-      <c r="E91" t="s">
-        <v>1181</v>
+      <c r="E91" s="2" t="s">
+        <v>1192</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
@@ -17910,11 +17909,11 @@
       <c r="C92" t="s">
         <v>1049</v>
       </c>
-      <c r="D92" t="s">
+      <c r="D92" s="2" t="s">
         <v>1150</v>
       </c>
-      <c r="E92" t="s">
-        <v>1181</v>
+      <c r="E92" s="2" t="s">
+        <v>1192</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
@@ -17924,11 +17923,11 @@
       <c r="B93" t="s">
         <v>438</v>
       </c>
-      <c r="D93" t="s">
+      <c r="D93" s="2" t="s">
         <v>1150</v>
       </c>
-      <c r="E93" t="s">
-        <v>1181</v>
+      <c r="E93" s="2" t="s">
+        <v>1192</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
@@ -17938,11 +17937,11 @@
       <c r="B94" t="s">
         <v>440</v>
       </c>
-      <c r="D94" t="s">
+      <c r="D94" s="2" t="s">
         <v>1150</v>
       </c>
-      <c r="E94" t="s">
-        <v>1181</v>
+      <c r="E94" s="2" t="s">
+        <v>1192</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
@@ -17952,11 +17951,11 @@
       <c r="B95" t="s">
         <v>441</v>
       </c>
-      <c r="D95" t="s">
+      <c r="D95" s="2" t="s">
         <v>1150</v>
       </c>
-      <c r="E95" t="s">
-        <v>1181</v>
+      <c r="E95" s="2" t="s">
+        <v>1192</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
@@ -17966,11 +17965,11 @@
       <c r="B96" t="s">
         <v>394</v>
       </c>
-      <c r="D96" t="s">
+      <c r="D96" s="2" t="s">
         <v>1150</v>
       </c>
-      <c r="E96" t="s">
-        <v>1181</v>
+      <c r="E96" s="2" t="s">
+        <v>1192</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
@@ -17980,11 +17979,11 @@
       <c r="B97" t="s">
         <v>357</v>
       </c>
-      <c r="D97" t="s">
+      <c r="D97" s="2" t="s">
         <v>1150</v>
       </c>
-      <c r="E97" t="s">
-        <v>1181</v>
+      <c r="E97" s="2" t="s">
+        <v>1192</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
@@ -17994,11 +17993,11 @@
       <c r="B98" t="s">
         <v>1139</v>
       </c>
-      <c r="D98" t="s">
+      <c r="D98" s="2" t="s">
         <v>1150</v>
       </c>
-      <c r="E98" t="s">
-        <v>1181</v>
+      <c r="E98" s="2" t="s">
+        <v>1192</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
@@ -18008,11 +18007,11 @@
       <c r="B99" t="s">
         <v>310</v>
       </c>
-      <c r="D99" t="s">
+      <c r="D99" s="2" t="s">
         <v>1150</v>
       </c>
-      <c r="E99" t="s">
-        <v>1181</v>
+      <c r="E99" s="2" t="s">
+        <v>1192</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
@@ -18025,11 +18024,11 @@
       <c r="C100" t="s">
         <v>1046</v>
       </c>
-      <c r="D100" t="s">
+      <c r="D100" s="2" t="s">
         <v>1150</v>
       </c>
-      <c r="E100" t="s">
-        <v>1181</v>
+      <c r="E100" s="2" t="s">
+        <v>1192</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
@@ -18039,11 +18038,11 @@
       <c r="B101" t="s">
         <v>310</v>
       </c>
-      <c r="D101" t="s">
+      <c r="D101" s="2" t="s">
         <v>1150</v>
       </c>
-      <c r="E101" t="s">
-        <v>1181</v>
+      <c r="E101" s="2" t="s">
+        <v>1192</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
@@ -18056,11 +18055,11 @@
       <c r="C102" t="s">
         <v>504</v>
       </c>
-      <c r="D102" t="s">
+      <c r="D102" s="2" t="s">
         <v>1150</v>
       </c>
-      <c r="E102" t="s">
-        <v>1181</v>
+      <c r="E102" s="2" t="s">
+        <v>1192</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
@@ -18070,11 +18069,11 @@
       <c r="B103" t="s">
         <v>310</v>
       </c>
-      <c r="D103" t="s">
+      <c r="D103" s="2" t="s">
         <v>1150</v>
       </c>
-      <c r="E103" t="s">
-        <v>1181</v>
+      <c r="E103" s="2" t="s">
+        <v>1192</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
@@ -18087,11 +18086,11 @@
       <c r="C104" t="s">
         <v>545</v>
       </c>
-      <c r="D104" t="s">
+      <c r="D104" s="2" t="s">
         <v>1150</v>
       </c>
-      <c r="E104" t="s">
-        <v>1181</v>
+      <c r="E104" s="2" t="s">
+        <v>1192</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
@@ -18101,11 +18100,11 @@
       <c r="B105" t="s">
         <v>397</v>
       </c>
-      <c r="D105" t="s">
+      <c r="D105" s="2" t="s">
         <v>1150</v>
       </c>
-      <c r="E105" t="s">
-        <v>1181</v>
+      <c r="E105" s="2" t="s">
+        <v>1192</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
@@ -18115,11 +18114,11 @@
       <c r="B106" t="s">
         <v>397</v>
       </c>
-      <c r="D106" t="s">
+      <c r="D106" s="2" t="s">
         <v>1150</v>
       </c>
-      <c r="E106" t="s">
-        <v>1181</v>
+      <c r="E106" s="2" t="s">
+        <v>1192</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
@@ -18129,11 +18128,11 @@
       <c r="B107" t="s">
         <v>347</v>
       </c>
-      <c r="D107" t="s">
+      <c r="D107" s="2" t="s">
         <v>1150</v>
       </c>
-      <c r="E107" t="s">
-        <v>1181</v>
+      <c r="E107" s="2" t="s">
+        <v>1192</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
@@ -18143,11 +18142,11 @@
       <c r="B108" t="s">
         <v>289</v>
       </c>
-      <c r="D108" t="s">
+      <c r="D108" s="2" t="s">
         <v>1150</v>
       </c>
-      <c r="E108" t="s">
-        <v>1181</v>
+      <c r="E108" s="2" t="s">
+        <v>1192</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
@@ -18160,11 +18159,11 @@
       <c r="C109" t="s">
         <v>1049</v>
       </c>
-      <c r="D109" t="s">
+      <c r="D109" s="2" t="s">
         <v>1150</v>
       </c>
-      <c r="E109" t="s">
-        <v>1181</v>
+      <c r="E109" s="2" t="s">
+        <v>1192</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
@@ -18177,11 +18176,11 @@
       <c r="C110" t="s">
         <v>1049</v>
       </c>
-      <c r="D110" t="s">
+      <c r="D110" s="2" t="s">
         <v>1150</v>
       </c>
-      <c r="E110" t="s">
-        <v>1181</v>
+      <c r="E110" s="2" t="s">
+        <v>1192</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
@@ -18194,11 +18193,11 @@
       <c r="C111" t="s">
         <v>1046</v>
       </c>
-      <c r="D111" t="s">
+      <c r="D111" s="2" t="s">
         <v>1150</v>
       </c>
-      <c r="E111" t="s">
-        <v>1181</v>
+      <c r="E111" s="2" t="s">
+        <v>1192</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
@@ -18208,11 +18207,11 @@
       <c r="B112" t="s">
         <v>538</v>
       </c>
-      <c r="D112" t="s">
+      <c r="D112" s="2" t="s">
         <v>1150</v>
       </c>
-      <c r="E112" t="s">
-        <v>1181</v>
+      <c r="E112" s="2" t="s">
+        <v>1192</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
@@ -18225,11 +18224,11 @@
       <c r="C113" t="s">
         <v>1049</v>
       </c>
-      <c r="D113" t="s">
+      <c r="D113" s="2" t="s">
         <v>1150</v>
       </c>
-      <c r="E113" t="s">
-        <v>1181</v>
+      <c r="E113" s="2" t="s">
+        <v>1192</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
@@ -18242,11 +18241,11 @@
       <c r="C114" t="s">
         <v>1049</v>
       </c>
-      <c r="D114" t="s">
+      <c r="D114" s="2" t="s">
         <v>1150</v>
       </c>
-      <c r="E114" t="s">
-        <v>1181</v>
+      <c r="E114" s="2" t="s">
+        <v>1192</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
@@ -18259,11 +18258,11 @@
       <c r="C115" t="s">
         <v>1049</v>
       </c>
-      <c r="D115" t="s">
+      <c r="D115" s="2" t="s">
         <v>1150</v>
       </c>
-      <c r="E115" t="s">
-        <v>1181</v>
+      <c r="E115" s="2" t="s">
+        <v>1192</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
@@ -18273,11 +18272,11 @@
       <c r="B116" t="s">
         <v>302</v>
       </c>
-      <c r="D116" t="s">
+      <c r="D116" s="2" t="s">
         <v>1150</v>
       </c>
-      <c r="E116" t="s">
-        <v>1181</v>
+      <c r="E116" s="2" t="s">
+        <v>1192</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
@@ -18290,11 +18289,11 @@
       <c r="C117" t="s">
         <v>1046</v>
       </c>
-      <c r="D117" t="s">
+      <c r="D117" s="2" t="s">
         <v>1150</v>
       </c>
-      <c r="E117" t="s">
-        <v>1181</v>
+      <c r="E117" s="2" t="s">
+        <v>1192</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
@@ -18304,11 +18303,11 @@
       <c r="B118" t="s">
         <v>302</v>
       </c>
-      <c r="D118" t="s">
+      <c r="D118" s="2" t="s">
         <v>1150</v>
       </c>
-      <c r="E118" t="s">
-        <v>1181</v>
+      <c r="E118" s="2" t="s">
+        <v>1192</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
@@ -18318,11 +18317,11 @@
       <c r="B119" t="s">
         <v>302</v>
       </c>
-      <c r="D119" t="s">
+      <c r="D119" s="2" t="s">
         <v>1150</v>
       </c>
-      <c r="E119" t="s">
-        <v>1181</v>
+      <c r="E119" s="2" t="s">
+        <v>1192</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
@@ -18332,11 +18331,11 @@
       <c r="B120" t="s">
         <v>302</v>
       </c>
-      <c r="D120" t="s">
+      <c r="D120" s="2" t="s">
         <v>1150</v>
       </c>
-      <c r="E120" t="s">
-        <v>1181</v>
+      <c r="E120" s="2" t="s">
+        <v>1192</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
@@ -18349,11 +18348,11 @@
       <c r="C121" t="s">
         <v>1049</v>
       </c>
-      <c r="D121" t="s">
+      <c r="D121" s="2" t="s">
         <v>1150</v>
       </c>
-      <c r="E121" t="s">
-        <v>1181</v>
+      <c r="E121" s="2" t="s">
+        <v>1192</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
@@ -18363,11 +18362,11 @@
       <c r="B122" t="s">
         <v>461</v>
       </c>
-      <c r="D122" t="s">
+      <c r="D122" s="2" t="s">
         <v>1150</v>
       </c>
-      <c r="E122" t="s">
-        <v>1181</v>
+      <c r="E122" s="2" t="s">
+        <v>1192</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
@@ -18380,11 +18379,11 @@
       <c r="C123" t="s">
         <v>1046</v>
       </c>
-      <c r="D123" t="s">
+      <c r="D123" s="2" t="s">
         <v>1173</v>
       </c>
-      <c r="E123" t="s">
-        <v>1181</v>
+      <c r="E123" s="2" t="s">
+        <v>1192</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
@@ -18394,11 +18393,11 @@
       <c r="B124" t="s">
         <v>405</v>
       </c>
-      <c r="D124" t="s">
+      <c r="D124" s="2" t="s">
         <v>1150</v>
       </c>
-      <c r="E124" t="s">
-        <v>1181</v>
+      <c r="E124" s="2" t="s">
+        <v>1192</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
@@ -18408,11 +18407,11 @@
       <c r="B125" t="s">
         <v>406</v>
       </c>
-      <c r="D125" t="s">
+      <c r="D125" s="2" t="s">
         <v>1150</v>
       </c>
-      <c r="E125" t="s">
-        <v>1181</v>
+      <c r="E125" s="2" t="s">
+        <v>1192</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
@@ -18425,11 +18424,11 @@
       <c r="C126" t="s">
         <v>1046</v>
       </c>
-      <c r="D126" t="s">
+      <c r="D126" s="2" t="s">
         <v>1150</v>
       </c>
-      <c r="E126" t="s">
-        <v>1181</v>
+      <c r="E126" s="2" t="s">
+        <v>1192</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
@@ -18439,11 +18438,11 @@
       <c r="B127" t="s">
         <v>407</v>
       </c>
-      <c r="D127" t="s">
+      <c r="D127" s="2" t="s">
         <v>1150</v>
       </c>
-      <c r="E127" t="s">
-        <v>1181</v>
+      <c r="E127" s="2" t="s">
+        <v>1192</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
@@ -18453,11 +18452,11 @@
       <c r="B128" t="s">
         <v>407</v>
       </c>
-      <c r="D128" t="s">
+      <c r="D128" s="2" t="s">
         <v>1150</v>
       </c>
-      <c r="E128" t="s">
-        <v>1181</v>
+      <c r="E128" s="2" t="s">
+        <v>1192</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
@@ -18467,11 +18466,11 @@
       <c r="B129" t="s">
         <v>1136</v>
       </c>
-      <c r="D129" t="s">
+      <c r="D129" s="2" t="s">
         <v>1150</v>
       </c>
-      <c r="E129" t="s">
-        <v>1181</v>
+      <c r="E129" s="2" t="s">
+        <v>1192</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
@@ -18484,11 +18483,11 @@
       <c r="C130" t="s">
         <v>1046</v>
       </c>
-      <c r="D130" t="s">
+      <c r="D130" s="2" t="s">
         <v>1150</v>
       </c>
-      <c r="E130" t="s">
-        <v>1181</v>
+      <c r="E130" s="2" t="s">
+        <v>1192</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
@@ -18498,11 +18497,11 @@
       <c r="B131" t="s">
         <v>474</v>
       </c>
-      <c r="D131" t="s">
+      <c r="D131" s="2" t="s">
         <v>1150</v>
       </c>
-      <c r="E131" t="s">
-        <v>1181</v>
+      <c r="E131" s="2" t="s">
+        <v>1192</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
@@ -18512,11 +18511,11 @@
       <c r="B132" t="s">
         <v>474</v>
       </c>
-      <c r="D132" t="s">
+      <c r="D132" s="2" t="s">
         <v>1150</v>
       </c>
-      <c r="E132" t="s">
-        <v>1181</v>
+      <c r="E132" s="2" t="s">
+        <v>1192</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
@@ -18526,11 +18525,11 @@
       <c r="B133" t="s">
         <v>408</v>
       </c>
-      <c r="D133" t="s">
+      <c r="D133" s="2" t="s">
         <v>1150</v>
       </c>
-      <c r="E133" t="s">
-        <v>1181</v>
+      <c r="E133" s="2" t="s">
+        <v>1192</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
@@ -18540,11 +18539,11 @@
       <c r="B134" t="s">
         <v>307</v>
       </c>
-      <c r="D134" t="s">
+      <c r="D134" s="2" t="s">
         <v>1150</v>
       </c>
-      <c r="E134" t="s">
-        <v>1181</v>
+      <c r="E134" s="2" t="s">
+        <v>1192</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
@@ -18554,11 +18553,11 @@
       <c r="B135" t="s">
         <v>307</v>
       </c>
-      <c r="D135" t="s">
+      <c r="D135" s="2" t="s">
         <v>1150</v>
       </c>
-      <c r="E135" t="s">
-        <v>1181</v>
+      <c r="E135" s="2" t="s">
+        <v>1192</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
@@ -18568,11 +18567,11 @@
       <c r="B136" t="s">
         <v>478</v>
       </c>
-      <c r="D136" t="s">
+      <c r="D136" s="2" t="s">
         <v>1150</v>
       </c>
-      <c r="E136" t="s">
-        <v>1181</v>
+      <c r="E136" s="2" t="s">
+        <v>1192</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
@@ -18582,11 +18581,11 @@
       <c r="B137" t="s">
         <v>523</v>
       </c>
-      <c r="D137" t="s">
+      <c r="D137" s="2" t="s">
         <v>1150</v>
       </c>
-      <c r="E137" t="s">
-        <v>1181</v>
+      <c r="E137" s="2" t="s">
+        <v>1192</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
@@ -18599,11 +18598,11 @@
       <c r="C138" t="s">
         <v>1049</v>
       </c>
-      <c r="D138" t="s">
+      <c r="D138" s="2" t="s">
         <v>1150</v>
       </c>
-      <c r="E138" t="s">
-        <v>1181</v>
+      <c r="E138" s="2" t="s">
+        <v>1192</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
@@ -18616,11 +18615,11 @@
       <c r="C139" t="s">
         <v>1049</v>
       </c>
-      <c r="D139" t="s">
+      <c r="D139" s="2" t="s">
         <v>1150</v>
       </c>
-      <c r="E139" t="s">
-        <v>1181</v>
+      <c r="E139" s="2" t="s">
+        <v>1192</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
@@ -18633,11 +18632,11 @@
       <c r="C140" t="s">
         <v>1049</v>
       </c>
-      <c r="D140" t="s">
+      <c r="D140" s="2" t="s">
         <v>1150</v>
       </c>
-      <c r="E140" t="s">
-        <v>1181</v>
+      <c r="E140" s="2" t="s">
+        <v>1192</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
@@ -18647,11 +18646,11 @@
       <c r="B141" t="s">
         <v>304</v>
       </c>
-      <c r="D141" t="s">
+      <c r="D141" s="2" t="s">
         <v>1150</v>
       </c>
-      <c r="E141" t="s">
-        <v>1181</v>
+      <c r="E141" s="2" t="s">
+        <v>1192</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
@@ -18661,11 +18660,11 @@
       <c r="B142" t="s">
         <v>304</v>
       </c>
-      <c r="D142" t="s">
+      <c r="D142" s="2" t="s">
         <v>1150</v>
       </c>
-      <c r="E142" t="s">
-        <v>1181</v>
+      <c r="E142" s="2" t="s">
+        <v>1192</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
@@ -18675,11 +18674,11 @@
       <c r="B143" t="s">
         <v>304</v>
       </c>
-      <c r="D143" t="s">
+      <c r="D143" s="2" t="s">
         <v>1150</v>
       </c>
-      <c r="E143" t="s">
-        <v>1181</v>
+      <c r="E143" s="2" t="s">
+        <v>1192</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
@@ -18692,11 +18691,11 @@
       <c r="C144" t="s">
         <v>1049</v>
       </c>
-      <c r="D144" t="s">
+      <c r="D144" s="2" t="s">
         <v>1150</v>
       </c>
-      <c r="E144" t="s">
-        <v>1181</v>
+      <c r="E144" s="2" t="s">
+        <v>1192</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
@@ -18709,11 +18708,11 @@
       <c r="C145" t="s">
         <v>1049</v>
       </c>
-      <c r="D145" t="s">
+      <c r="D145" s="2" t="s">
         <v>1150</v>
       </c>
-      <c r="E145" t="s">
-        <v>1181</v>
+      <c r="E145" s="2" t="s">
+        <v>1192</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
@@ -18726,11 +18725,11 @@
       <c r="C146" t="s">
         <v>1049</v>
       </c>
-      <c r="D146" t="s">
+      <c r="D146" s="2" t="s">
         <v>1150</v>
       </c>
-      <c r="E146" t="s">
-        <v>1181</v>
+      <c r="E146" s="2" t="s">
+        <v>1192</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
@@ -18743,11 +18742,11 @@
       <c r="C147" t="s">
         <v>1049</v>
       </c>
-      <c r="D147" t="s">
+      <c r="D147" s="2" t="s">
         <v>1150</v>
       </c>
-      <c r="E147" t="s">
-        <v>1181</v>
+      <c r="E147" s="2" t="s">
+        <v>1192</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
@@ -18760,11 +18759,11 @@
       <c r="C148" t="s">
         <v>1049</v>
       </c>
-      <c r="D148" t="s">
+      <c r="D148" s="2" t="s">
         <v>1150</v>
       </c>
-      <c r="E148" t="s">
-        <v>1181</v>
+      <c r="E148" s="2" t="s">
+        <v>1192</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
@@ -18777,11 +18776,11 @@
       <c r="C149" t="s">
         <v>1049</v>
       </c>
-      <c r="D149" t="s">
+      <c r="D149" s="2" t="s">
         <v>1150</v>
       </c>
-      <c r="E149" t="s">
-        <v>1181</v>
+      <c r="E149" s="2" t="s">
+        <v>1192</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
@@ -18794,11 +18793,11 @@
       <c r="C150" t="s">
         <v>1046</v>
       </c>
-      <c r="D150" t="s">
+      <c r="D150" s="2" t="s">
         <v>1150</v>
       </c>
-      <c r="E150" t="s">
-        <v>1181</v>
+      <c r="E150" s="2" t="s">
+        <v>1192</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
@@ -18808,11 +18807,11 @@
       <c r="B151" t="s">
         <v>340</v>
       </c>
-      <c r="D151" t="s">
+      <c r="D151" s="2" t="s">
         <v>1150</v>
       </c>
-      <c r="E151" t="s">
-        <v>1181</v>
+      <c r="E151" s="2" t="s">
+        <v>1192</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
@@ -18825,11 +18824,11 @@
       <c r="C152" t="s">
         <v>1046</v>
       </c>
-      <c r="D152" t="s">
+      <c r="D152" s="2" t="s">
         <v>1150</v>
       </c>
-      <c r="E152" t="s">
-        <v>1181</v>
+      <c r="E152" s="2" t="s">
+        <v>1192</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
@@ -18839,11 +18838,11 @@
       <c r="B153" t="s">
         <v>340</v>
       </c>
-      <c r="D153" t="s">
+      <c r="D153" s="2" t="s">
         <v>1150</v>
       </c>
-      <c r="E153" t="s">
-        <v>1181</v>
+      <c r="E153" s="2" t="s">
+        <v>1192</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
@@ -18853,11 +18852,11 @@
       <c r="B154" t="s">
         <v>340</v>
       </c>
-      <c r="D154" t="s">
+      <c r="D154" s="2" t="s">
         <v>1150</v>
       </c>
-      <c r="E154" t="s">
-        <v>1181</v>
+      <c r="E154" s="2" t="s">
+        <v>1192</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
@@ -18867,11 +18866,11 @@
       <c r="B155" t="s">
         <v>415</v>
       </c>
-      <c r="D155" t="s">
+      <c r="D155" s="2" t="s">
         <v>1150</v>
       </c>
-      <c r="E155" t="s">
-        <v>1181</v>
+      <c r="E155" s="2" t="s">
+        <v>1192</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
@@ -18881,11 +18880,11 @@
       <c r="B156" t="s">
         <v>416</v>
       </c>
-      <c r="D156" t="s">
+      <c r="D156" s="2" t="s">
         <v>1150</v>
       </c>
-      <c r="E156" t="s">
-        <v>1181</v>
+      <c r="E156" s="2" t="s">
+        <v>1192</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
@@ -18898,11 +18897,11 @@
       <c r="C157" t="s">
         <v>1046</v>
       </c>
-      <c r="D157" t="s">
+      <c r="D157" s="2" t="s">
         <v>1150</v>
       </c>
-      <c r="E157" t="s">
-        <v>1181</v>
+      <c r="E157" s="2" t="s">
+        <v>1192</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
@@ -18912,11 +18911,11 @@
       <c r="B158" t="s">
         <v>417</v>
       </c>
-      <c r="D158" t="s">
+      <c r="D158" s="2" t="s">
         <v>1150</v>
       </c>
-      <c r="E158" t="s">
-        <v>1181</v>
+      <c r="E158" s="2" t="s">
+        <v>1192</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
@@ -18926,11 +18925,11 @@
       <c r="B159" t="s">
         <v>494</v>
       </c>
-      <c r="D159" t="s">
+      <c r="D159" s="2" t="s">
         <v>1150</v>
       </c>
-      <c r="E159" t="s">
-        <v>1181</v>
+      <c r="E159" s="2" t="s">
+        <v>1192</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
@@ -18943,11 +18942,11 @@
       <c r="C160" t="s">
         <v>1046</v>
       </c>
-      <c r="D160" t="s">
+      <c r="D160" s="2" t="s">
         <v>1150</v>
       </c>
-      <c r="E160" t="s">
-        <v>1181</v>
+      <c r="E160" s="2" t="s">
+        <v>1192</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
@@ -18957,11 +18956,11 @@
       <c r="B161" t="s">
         <v>529</v>
       </c>
-      <c r="D161" t="s">
+      <c r="D161" s="2" t="s">
         <v>1150</v>
       </c>
-      <c r="E161" t="s">
-        <v>1181</v>
+      <c r="E161" s="2" t="s">
+        <v>1192</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
@@ -18971,11 +18970,11 @@
       <c r="B162" t="s">
         <v>548</v>
       </c>
-      <c r="D162" t="s">
+      <c r="D162" s="2" t="s">
         <v>1158</v>
       </c>
-      <c r="E162" t="s">
-        <v>1188</v>
+      <c r="E162" s="2" t="s">
+        <v>1193</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
@@ -18985,11 +18984,11 @@
       <c r="B163" t="s">
         <v>549</v>
       </c>
-      <c r="D163" t="s">
+      <c r="D163" s="2" t="s">
         <v>1158</v>
       </c>
-      <c r="E163" t="s">
-        <v>1188</v>
+      <c r="E163" s="2" t="s">
+        <v>1193</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
@@ -18999,11 +18998,11 @@
       <c r="B164" t="s">
         <v>550</v>
       </c>
-      <c r="D164" t="s">
+      <c r="D164" s="2" t="s">
         <v>1158</v>
       </c>
-      <c r="E164" t="s">
-        <v>1188</v>
+      <c r="E164" s="2" t="s">
+        <v>1193</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
@@ -19013,11 +19012,11 @@
       <c r="B165" t="s">
         <v>551</v>
       </c>
-      <c r="D165" t="s">
+      <c r="D165" s="2" t="s">
         <v>1158</v>
       </c>
-      <c r="E165" t="s">
-        <v>1188</v>
+      <c r="E165" s="2" t="s">
+        <v>1193</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
@@ -19027,11 +19026,11 @@
       <c r="B166" t="s">
         <v>552</v>
       </c>
-      <c r="D166" t="s">
+      <c r="D166" s="2" t="s">
         <v>1158</v>
       </c>
-      <c r="E166" t="s">
-        <v>1188</v>
+      <c r="E166" s="2" t="s">
+        <v>1193</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
@@ -19041,11 +19040,11 @@
       <c r="B167" t="s">
         <v>553</v>
       </c>
-      <c r="D167" t="s">
+      <c r="D167" s="2" t="s">
         <v>1158</v>
       </c>
-      <c r="E167" t="s">
-        <v>1188</v>
+      <c r="E167" s="2" t="s">
+        <v>1193</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
@@ -19055,11 +19054,11 @@
       <c r="B168" t="s">
         <v>554</v>
       </c>
-      <c r="D168" t="s">
+      <c r="D168" s="2" t="s">
         <v>1158</v>
       </c>
-      <c r="E168" t="s">
-        <v>1188</v>
+      <c r="E168" s="2" t="s">
+        <v>1193</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
@@ -19069,11 +19068,11 @@
       <c r="B169" t="s">
         <v>555</v>
       </c>
-      <c r="D169" t="s">
+      <c r="D169" s="2" t="s">
         <v>1158</v>
       </c>
-      <c r="E169" t="s">
-        <v>1188</v>
+      <c r="E169" s="2" t="s">
+        <v>1193</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
@@ -19083,11 +19082,11 @@
       <c r="B170" t="s">
         <v>561</v>
       </c>
-      <c r="D170" t="s">
+      <c r="D170" s="2" t="s">
         <v>1158</v>
       </c>
-      <c r="E170" t="s">
-        <v>1188</v>
+      <c r="E170" s="2" t="s">
+        <v>1193</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
@@ -19097,11 +19096,11 @@
       <c r="B171" t="s">
         <v>562</v>
       </c>
-      <c r="D171" t="s">
+      <c r="D171" s="2" t="s">
         <v>1158</v>
       </c>
-      <c r="E171" t="s">
-        <v>1188</v>
+      <c r="E171" s="2" t="s">
+        <v>1193</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
@@ -19111,11 +19110,11 @@
       <c r="B172" t="s">
         <v>563</v>
       </c>
-      <c r="D172" t="s">
+      <c r="D172" s="2" t="s">
         <v>1158</v>
       </c>
-      <c r="E172" t="s">
-        <v>1188</v>
+      <c r="E172" s="2" t="s">
+        <v>1193</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
@@ -19125,11 +19124,11 @@
       <c r="B173" t="s">
         <v>560</v>
       </c>
-      <c r="D173" t="s">
+      <c r="D173" s="2" t="s">
         <v>1158</v>
       </c>
-      <c r="E173" t="s">
-        <v>1188</v>
+      <c r="E173" s="2" t="s">
+        <v>1193</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
@@ -19139,11 +19138,11 @@
       <c r="B174" t="s">
         <v>556</v>
       </c>
-      <c r="D174" t="s">
+      <c r="D174" s="2" t="s">
         <v>1158</v>
       </c>
-      <c r="E174" t="s">
-        <v>1188</v>
+      <c r="E174" s="2" t="s">
+        <v>1193</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
@@ -19153,11 +19152,11 @@
       <c r="B175" t="s">
         <v>559</v>
       </c>
-      <c r="D175" t="s">
+      <c r="D175" s="2" t="s">
         <v>1158</v>
       </c>
-      <c r="E175" t="s">
-        <v>1188</v>
+      <c r="E175" s="2" t="s">
+        <v>1193</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
@@ -19167,11 +19166,11 @@
       <c r="B176" t="s">
         <v>296</v>
       </c>
-      <c r="D176" t="s">
+      <c r="D176" s="2" t="s">
         <v>1158</v>
       </c>
-      <c r="E176" t="s">
-        <v>1188</v>
+      <c r="E176" s="2" t="s">
+        <v>1193</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
@@ -19181,11 +19180,11 @@
       <c r="B177" t="s">
         <v>345</v>
       </c>
-      <c r="D177" t="s">
+      <c r="D177" s="2" t="s">
         <v>1158</v>
       </c>
-      <c r="E177" t="s">
-        <v>1188</v>
+      <c r="E177" s="2" t="s">
+        <v>1193</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
@@ -19195,11 +19194,11 @@
       <c r="B178" t="s">
         <v>288</v>
       </c>
-      <c r="D178" t="s">
+      <c r="D178" s="2" t="s">
         <v>1158</v>
       </c>
-      <c r="E178" t="s">
-        <v>1188</v>
+      <c r="E178" s="2" t="s">
+        <v>1193</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
@@ -19209,11 +19208,11 @@
       <c r="B179" t="s">
         <v>288</v>
       </c>
-      <c r="D179" t="s">
+      <c r="D179" s="2" t="s">
         <v>1158</v>
       </c>
-      <c r="E179" t="s">
-        <v>1188</v>
+      <c r="E179" s="2" t="s">
+        <v>1193</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
@@ -19223,11 +19222,11 @@
       <c r="B180" t="s">
         <v>557</v>
       </c>
-      <c r="D180" t="s">
+      <c r="D180" s="2" t="s">
         <v>1158</v>
       </c>
-      <c r="E180" t="s">
-        <v>1188</v>
+      <c r="E180" s="2" t="s">
+        <v>1193</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
@@ -19237,11 +19236,11 @@
       <c r="B181" t="s">
         <v>558</v>
       </c>
-      <c r="D181" t="s">
+      <c r="D181" s="2" t="s">
         <v>1158</v>
       </c>
-      <c r="E181" t="s">
-        <v>1188</v>
+      <c r="E181" s="2" t="s">
+        <v>1193</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
@@ -19251,11 +19250,11 @@
       <c r="B182" t="s">
         <v>564</v>
       </c>
-      <c r="D182" t="s">
+      <c r="D182" s="2" t="s">
         <v>1158</v>
       </c>
-      <c r="E182" t="s">
-        <v>1188</v>
+      <c r="E182" s="2" t="s">
+        <v>1193</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
@@ -19265,11 +19264,11 @@
       <c r="B183" t="s">
         <v>306</v>
       </c>
-      <c r="D183" t="s">
+      <c r="D183" s="2" t="s">
         <v>1153</v>
       </c>
-      <c r="E183" t="s">
-        <v>1187</v>
+      <c r="E183" s="2" t="s">
+        <v>1194</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
@@ -19279,11 +19278,11 @@
       <c r="B184" t="s">
         <v>333</v>
       </c>
-      <c r="D184" t="s">
+      <c r="D184" s="2" t="s">
         <v>1153</v>
       </c>
-      <c r="E184" t="s">
-        <v>1187</v>
+      <c r="E184" s="2" t="s">
+        <v>1194</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
@@ -19293,11 +19292,11 @@
       <c r="B185" t="s">
         <v>333</v>
       </c>
-      <c r="D185" t="s">
+      <c r="D185" s="2" t="s">
         <v>1153</v>
       </c>
-      <c r="E185" t="s">
-        <v>1187</v>
+      <c r="E185" s="2" t="s">
+        <v>1194</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
@@ -19307,11 +19306,11 @@
       <c r="B186" t="s">
         <v>421</v>
       </c>
-      <c r="D186" t="s">
+      <c r="D186" s="2" t="s">
         <v>1153</v>
       </c>
-      <c r="E186" t="s">
-        <v>1187</v>
+      <c r="E186" s="2" t="s">
+        <v>1194</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
@@ -19321,11 +19320,11 @@
       <c r="B187" t="s">
         <v>370</v>
       </c>
-      <c r="D187" t="s">
+      <c r="D187" s="2" t="s">
         <v>1153</v>
       </c>
-      <c r="E187" t="s">
-        <v>1187</v>
+      <c r="E187" s="2" t="s">
+        <v>1194</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
@@ -19335,11 +19334,11 @@
       <c r="B188" t="s">
         <v>316</v>
       </c>
-      <c r="D188" t="s">
+      <c r="D188" s="2" t="s">
         <v>1153</v>
       </c>
-      <c r="E188" t="s">
-        <v>1187</v>
+      <c r="E188" s="2" t="s">
+        <v>1194</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
@@ -19349,11 +19348,11 @@
       <c r="B189" t="s">
         <v>380</v>
       </c>
-      <c r="D189" t="s">
+      <c r="D189" s="2" t="s">
         <v>1153</v>
       </c>
-      <c r="E189" t="s">
-        <v>1187</v>
+      <c r="E189" s="2" t="s">
+        <v>1194</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
@@ -19363,11 +19362,11 @@
       <c r="B190" t="s">
         <v>380</v>
       </c>
-      <c r="D190" t="s">
+      <c r="D190" s="2" t="s">
         <v>1153</v>
       </c>
-      <c r="E190" t="s">
-        <v>1187</v>
+      <c r="E190" s="2" t="s">
+        <v>1194</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
@@ -19377,11 +19376,11 @@
       <c r="B191" t="s">
         <v>422</v>
       </c>
-      <c r="D191" t="s">
+      <c r="D191" s="2" t="s">
         <v>1153</v>
       </c>
-      <c r="E191" t="s">
-        <v>1187</v>
+      <c r="E191" s="2" t="s">
+        <v>1194</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
@@ -19391,11 +19390,11 @@
       <c r="B192" t="s">
         <v>366</v>
       </c>
-      <c r="D192" t="s">
+      <c r="D192" s="2" t="s">
         <v>1153</v>
       </c>
-      <c r="E192" t="s">
-        <v>1187</v>
+      <c r="E192" s="2" t="s">
+        <v>1194</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
@@ -19405,11 +19404,11 @@
       <c r="B193" t="s">
         <v>423</v>
       </c>
-      <c r="D193" t="s">
+      <c r="D193" s="2" t="s">
         <v>1153</v>
       </c>
-      <c r="E193" t="s">
-        <v>1187</v>
+      <c r="E193" s="2" t="s">
+        <v>1194</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
@@ -19419,11 +19418,11 @@
       <c r="B194" t="s">
         <v>374</v>
       </c>
-      <c r="D194" t="s">
+      <c r="D194" s="2" t="s">
         <v>1153</v>
       </c>
-      <c r="E194" t="s">
-        <v>1187</v>
+      <c r="E194" s="2" t="s">
+        <v>1194</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
@@ -19433,11 +19432,11 @@
       <c r="B195" t="s">
         <v>299</v>
       </c>
-      <c r="D195" t="s">
+      <c r="D195" s="2" t="s">
         <v>1153</v>
       </c>
-      <c r="E195" t="s">
-        <v>1187</v>
+      <c r="E195" s="2" t="s">
+        <v>1194</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
@@ -19447,11 +19446,11 @@
       <c r="B196" t="s">
         <v>297</v>
       </c>
-      <c r="D196" t="s">
+      <c r="D196" s="2" t="s">
         <v>1153</v>
       </c>
-      <c r="E196" t="s">
-        <v>1187</v>
+      <c r="E196" s="2" t="s">
+        <v>1194</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
@@ -19461,11 +19460,11 @@
       <c r="B197" t="s">
         <v>297</v>
       </c>
-      <c r="D197" t="s">
+      <c r="D197" s="2" t="s">
         <v>1153</v>
       </c>
-      <c r="E197" t="s">
-        <v>1187</v>
+      <c r="E197" s="2" t="s">
+        <v>1194</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
@@ -19475,11 +19474,11 @@
       <c r="B198" t="s">
         <v>354</v>
       </c>
-      <c r="D198" t="s">
+      <c r="D198" s="2" t="s">
         <v>1153</v>
       </c>
-      <c r="E198" t="s">
-        <v>1187</v>
+      <c r="E198" s="2" t="s">
+        <v>1194</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
@@ -19489,11 +19488,11 @@
       <c r="B199" t="s">
         <v>541</v>
       </c>
-      <c r="D199" t="s">
+      <c r="D199" s="2" t="s">
         <v>1153</v>
       </c>
-      <c r="E199" t="s">
-        <v>1187</v>
+      <c r="E199" s="2" t="s">
+        <v>1194</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
@@ -19503,11 +19502,11 @@
       <c r="B200" t="s">
         <v>323</v>
       </c>
-      <c r="D200" t="s">
+      <c r="D200" s="2" t="s">
         <v>1153</v>
       </c>
-      <c r="E200" t="s">
-        <v>1187</v>
+      <c r="E200" s="2" t="s">
+        <v>1194</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
@@ -19517,11 +19516,11 @@
       <c r="B201" t="s">
         <v>539</v>
       </c>
-      <c r="D201" t="s">
+      <c r="D201" s="2" t="s">
         <v>1153</v>
       </c>
-      <c r="E201" t="s">
-        <v>1187</v>
+      <c r="E201" s="2" t="s">
+        <v>1194</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
@@ -19531,11 +19530,11 @@
       <c r="B202" t="s">
         <v>540</v>
       </c>
-      <c r="D202" t="s">
+      <c r="D202" s="2" t="s">
         <v>1153</v>
       </c>
-      <c r="E202" t="s">
-        <v>1187</v>
+      <c r="E202" s="2" t="s">
+        <v>1194</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
@@ -19545,11 +19544,11 @@
       <c r="B203" t="s">
         <v>527</v>
       </c>
-      <c r="D203" t="s">
+      <c r="D203" s="2" t="s">
         <v>1153</v>
       </c>
-      <c r="E203" t="s">
-        <v>1187</v>
+      <c r="E203" s="2" t="s">
+        <v>1194</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
@@ -19562,11 +19561,11 @@
       <c r="C204" t="s">
         <v>1046</v>
       </c>
-      <c r="D204" t="s">
+      <c r="D204" s="2" t="s">
         <v>1153</v>
       </c>
-      <c r="E204" t="s">
-        <v>1187</v>
+      <c r="E204" s="2" t="s">
+        <v>1194</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
@@ -19576,11 +19575,11 @@
       <c r="B205" t="s">
         <v>534</v>
       </c>
-      <c r="D205" t="s">
+      <c r="D205" s="2" t="s">
         <v>1153</v>
       </c>
-      <c r="E205" t="s">
-        <v>1187</v>
+      <c r="E205" s="2" t="s">
+        <v>1194</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
@@ -19590,11 +19589,11 @@
       <c r="B206" t="s">
         <v>446</v>
       </c>
-      <c r="D206" t="s">
+      <c r="D206" s="2" t="s">
         <v>1153</v>
       </c>
-      <c r="E206" t="s">
-        <v>1187</v>
+      <c r="E206" s="2" t="s">
+        <v>1194</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
@@ -19604,11 +19603,11 @@
       <c r="B207" t="s">
         <v>398</v>
       </c>
-      <c r="D207" t="s">
+      <c r="D207" s="2" t="s">
         <v>1153</v>
       </c>
-      <c r="E207" t="s">
-        <v>1187</v>
+      <c r="E207" s="2" t="s">
+        <v>1194</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
@@ -19618,11 +19617,11 @@
       <c r="B208" t="s">
         <v>399</v>
       </c>
-      <c r="D208" t="s">
+      <c r="D208" s="2" t="s">
         <v>1153</v>
       </c>
-      <c r="E208" t="s">
-        <v>1187</v>
+      <c r="E208" s="2" t="s">
+        <v>1194</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
@@ -19632,11 +19631,11 @@
       <c r="B209" t="s">
         <v>448</v>
       </c>
-      <c r="D209" t="s">
+      <c r="D209" s="2" t="s">
         <v>1153</v>
       </c>
-      <c r="E209" t="s">
-        <v>1187</v>
+      <c r="E209" s="2" t="s">
+        <v>1194</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
@@ -19646,11 +19645,11 @@
       <c r="B210" t="s">
         <v>449</v>
       </c>
-      <c r="D210" t="s">
+      <c r="D210" s="2" t="s">
         <v>1153</v>
       </c>
-      <c r="E210" t="s">
-        <v>1187</v>
+      <c r="E210" s="2" t="s">
+        <v>1194</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
@@ -19660,11 +19659,11 @@
       <c r="B211" t="s">
         <v>292</v>
       </c>
-      <c r="D211" t="s">
+      <c r="D211" s="2" t="s">
         <v>1153</v>
       </c>
-      <c r="E211" t="s">
-        <v>1187</v>
+      <c r="E211" s="2" t="s">
+        <v>1194</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
@@ -19674,11 +19673,11 @@
       <c r="B212" t="s">
         <v>292</v>
       </c>
-      <c r="D212" t="s">
+      <c r="D212" s="2" t="s">
         <v>1153</v>
       </c>
-      <c r="E212" t="s">
-        <v>1187</v>
+      <c r="E212" s="2" t="s">
+        <v>1194</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
@@ -19688,11 +19687,11 @@
       <c r="B213" t="s">
         <v>292</v>
       </c>
-      <c r="D213" t="s">
+      <c r="D213" s="2" t="s">
         <v>1153</v>
       </c>
-      <c r="E213" t="s">
-        <v>1187</v>
+      <c r="E213" s="2" t="s">
+        <v>1194</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
@@ -19702,11 +19701,11 @@
       <c r="B214" t="s">
         <v>292</v>
       </c>
-      <c r="D214" t="s">
+      <c r="D214" s="2" t="s">
         <v>1153</v>
       </c>
-      <c r="E214" t="s">
-        <v>1187</v>
+      <c r="E214" s="2" t="s">
+        <v>1194</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
@@ -19716,11 +19715,11 @@
       <c r="B215" t="s">
         <v>518</v>
       </c>
-      <c r="D215" t="s">
+      <c r="D215" s="2" t="s">
         <v>1153</v>
       </c>
-      <c r="E215" t="s">
-        <v>1187</v>
+      <c r="E215" s="2" t="s">
+        <v>1194</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
@@ -19730,11 +19729,11 @@
       <c r="B216" t="s">
         <v>532</v>
       </c>
-      <c r="D216" t="s">
+      <c r="D216" s="2" t="s">
         <v>1153</v>
       </c>
-      <c r="E216" t="s">
-        <v>1187</v>
+      <c r="E216" s="2" t="s">
+        <v>1194</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
@@ -19744,11 +19743,11 @@
       <c r="B217" t="s">
         <v>332</v>
       </c>
-      <c r="D217" t="s">
+      <c r="D217" s="2" t="s">
         <v>1153</v>
       </c>
-      <c r="E217" t="s">
-        <v>1187</v>
+      <c r="E217" s="2" t="s">
+        <v>1194</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
@@ -19758,11 +19757,11 @@
       <c r="B218" t="s">
         <v>293</v>
       </c>
-      <c r="D218" t="s">
+      <c r="D218" s="2" t="s">
         <v>1153</v>
       </c>
-      <c r="E218" t="s">
-        <v>1187</v>
+      <c r="E218" s="2" t="s">
+        <v>1194</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
@@ -19772,11 +19771,11 @@
       <c r="B219" t="s">
         <v>1141</v>
       </c>
-      <c r="D219" t="s">
+      <c r="D219" s="2" t="s">
         <v>1153</v>
       </c>
-      <c r="E219" t="s">
-        <v>1187</v>
+      <c r="E219" s="2" t="s">
+        <v>1194</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
@@ -19786,11 +19785,11 @@
       <c r="B220" t="s">
         <v>525</v>
       </c>
-      <c r="D220" t="s">
+      <c r="D220" s="2" t="s">
         <v>1153</v>
       </c>
-      <c r="E220" t="s">
-        <v>1187</v>
+      <c r="E220" s="2" t="s">
+        <v>1194</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
@@ -19800,11 +19799,11 @@
       <c r="B221" t="s">
         <v>359</v>
       </c>
-      <c r="D221" t="s">
+      <c r="D221" s="2" t="s">
         <v>1168</v>
       </c>
-      <c r="E221" t="s">
-        <v>1187</v>
+      <c r="E221" s="2" t="s">
+        <v>1194</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
@@ -19814,11 +19813,11 @@
       <c r="B222" t="s">
         <v>516</v>
       </c>
-      <c r="D222" t="s">
+      <c r="D222" s="2" t="s">
         <v>1153</v>
       </c>
-      <c r="E222" t="s">
-        <v>1187</v>
+      <c r="E222" s="2" t="s">
+        <v>1194</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
@@ -19828,11 +19827,11 @@
       <c r="B223" t="s">
         <v>516</v>
       </c>
-      <c r="D223" t="s">
+      <c r="D223" s="2" t="s">
         <v>1153</v>
       </c>
-      <c r="E223" t="s">
-        <v>1187</v>
+      <c r="E223" s="2" t="s">
+        <v>1194</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
@@ -19842,11 +19841,11 @@
       <c r="B224" t="s">
         <v>536</v>
       </c>
-      <c r="D224" t="s">
+      <c r="D224" s="2" t="s">
         <v>1153</v>
       </c>
-      <c r="E224" t="s">
-        <v>1187</v>
+      <c r="E224" s="2" t="s">
+        <v>1194</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
@@ -19859,11 +19858,11 @@
       <c r="C225" t="s">
         <v>1046</v>
       </c>
-      <c r="D225" t="s">
+      <c r="D225" s="2" t="s">
         <v>1153</v>
       </c>
-      <c r="E225" t="s">
-        <v>1187</v>
+      <c r="E225" s="2" t="s">
+        <v>1194</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
@@ -19876,11 +19875,11 @@
       <c r="C226" t="s">
         <v>1046</v>
       </c>
-      <c r="D226" t="s">
+      <c r="D226" s="2" t="s">
         <v>1153</v>
       </c>
-      <c r="E226" t="s">
-        <v>1187</v>
+      <c r="E226" s="2" t="s">
+        <v>1194</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
@@ -19890,11 +19889,11 @@
       <c r="B227" t="s">
         <v>543</v>
       </c>
-      <c r="D227" t="s">
+      <c r="D227" s="2" t="s">
         <v>1153</v>
       </c>
-      <c r="E227" t="s">
-        <v>1187</v>
+      <c r="E227" s="2" t="s">
+        <v>1194</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
@@ -19904,11 +19903,11 @@
       <c r="B228" t="s">
         <v>464</v>
       </c>
-      <c r="D228" t="s">
+      <c r="D228" s="2" t="s">
         <v>1153</v>
       </c>
-      <c r="E228" t="s">
-        <v>1187</v>
+      <c r="E228" s="2" t="s">
+        <v>1194</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
@@ -19921,11 +19920,11 @@
       <c r="C229" t="s">
         <v>1046</v>
       </c>
-      <c r="D229" t="s">
+      <c r="D229" s="2" t="s">
         <v>1153</v>
       </c>
-      <c r="E229" t="s">
-        <v>1187</v>
+      <c r="E229" s="2" t="s">
+        <v>1194</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
@@ -19935,11 +19934,11 @@
       <c r="B230" t="s">
         <v>531</v>
       </c>
-      <c r="D230" t="s">
+      <c r="D230" s="2" t="s">
         <v>1153</v>
       </c>
-      <c r="E230" t="s">
-        <v>1187</v>
+      <c r="E230" s="2" t="s">
+        <v>1194</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
@@ -19949,11 +19948,11 @@
       <c r="B231" t="s">
         <v>400</v>
       </c>
-      <c r="D231" t="s">
+      <c r="D231" s="2" t="s">
         <v>1153</v>
       </c>
-      <c r="E231" t="s">
-        <v>1187</v>
+      <c r="E231" s="2" t="s">
+        <v>1194</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
@@ -19963,11 +19962,11 @@
       <c r="B232" t="s">
         <v>466</v>
       </c>
-      <c r="D232" t="s">
+      <c r="D232" s="2" t="s">
         <v>1153</v>
       </c>
-      <c r="E232" t="s">
-        <v>1187</v>
+      <c r="E232" s="2" t="s">
+        <v>1194</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
@@ -19980,11 +19979,11 @@
       <c r="C233" t="s">
         <v>1046</v>
       </c>
-      <c r="D233" t="s">
+      <c r="D233" s="2" t="s">
         <v>1153</v>
       </c>
-      <c r="E233" t="s">
-        <v>1187</v>
+      <c r="E233" s="2" t="s">
+        <v>1194</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
@@ -19994,11 +19993,11 @@
       <c r="B234" t="s">
         <v>372</v>
       </c>
-      <c r="D234" t="s">
+      <c r="D234" s="2" t="s">
         <v>1153</v>
       </c>
-      <c r="E234" t="s">
-        <v>1187</v>
+      <c r="E234" s="2" t="s">
+        <v>1194</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
@@ -20008,11 +20007,11 @@
       <c r="B235" t="s">
         <v>473</v>
       </c>
-      <c r="D235" t="s">
+      <c r="D235" s="2" t="s">
         <v>1153</v>
       </c>
-      <c r="E235" t="s">
-        <v>1187</v>
+      <c r="E235" s="2" t="s">
+        <v>1194</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
@@ -20022,11 +20021,11 @@
       <c r="B236" t="s">
         <v>472</v>
       </c>
-      <c r="D236" t="s">
+      <c r="D236" s="2" t="s">
         <v>1153</v>
       </c>
-      <c r="E236" t="s">
-        <v>1187</v>
+      <c r="E236" s="2" t="s">
+        <v>1194</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
@@ -20036,11 +20035,11 @@
       <c r="B237" t="s">
         <v>403</v>
       </c>
-      <c r="D237" t="s">
+      <c r="D237" s="2" t="s">
         <v>1153</v>
       </c>
-      <c r="E237" t="s">
-        <v>1187</v>
+      <c r="E237" s="2" t="s">
+        <v>1194</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.25">
@@ -20050,11 +20049,11 @@
       <c r="B238" t="s">
         <v>404</v>
       </c>
-      <c r="D238" t="s">
+      <c r="D238" s="2" t="s">
         <v>1153</v>
       </c>
-      <c r="E238" t="s">
-        <v>1187</v>
+      <c r="E238" s="2" t="s">
+        <v>1194</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
@@ -20067,11 +20066,11 @@
       <c r="C239" t="s">
         <v>1046</v>
       </c>
-      <c r="D239" t="s">
+      <c r="D239" s="2" t="s">
         <v>1153</v>
       </c>
-      <c r="E239" t="s">
-        <v>1187</v>
+      <c r="E239" s="2" t="s">
+        <v>1194</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
@@ -20081,11 +20080,11 @@
       <c r="B240" t="s">
         <v>367</v>
       </c>
-      <c r="D240" t="s">
+      <c r="D240" s="2" t="s">
         <v>1153</v>
       </c>
-      <c r="E240" t="s">
-        <v>1187</v>
+      <c r="E240" s="2" t="s">
+        <v>1194</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.25">
@@ -20095,11 +20094,11 @@
       <c r="B241" t="s">
         <v>367</v>
       </c>
-      <c r="D241" t="s">
+      <c r="D241" s="2" t="s">
         <v>1153</v>
       </c>
-      <c r="E241" t="s">
-        <v>1187</v>
+      <c r="E241" s="2" t="s">
+        <v>1194</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.25">
@@ -20109,11 +20108,11 @@
       <c r="B242" t="s">
         <v>530</v>
       </c>
-      <c r="D242" t="s">
+      <c r="D242" s="2" t="s">
         <v>1153</v>
       </c>
-      <c r="E242" t="s">
-        <v>1187</v>
+      <c r="E242" s="2" t="s">
+        <v>1194</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.25">
@@ -20123,11 +20122,11 @@
       <c r="B243" t="s">
         <v>356</v>
       </c>
-      <c r="D243" t="s">
+      <c r="D243" s="2" t="s">
         <v>1153</v>
       </c>
-      <c r="E243" t="s">
-        <v>1187</v>
+      <c r="E243" s="2" t="s">
+        <v>1194</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.25">
@@ -20137,11 +20136,11 @@
       <c r="B244" t="s">
         <v>513</v>
       </c>
-      <c r="D244" t="s">
+      <c r="D244" s="2" t="s">
         <v>1153</v>
       </c>
-      <c r="E244" t="s">
-        <v>1187</v>
+      <c r="E244" s="2" t="s">
+        <v>1194</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.25">
@@ -20151,11 +20150,11 @@
       <c r="B245" t="s">
         <v>513</v>
       </c>
-      <c r="D245" t="s">
+      <c r="D245" s="2" t="s">
         <v>1153</v>
       </c>
-      <c r="E245" t="s">
-        <v>1187</v>
+      <c r="E245" s="2" t="s">
+        <v>1194</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.25">
@@ -20165,11 +20164,11 @@
       <c r="B246" t="s">
         <v>375</v>
       </c>
-      <c r="D246" t="s">
+      <c r="D246" s="2" t="s">
         <v>1153</v>
       </c>
-      <c r="E246" t="s">
-        <v>1187</v>
+      <c r="E246" s="2" t="s">
+        <v>1194</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.25">
@@ -20182,11 +20181,11 @@
       <c r="C247" t="s">
         <v>1046</v>
       </c>
-      <c r="D247" t="s">
+      <c r="D247" s="2" t="s">
         <v>1153</v>
       </c>
-      <c r="E247" t="s">
-        <v>1187</v>
+      <c r="E247" s="2" t="s">
+        <v>1194</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.25">
@@ -20196,11 +20195,11 @@
       <c r="B248" t="s">
         <v>301</v>
       </c>
-      <c r="D248" t="s">
+      <c r="D248" s="2" t="s">
         <v>1153</v>
       </c>
-      <c r="E248" t="s">
-        <v>1187</v>
+      <c r="E248" s="2" t="s">
+        <v>1194</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.25">
@@ -20210,11 +20209,11 @@
       <c r="B249" t="s">
         <v>524</v>
       </c>
-      <c r="D249" t="s">
+      <c r="D249" s="2" t="s">
         <v>1153</v>
       </c>
-      <c r="E249" t="s">
-        <v>1187</v>
+      <c r="E249" s="2" t="s">
+        <v>1194</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.25">
@@ -20224,11 +20223,11 @@
       <c r="B250" t="s">
         <v>330</v>
       </c>
-      <c r="D250" t="s">
+      <c r="D250" s="2" t="s">
         <v>1153</v>
       </c>
-      <c r="E250" t="s">
-        <v>1187</v>
+      <c r="E250" s="2" t="s">
+        <v>1194</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.25">
@@ -20241,11 +20240,11 @@
       <c r="C251" t="s">
         <v>1046</v>
       </c>
-      <c r="D251" t="s">
+      <c r="D251" s="2" t="s">
         <v>1153</v>
       </c>
-      <c r="E251" t="s">
-        <v>1187</v>
+      <c r="E251" s="2" t="s">
+        <v>1194</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.25">
@@ -20255,11 +20254,11 @@
       <c r="B252" t="s">
         <v>351</v>
       </c>
-      <c r="D252" t="s">
+      <c r="D252" s="2" t="s">
         <v>1153</v>
       </c>
-      <c r="E252" t="s">
-        <v>1187</v>
+      <c r="E252" s="2" t="s">
+        <v>1194</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.25">
@@ -20269,11 +20268,11 @@
       <c r="B253" t="s">
         <v>351</v>
       </c>
-      <c r="D253" t="s">
+      <c r="D253" s="2" t="s">
         <v>1153</v>
       </c>
-      <c r="E253" t="s">
-        <v>1187</v>
+      <c r="E253" s="2" t="s">
+        <v>1194</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.25">
@@ -20283,11 +20282,11 @@
       <c r="B254" t="s">
         <v>362</v>
       </c>
-      <c r="D254" t="s">
+      <c r="D254" s="2" t="s">
         <v>1153</v>
       </c>
-      <c r="E254" t="s">
-        <v>1187</v>
+      <c r="E254" s="2" t="s">
+        <v>1194</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.25">
@@ -20297,11 +20296,11 @@
       <c r="B255" t="s">
         <v>419</v>
       </c>
-      <c r="D255" t="s">
+      <c r="D255" s="2" t="s">
         <v>1153</v>
       </c>
-      <c r="E255" t="s">
-        <v>1187</v>
+      <c r="E255" s="2" t="s">
+        <v>1194</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.25">
@@ -20311,11 +20310,11 @@
       <c r="B256" t="s">
         <v>419</v>
       </c>
-      <c r="D256" t="s">
+      <c r="D256" s="2" t="s">
         <v>1153</v>
       </c>
-      <c r="E256" t="s">
-        <v>1187</v>
+      <c r="E256" s="2" t="s">
+        <v>1194</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.25">
@@ -20325,11 +20324,11 @@
       <c r="B257" t="s">
         <v>353</v>
       </c>
-      <c r="D257" t="s">
+      <c r="D257" s="2" t="s">
         <v>1153</v>
       </c>
-      <c r="E257" t="s">
-        <v>1187</v>
+      <c r="E257" s="2" t="s">
+        <v>1194</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.25">
@@ -20339,11 +20338,11 @@
       <c r="B258" t="s">
         <v>353</v>
       </c>
-      <c r="D258" t="s">
+      <c r="D258" s="2" t="s">
         <v>1153</v>
       </c>
-      <c r="E258" t="s">
-        <v>1187</v>
+      <c r="E258" s="2" t="s">
+        <v>1194</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.25">
@@ -20356,11 +20355,11 @@
       <c r="C259" t="s">
         <v>1046</v>
       </c>
-      <c r="D259" t="s">
+      <c r="D259" s="2" t="s">
         <v>1153</v>
       </c>
-      <c r="E259" t="s">
-        <v>1187</v>
+      <c r="E259" s="2" t="s">
+        <v>1194</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.25">
@@ -20370,11 +20369,11 @@
       <c r="B260" t="s">
         <v>535</v>
       </c>
-      <c r="D260" t="s">
+      <c r="D260" s="2" t="s">
         <v>1153</v>
       </c>
-      <c r="E260" t="s">
-        <v>1187</v>
+      <c r="E260" s="2" t="s">
+        <v>1194</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.25">
@@ -20384,11 +20383,11 @@
       <c r="B261" t="s">
         <v>521</v>
       </c>
-      <c r="D261" t="s">
+      <c r="D261" s="2" t="s">
         <v>1153</v>
       </c>
-      <c r="E261" t="s">
-        <v>1187</v>
+      <c r="E261" s="2" t="s">
+        <v>1194</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.25">
@@ -20398,11 +20397,11 @@
       <c r="B262" t="s">
         <v>305</v>
       </c>
-      <c r="D262" t="s">
+      <c r="D262" s="2" t="s">
         <v>1153</v>
       </c>
-      <c r="E262" t="s">
-        <v>1187</v>
+      <c r="E262" s="2" t="s">
+        <v>1194</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.25">
@@ -20412,11 +20411,11 @@
       <c r="B263" t="s">
         <v>517</v>
       </c>
-      <c r="D263" t="s">
+      <c r="D263" s="2" t="s">
         <v>1153</v>
       </c>
-      <c r="E263" t="s">
-        <v>1187</v>
+      <c r="E263" s="2" t="s">
+        <v>1194</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.25">
@@ -20429,11 +20428,11 @@
       <c r="C264" t="s">
         <v>1046</v>
       </c>
-      <c r="D264" t="s">
+      <c r="D264" s="2" t="s">
         <v>1156</v>
       </c>
-      <c r="E264" t="s">
-        <v>1192</v>
+      <c r="E264" s="2" t="s">
+        <v>1195</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.25">
@@ -20443,11 +20442,11 @@
       <c r="B265" t="s">
         <v>507</v>
       </c>
-      <c r="D265" t="s">
+      <c r="D265" s="2" t="s">
         <v>1156</v>
       </c>
-      <c r="E265" t="s">
-        <v>1192</v>
+      <c r="E265" s="2" t="s">
+        <v>1195</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.25">
@@ -20457,11 +20456,11 @@
       <c r="B266" t="s">
         <v>508</v>
       </c>
-      <c r="D266" t="s">
+      <c r="D266" s="2" t="s">
         <v>1156</v>
       </c>
-      <c r="E266" t="s">
-        <v>1192</v>
+      <c r="E266" s="2" t="s">
+        <v>1195</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.25">
@@ -20471,11 +20470,11 @@
       <c r="B267" t="s">
         <v>428</v>
       </c>
-      <c r="D267" t="s">
+      <c r="D267" s="2" t="s">
         <v>1156</v>
       </c>
-      <c r="E267" t="s">
-        <v>1192</v>
+      <c r="E267" s="2" t="s">
+        <v>1195</v>
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.25">
@@ -20485,11 +20484,11 @@
       <c r="B268" t="s">
         <v>427</v>
       </c>
-      <c r="D268" t="s">
+      <c r="D268" s="2" t="s">
         <v>1156</v>
       </c>
-      <c r="E268" t="s">
-        <v>1192</v>
+      <c r="E268" s="2" t="s">
+        <v>1195</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.25">
@@ -20502,11 +20501,11 @@
       <c r="C269" t="s">
         <v>390</v>
       </c>
-      <c r="D269" t="s">
+      <c r="D269" s="2" t="s">
         <v>1156</v>
       </c>
-      <c r="E269" t="s">
-        <v>1192</v>
+      <c r="E269" s="2" t="s">
+        <v>1195</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.25">
@@ -20516,11 +20515,11 @@
       <c r="B270" t="s">
         <v>389</v>
       </c>
-      <c r="D270" t="s">
+      <c r="D270" s="2" t="s">
         <v>1156</v>
       </c>
-      <c r="E270" t="s">
-        <v>1192</v>
+      <c r="E270" s="2" t="s">
+        <v>1195</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.25">
@@ -20530,11 +20529,11 @@
       <c r="B271" t="s">
         <v>389</v>
       </c>
-      <c r="D271" t="s">
+      <c r="D271" s="2" t="s">
         <v>1156</v>
       </c>
-      <c r="E271" t="s">
-        <v>1192</v>
+      <c r="E271" s="2" t="s">
+        <v>1195</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.25">
@@ -20547,11 +20546,11 @@
       <c r="C272" t="s">
         <v>1002</v>
       </c>
-      <c r="D272" t="s">
+      <c r="D272" s="2" t="s">
         <v>1156</v>
       </c>
-      <c r="E272" t="s">
-        <v>1192</v>
+      <c r="E272" s="2" t="s">
+        <v>1195</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.25">
@@ -20561,11 +20560,11 @@
       <c r="B273" t="s">
         <v>435</v>
       </c>
-      <c r="D273" t="s">
+      <c r="D273" s="2" t="s">
         <v>1156</v>
       </c>
-      <c r="E273" t="s">
-        <v>1192</v>
+      <c r="E273" s="2" t="s">
+        <v>1195</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.25">
@@ -20578,11 +20577,11 @@
       <c r="C274" t="s">
         <v>1002</v>
       </c>
-      <c r="D274" t="s">
+      <c r="D274" s="2" t="s">
         <v>1156</v>
       </c>
-      <c r="E274" t="s">
-        <v>1192</v>
+      <c r="E274" s="2" t="s">
+        <v>1195</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.25">
@@ -20592,11 +20591,11 @@
       <c r="B275" t="s">
         <v>436</v>
       </c>
-      <c r="D275" t="s">
+      <c r="D275" s="2" t="s">
         <v>1156</v>
       </c>
-      <c r="E275" t="s">
-        <v>1192</v>
+      <c r="E275" s="2" t="s">
+        <v>1195</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.25">
@@ -20606,11 +20605,11 @@
       <c r="B276" t="s">
         <v>436</v>
       </c>
-      <c r="D276" t="s">
+      <c r="D276" s="2" t="s">
         <v>1156</v>
       </c>
-      <c r="E276" t="s">
-        <v>1192</v>
+      <c r="E276" s="2" t="s">
+        <v>1195</v>
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.25">
@@ -20623,11 +20622,11 @@
       <c r="C277" t="s">
         <v>1002</v>
       </c>
-      <c r="D277" t="s">
+      <c r="D277" s="2" t="s">
         <v>1156</v>
       </c>
-      <c r="E277" t="s">
-        <v>1192</v>
+      <c r="E277" s="2" t="s">
+        <v>1195</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.25">
@@ -20637,11 +20636,11 @@
       <c r="B278" t="s">
         <v>997</v>
       </c>
-      <c r="D278" t="s">
+      <c r="D278" s="2" t="s">
         <v>1156</v>
       </c>
-      <c r="E278" t="s">
-        <v>1192</v>
+      <c r="E278" s="2" t="s">
+        <v>1195</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.25">
@@ -20651,11 +20650,11 @@
       <c r="B279" t="s">
         <v>439</v>
       </c>
-      <c r="D279" t="s">
+      <c r="D279" s="2" t="s">
         <v>1156</v>
       </c>
-      <c r="E279" t="s">
-        <v>1192</v>
+      <c r="E279" s="2" t="s">
+        <v>1195</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.25">
@@ -20665,11 +20664,11 @@
       <c r="B280" t="s">
         <v>439</v>
       </c>
-      <c r="D280" t="s">
+      <c r="D280" s="2" t="s">
         <v>1156</v>
       </c>
-      <c r="E280" t="s">
-        <v>1192</v>
+      <c r="E280" s="2" t="s">
+        <v>1195</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.25">
@@ -20679,11 +20678,11 @@
       <c r="B281" t="s">
         <v>386</v>
       </c>
-      <c r="D281" t="s">
+      <c r="D281" s="2" t="s">
         <v>1156</v>
       </c>
-      <c r="E281" t="s">
-        <v>1192</v>
+      <c r="E281" s="2" t="s">
+        <v>1195</v>
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.25">
@@ -20693,11 +20692,11 @@
       <c r="B282" t="s">
         <v>386</v>
       </c>
-      <c r="D282" t="s">
+      <c r="D282" s="2" t="s">
         <v>1156</v>
       </c>
-      <c r="E282" t="s">
-        <v>1192</v>
+      <c r="E282" s="2" t="s">
+        <v>1195</v>
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.25">
@@ -20707,11 +20706,11 @@
       <c r="B283" t="s">
         <v>386</v>
       </c>
-      <c r="D283" t="s">
+      <c r="D283" s="2" t="s">
         <v>1156</v>
       </c>
-      <c r="E283" t="s">
-        <v>1192</v>
+      <c r="E283" s="2" t="s">
+        <v>1195</v>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.25">
@@ -20721,11 +20720,11 @@
       <c r="B284" t="s">
         <v>386</v>
       </c>
-      <c r="D284" t="s">
+      <c r="D284" s="2" t="s">
         <v>1156</v>
       </c>
-      <c r="E284" t="s">
-        <v>1192</v>
+      <c r="E284" s="2" t="s">
+        <v>1195</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.25">
@@ -20735,11 +20734,11 @@
       <c r="B285" t="s">
         <v>386</v>
       </c>
-      <c r="D285" t="s">
+      <c r="D285" s="2" t="s">
         <v>1156</v>
       </c>
-      <c r="E285" t="s">
-        <v>1192</v>
+      <c r="E285" s="2" t="s">
+        <v>1195</v>
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.25">
@@ -20752,11 +20751,11 @@
       <c r="C286" t="s">
         <v>1002</v>
       </c>
-      <c r="D286" t="s">
+      <c r="D286" s="2" t="s">
         <v>1156</v>
       </c>
-      <c r="E286" t="s">
-        <v>1192</v>
+      <c r="E286" s="2" t="s">
+        <v>1195</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.25">
@@ -20766,11 +20765,11 @@
       <c r="B287" t="s">
         <v>386</v>
       </c>
-      <c r="D287" t="s">
+      <c r="D287" s="2" t="s">
         <v>1156</v>
       </c>
-      <c r="E287" t="s">
-        <v>1192</v>
+      <c r="E287" s="2" t="s">
+        <v>1195</v>
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.25">
@@ -20780,11 +20779,11 @@
       <c r="B288" t="s">
         <v>386</v>
       </c>
-      <c r="D288" t="s">
+      <c r="D288" s="2" t="s">
         <v>1156</v>
       </c>
-      <c r="E288" t="s">
-        <v>1192</v>
+      <c r="E288" s="2" t="s">
+        <v>1195</v>
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.25">
@@ -20797,11 +20796,11 @@
       <c r="C289" t="s">
         <v>1002</v>
       </c>
-      <c r="D289" t="s">
+      <c r="D289" s="2" t="s">
         <v>1156</v>
       </c>
-      <c r="E289" t="s">
-        <v>1192</v>
+      <c r="E289" s="2" t="s">
+        <v>1195</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.25">
@@ -20811,11 +20810,11 @@
       <c r="B290" t="s">
         <v>393</v>
       </c>
-      <c r="D290" t="s">
+      <c r="D290" s="2" t="s">
         <v>1156</v>
       </c>
-      <c r="E290" t="s">
-        <v>1192</v>
+      <c r="E290" s="2" t="s">
+        <v>1195</v>
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.25">
@@ -20828,11 +20827,11 @@
       <c r="C291" t="s">
         <v>1002</v>
       </c>
-      <c r="D291" t="s">
+      <c r="D291" s="2" t="s">
         <v>1156</v>
       </c>
-      <c r="E291" t="s">
-        <v>1192</v>
+      <c r="E291" s="2" t="s">
+        <v>1195</v>
       </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.25">
@@ -20842,11 +20841,11 @@
       <c r="B292" t="s">
         <v>447</v>
       </c>
-      <c r="D292" t="s">
+      <c r="D292" s="2" t="s">
         <v>1156</v>
       </c>
-      <c r="E292" t="s">
-        <v>1192</v>
+      <c r="E292" s="2" t="s">
+        <v>1195</v>
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.25">
@@ -20859,11 +20858,11 @@
       <c r="C293" t="s">
         <v>1002</v>
       </c>
-      <c r="D293" t="s">
+      <c r="D293" s="2" t="s">
         <v>1156</v>
       </c>
-      <c r="E293" t="s">
-        <v>1192</v>
+      <c r="E293" s="2" t="s">
+        <v>1195</v>
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.25">
@@ -20876,11 +20875,11 @@
       <c r="C294" t="s">
         <v>1002</v>
       </c>
-      <c r="D294" t="s">
+      <c r="D294" s="2" t="s">
         <v>1156</v>
       </c>
-      <c r="E294" t="s">
-        <v>1192</v>
+      <c r="E294" s="2" t="s">
+        <v>1195</v>
       </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.25">
@@ -20890,11 +20889,11 @@
       <c r="B295" t="s">
         <v>450</v>
       </c>
-      <c r="D295" t="s">
+      <c r="D295" s="2" t="s">
         <v>1156</v>
       </c>
-      <c r="E295" t="s">
-        <v>1192</v>
+      <c r="E295" s="2" t="s">
+        <v>1195</v>
       </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.25">
@@ -20907,11 +20906,11 @@
       <c r="C296" t="s">
         <v>1002</v>
       </c>
-      <c r="D296" t="s">
+      <c r="D296" s="2" t="s">
         <v>1156</v>
       </c>
-      <c r="E296" t="s">
-        <v>1192</v>
+      <c r="E296" s="2" t="s">
+        <v>1195</v>
       </c>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.25">
@@ -20921,11 +20920,11 @@
       <c r="B297" t="s">
         <v>512</v>
       </c>
-      <c r="D297" t="s">
+      <c r="D297" s="2" t="s">
         <v>1156</v>
       </c>
-      <c r="E297" t="s">
-        <v>1192</v>
+      <c r="E297" s="2" t="s">
+        <v>1195</v>
       </c>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.25">
@@ -20935,11 +20934,11 @@
       <c r="B298" t="s">
         <v>514</v>
       </c>
-      <c r="D298" t="s">
+      <c r="D298" s="2" t="s">
         <v>1156</v>
       </c>
-      <c r="E298" t="s">
-        <v>1192</v>
+      <c r="E298" s="2" t="s">
+        <v>1195</v>
       </c>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.25">
@@ -20949,11 +20948,11 @@
       <c r="B299" t="s">
         <v>514</v>
       </c>
-      <c r="D299" t="s">
+      <c r="D299" s="2" t="s">
         <v>1156</v>
       </c>
-      <c r="E299" t="s">
-        <v>1192</v>
+      <c r="E299" s="2" t="s">
+        <v>1195</v>
       </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.25">
@@ -20966,11 +20965,11 @@
       <c r="C300" t="s">
         <v>545</v>
       </c>
-      <c r="D300" t="s">
+      <c r="D300" s="2" t="s">
         <v>1156</v>
       </c>
-      <c r="E300" t="s">
-        <v>1192</v>
+      <c r="E300" s="2" t="s">
+        <v>1195</v>
       </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.25">
@@ -20983,11 +20982,11 @@
       <c r="C301" t="s">
         <v>1046</v>
       </c>
-      <c r="D301" t="s">
+      <c r="D301" s="2" t="s">
         <v>1156</v>
       </c>
-      <c r="E301" t="s">
-        <v>1192</v>
+      <c r="E301" s="2" t="s">
+        <v>1195</v>
       </c>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.25">
@@ -20997,11 +20996,11 @@
       <c r="B302" t="s">
         <v>511</v>
       </c>
-      <c r="D302" t="s">
+      <c r="D302" s="2" t="s">
         <v>1156</v>
       </c>
-      <c r="E302" t="s">
-        <v>1192</v>
+      <c r="E302" s="2" t="s">
+        <v>1195</v>
       </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.25">
@@ -21011,11 +21010,11 @@
       <c r="B303" t="s">
         <v>511</v>
       </c>
-      <c r="D303" t="s">
+      <c r="D303" s="2" t="s">
         <v>1156</v>
       </c>
-      <c r="E303" t="s">
-        <v>1192</v>
+      <c r="E303" s="2" t="s">
+        <v>1195</v>
       </c>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.25">
@@ -21028,11 +21027,11 @@
       <c r="C304" t="s">
         <v>1002</v>
       </c>
-      <c r="D304" t="s">
+      <c r="D304" s="2" t="s">
         <v>1156</v>
       </c>
-      <c r="E304" t="s">
-        <v>1192</v>
+      <c r="E304" s="2" t="s">
+        <v>1195</v>
       </c>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.25">
@@ -21045,11 +21044,11 @@
       <c r="C305" t="s">
         <v>1046</v>
       </c>
-      <c r="D305" t="s">
+      <c r="D305" s="2" t="s">
         <v>1156</v>
       </c>
-      <c r="E305" t="s">
-        <v>1192</v>
+      <c r="E305" s="2" t="s">
+        <v>1195</v>
       </c>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.25">
@@ -21062,11 +21061,11 @@
       <c r="C306" t="s">
         <v>1046</v>
       </c>
-      <c r="D306" t="s">
+      <c r="D306" s="2" t="s">
         <v>1156</v>
       </c>
-      <c r="E306" t="s">
-        <v>1192</v>
+      <c r="E306" s="2" t="s">
+        <v>1195</v>
       </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.25">
@@ -21076,11 +21075,11 @@
       <c r="B307" t="s">
         <v>542</v>
       </c>
-      <c r="D307" t="s">
+      <c r="D307" s="2" t="s">
         <v>1156</v>
       </c>
-      <c r="E307" t="s">
-        <v>1192</v>
+      <c r="E307" s="2" t="s">
+        <v>1195</v>
       </c>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.25">
@@ -21093,11 +21092,11 @@
       <c r="C308" t="s">
         <v>1002</v>
       </c>
-      <c r="D308" t="s">
+      <c r="D308" s="2" t="s">
         <v>1156</v>
       </c>
-      <c r="E308" t="s">
-        <v>1192</v>
+      <c r="E308" s="2" t="s">
+        <v>1195</v>
       </c>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.25">
@@ -21107,11 +21106,11 @@
       <c r="B309" t="s">
         <v>468</v>
       </c>
-      <c r="D309" t="s">
+      <c r="D309" s="2" t="s">
         <v>1156</v>
       </c>
-      <c r="E309" t="s">
-        <v>1192</v>
+      <c r="E309" s="2" t="s">
+        <v>1195</v>
       </c>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.25">
@@ -21121,11 +21120,11 @@
       <c r="B310" t="s">
         <v>290</v>
       </c>
-      <c r="D310" t="s">
+      <c r="D310" s="2" t="s">
         <v>1156</v>
       </c>
-      <c r="E310" t="s">
-        <v>1192</v>
+      <c r="E310" s="2" t="s">
+        <v>1195</v>
       </c>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.25">
@@ -21138,11 +21137,11 @@
       <c r="C311" t="s">
         <v>1002</v>
       </c>
-      <c r="D311" t="s">
+      <c r="D311" s="2" t="s">
         <v>1156</v>
       </c>
-      <c r="E311" t="s">
-        <v>1192</v>
+      <c r="E311" s="2" t="s">
+        <v>1195</v>
       </c>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.25">
@@ -21155,11 +21154,11 @@
       <c r="C312" t="s">
         <v>1046</v>
       </c>
-      <c r="D312" t="s">
+      <c r="D312" s="2" t="s">
         <v>1156</v>
       </c>
-      <c r="E312" t="s">
-        <v>1192</v>
+      <c r="E312" s="2" t="s">
+        <v>1195</v>
       </c>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.25">
@@ -21169,11 +21168,11 @@
       <c r="B313" t="s">
         <v>385</v>
       </c>
-      <c r="D313" t="s">
+      <c r="D313" s="2" t="s">
         <v>1156</v>
       </c>
-      <c r="E313" t="s">
-        <v>1192</v>
+      <c r="E313" s="2" t="s">
+        <v>1195</v>
       </c>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.25">
@@ -21183,11 +21182,11 @@
       <c r="B314" t="s">
         <v>385</v>
       </c>
-      <c r="D314" t="s">
+      <c r="D314" s="2" t="s">
         <v>1156</v>
       </c>
-      <c r="E314" t="s">
-        <v>1192</v>
+      <c r="E314" s="2" t="s">
+        <v>1195</v>
       </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.25">
@@ -21197,11 +21196,11 @@
       <c r="B315" t="s">
         <v>385</v>
       </c>
-      <c r="D315" t="s">
+      <c r="D315" s="2" t="s">
         <v>1156</v>
       </c>
-      <c r="E315" t="s">
-        <v>1192</v>
+      <c r="E315" s="2" t="s">
+        <v>1195</v>
       </c>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.25">
@@ -21211,11 +21210,11 @@
       <c r="B316" t="s">
         <v>385</v>
       </c>
-      <c r="D316" t="s">
+      <c r="D316" s="2" t="s">
         <v>1156</v>
       </c>
-      <c r="E316" t="s">
-        <v>1192</v>
+      <c r="E316" s="2" t="s">
+        <v>1195</v>
       </c>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.25">
@@ -21225,11 +21224,11 @@
       <c r="B317" t="s">
         <v>385</v>
       </c>
-      <c r="D317" t="s">
+      <c r="D317" s="2" t="s">
         <v>1156</v>
       </c>
-      <c r="E317" t="s">
-        <v>1192</v>
+      <c r="E317" s="2" t="s">
+        <v>1195</v>
       </c>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.25">
@@ -21242,11 +21241,11 @@
       <c r="C318" t="s">
         <v>391</v>
       </c>
-      <c r="D318" t="s">
+      <c r="D318" s="2" t="s">
         <v>1156</v>
       </c>
-      <c r="E318" t="s">
-        <v>1192</v>
+      <c r="E318" s="2" t="s">
+        <v>1195</v>
       </c>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.25">
@@ -21259,11 +21258,11 @@
       <c r="C319" t="s">
         <v>392</v>
       </c>
-      <c r="D319" t="s">
+      <c r="D319" s="2" t="s">
         <v>1156</v>
       </c>
-      <c r="E319" t="s">
-        <v>1192</v>
+      <c r="E319" s="2" t="s">
+        <v>1195</v>
       </c>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.25">
@@ -21273,11 +21272,11 @@
       <c r="B320" t="s">
         <v>385</v>
       </c>
-      <c r="D320" t="s">
+      <c r="D320" s="2" t="s">
         <v>1156</v>
       </c>
-      <c r="E320" t="s">
-        <v>1192</v>
+      <c r="E320" s="2" t="s">
+        <v>1195</v>
       </c>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.25">
@@ -21287,11 +21286,11 @@
       <c r="B321" t="s">
         <v>385</v>
       </c>
-      <c r="D321" t="s">
+      <c r="D321" s="2" t="s">
         <v>1156</v>
       </c>
-      <c r="E321" t="s">
-        <v>1192</v>
+      <c r="E321" s="2" t="s">
+        <v>1195</v>
       </c>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.25">
@@ -21301,11 +21300,11 @@
       <c r="B322" t="s">
         <v>385</v>
       </c>
-      <c r="D322" t="s">
+      <c r="D322" s="2" t="s">
         <v>1156</v>
       </c>
-      <c r="E322" t="s">
-        <v>1192</v>
+      <c r="E322" s="2" t="s">
+        <v>1195</v>
       </c>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.25">
@@ -21315,11 +21314,11 @@
       <c r="B323" t="s">
         <v>385</v>
       </c>
-      <c r="D323" t="s">
+      <c r="D323" s="2" t="s">
         <v>1156</v>
       </c>
-      <c r="E323" t="s">
-        <v>1192</v>
+      <c r="E323" s="2" t="s">
+        <v>1195</v>
       </c>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.25">
@@ -21329,11 +21328,11 @@
       <c r="B324" t="s">
         <v>385</v>
       </c>
-      <c r="D324" t="s">
+      <c r="D324" s="2" t="s">
         <v>1156</v>
       </c>
-      <c r="E324" t="s">
-        <v>1192</v>
+      <c r="E324" s="2" t="s">
+        <v>1195</v>
       </c>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.25">
@@ -21346,11 +21345,11 @@
       <c r="C325" t="s">
         <v>502</v>
       </c>
-      <c r="D325" t="s">
+      <c r="D325" s="2" t="s">
         <v>1156</v>
       </c>
-      <c r="E325" t="s">
-        <v>1192</v>
+      <c r="E325" s="2" t="s">
+        <v>1195</v>
       </c>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.25">
@@ -21363,11 +21362,11 @@
       <c r="C326" t="s">
         <v>504</v>
       </c>
-      <c r="D326" t="s">
+      <c r="D326" s="2" t="s">
         <v>1156</v>
       </c>
-      <c r="E326" t="s">
-        <v>1192</v>
+      <c r="E326" s="2" t="s">
+        <v>1195</v>
       </c>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.25">
@@ -21377,11 +21376,11 @@
       <c r="B327" t="s">
         <v>385</v>
       </c>
-      <c r="D327" t="s">
+      <c r="D327" s="2" t="s">
         <v>1156</v>
       </c>
-      <c r="E327" t="s">
-        <v>1192</v>
+      <c r="E327" s="2" t="s">
+        <v>1195</v>
       </c>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.25">
@@ -21391,11 +21390,11 @@
       <c r="B328" t="s">
         <v>385</v>
       </c>
-      <c r="D328" t="s">
+      <c r="D328" s="2" t="s">
         <v>1156</v>
       </c>
-      <c r="E328" t="s">
-        <v>1192</v>
+      <c r="E328" s="2" t="s">
+        <v>1195</v>
       </c>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.25">
@@ -21405,11 +21404,11 @@
       <c r="B329" t="s">
         <v>385</v>
       </c>
-      <c r="D329" t="s">
+      <c r="D329" s="2" t="s">
         <v>1156</v>
       </c>
-      <c r="E329" t="s">
-        <v>1192</v>
+      <c r="E329" s="2" t="s">
+        <v>1195</v>
       </c>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.25">
@@ -21419,11 +21418,11 @@
       <c r="B330" t="s">
         <v>385</v>
       </c>
-      <c r="D330" t="s">
+      <c r="D330" s="2" t="s">
         <v>1156</v>
       </c>
-      <c r="E330" t="s">
-        <v>1192</v>
+      <c r="E330" s="2" t="s">
+        <v>1195</v>
       </c>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.25">
@@ -21433,11 +21432,11 @@
       <c r="B331" t="s">
         <v>385</v>
       </c>
-      <c r="D331" t="s">
+      <c r="D331" s="2" t="s">
         <v>1156</v>
       </c>
-      <c r="E331" t="s">
-        <v>1192</v>
+      <c r="E331" s="2" t="s">
+        <v>1195</v>
       </c>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.25">
@@ -21447,11 +21446,11 @@
       <c r="B332" t="s">
         <v>385</v>
       </c>
-      <c r="D332" t="s">
+      <c r="D332" s="2" t="s">
         <v>1156</v>
       </c>
-      <c r="E332" t="s">
-        <v>1192</v>
+      <c r="E332" s="2" t="s">
+        <v>1195</v>
       </c>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.25">
@@ -21461,11 +21460,11 @@
       <c r="B333" t="s">
         <v>385</v>
       </c>
-      <c r="D333" t="s">
+      <c r="D333" s="2" t="s">
         <v>1156</v>
       </c>
-      <c r="E333" t="s">
-        <v>1192</v>
+      <c r="E333" s="2" t="s">
+        <v>1195</v>
       </c>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.25">
@@ -21478,11 +21477,11 @@
       <c r="C334" t="s">
         <v>545</v>
       </c>
-      <c r="D334" t="s">
+      <c r="D334" s="2" t="s">
         <v>1156</v>
       </c>
-      <c r="E334" t="s">
-        <v>1192</v>
+      <c r="E334" s="2" t="s">
+        <v>1195</v>
       </c>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.25">
@@ -21492,11 +21491,11 @@
       <c r="B335" t="s">
         <v>385</v>
       </c>
-      <c r="D335" t="s">
+      <c r="D335" s="2" t="s">
         <v>1156</v>
       </c>
-      <c r="E335" t="s">
-        <v>1192</v>
+      <c r="E335" s="2" t="s">
+        <v>1195</v>
       </c>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.25">
@@ -21509,11 +21508,11 @@
       <c r="C336" t="s">
         <v>546</v>
       </c>
-      <c r="D336" t="s">
+      <c r="D336" s="2" t="s">
         <v>1156</v>
       </c>
-      <c r="E336" t="s">
-        <v>1192</v>
+      <c r="E336" s="2" t="s">
+        <v>1195</v>
       </c>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.25">
@@ -21523,11 +21522,11 @@
       <c r="B337" t="s">
         <v>385</v>
       </c>
-      <c r="D337" t="s">
+      <c r="D337" s="2" t="s">
         <v>1156</v>
       </c>
-      <c r="E337" t="s">
-        <v>1192</v>
+      <c r="E337" s="2" t="s">
+        <v>1195</v>
       </c>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.25">
@@ -21540,11 +21539,11 @@
       <c r="C338" t="s">
         <v>1002</v>
       </c>
-      <c r="D338" t="s">
+      <c r="D338" s="2" t="s">
         <v>1156</v>
       </c>
-      <c r="E338" t="s">
-        <v>1192</v>
+      <c r="E338" s="2" t="s">
+        <v>1195</v>
       </c>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.25">
@@ -21557,11 +21556,11 @@
       <c r="C339" t="s">
         <v>1002</v>
       </c>
-      <c r="D339" t="s">
+      <c r="D339" s="2" t="s">
         <v>1156</v>
       </c>
-      <c r="E339" t="s">
-        <v>1192</v>
+      <c r="E339" s="2" t="s">
+        <v>1195</v>
       </c>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.25">
@@ -21571,11 +21570,11 @@
       <c r="B340" t="s">
         <v>385</v>
       </c>
-      <c r="D340" t="s">
+      <c r="D340" s="2" t="s">
         <v>1156</v>
       </c>
-      <c r="E340" t="s">
-        <v>1192</v>
+      <c r="E340" s="2" t="s">
+        <v>1195</v>
       </c>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.25">
@@ -21585,11 +21584,11 @@
       <c r="B341" t="s">
         <v>385</v>
       </c>
-      <c r="D341" t="s">
+      <c r="D341" s="2" t="s">
         <v>1156</v>
       </c>
-      <c r="E341" t="s">
-        <v>1192</v>
+      <c r="E341" s="2" t="s">
+        <v>1195</v>
       </c>
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.25">
@@ -21602,11 +21601,11 @@
       <c r="C342" t="s">
         <v>545</v>
       </c>
-      <c r="D342" t="s">
+      <c r="D342" s="2" t="s">
         <v>1156</v>
       </c>
-      <c r="E342" t="s">
-        <v>1192</v>
+      <c r="E342" s="2" t="s">
+        <v>1195</v>
       </c>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.25">
@@ -21616,11 +21615,11 @@
       <c r="B343" t="s">
         <v>385</v>
       </c>
-      <c r="D343" t="s">
+      <c r="D343" s="2" t="s">
         <v>1156</v>
       </c>
-      <c r="E343" t="s">
-        <v>1192</v>
+      <c r="E343" s="2" t="s">
+        <v>1195</v>
       </c>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.25">
@@ -21630,11 +21629,11 @@
       <c r="B344" t="s">
         <v>385</v>
       </c>
-      <c r="D344" t="s">
+      <c r="D344" s="2" t="s">
         <v>1156</v>
       </c>
-      <c r="E344" t="s">
-        <v>1192</v>
+      <c r="E344" s="2" t="s">
+        <v>1195</v>
       </c>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.25">
@@ -21644,11 +21643,11 @@
       <c r="B345" t="s">
         <v>385</v>
       </c>
-      <c r="D345" t="s">
+      <c r="D345" s="2" t="s">
         <v>1156</v>
       </c>
-      <c r="E345" t="s">
-        <v>1192</v>
+      <c r="E345" s="2" t="s">
+        <v>1195</v>
       </c>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.25">
@@ -21658,11 +21657,11 @@
       <c r="B346" t="s">
         <v>385</v>
       </c>
-      <c r="D346" t="s">
+      <c r="D346" s="2" t="s">
         <v>1156</v>
       </c>
-      <c r="E346" t="s">
-        <v>1192</v>
+      <c r="E346" s="2" t="s">
+        <v>1195</v>
       </c>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.25">
@@ -21672,11 +21671,11 @@
       <c r="B347" t="s">
         <v>385</v>
       </c>
-      <c r="D347" t="s">
+      <c r="D347" s="2" t="s">
         <v>1156</v>
       </c>
-      <c r="E347" t="s">
-        <v>1192</v>
+      <c r="E347" s="2" t="s">
+        <v>1195</v>
       </c>
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.25">
@@ -21686,11 +21685,11 @@
       <c r="B348" t="s">
         <v>385</v>
       </c>
-      <c r="D348" t="s">
+      <c r="D348" s="2" t="s">
         <v>1156</v>
       </c>
-      <c r="E348" t="s">
-        <v>1192</v>
+      <c r="E348" s="2" t="s">
+        <v>1195</v>
       </c>
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.25">
@@ -21700,11 +21699,11 @@
       <c r="B349" t="s">
         <v>385</v>
       </c>
-      <c r="D349" t="s">
+      <c r="D349" s="2" t="s">
         <v>1156</v>
       </c>
-      <c r="E349" t="s">
-        <v>1192</v>
+      <c r="E349" s="2" t="s">
+        <v>1195</v>
       </c>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.25">
@@ -21714,11 +21713,11 @@
       <c r="B350" t="s">
         <v>385</v>
       </c>
-      <c r="D350" t="s">
+      <c r="D350" s="2" t="s">
         <v>1156</v>
       </c>
-      <c r="E350" t="s">
-        <v>1192</v>
+      <c r="E350" s="2" t="s">
+        <v>1195</v>
       </c>
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.25">
@@ -21728,11 +21727,11 @@
       <c r="B351" t="s">
         <v>385</v>
       </c>
-      <c r="D351" t="s">
+      <c r="D351" s="2" t="s">
         <v>1156</v>
       </c>
-      <c r="E351" t="s">
-        <v>1192</v>
+      <c r="E351" s="2" t="s">
+        <v>1195</v>
       </c>
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.25">
@@ -21745,11 +21744,11 @@
       <c r="C352" t="s">
         <v>1046</v>
       </c>
-      <c r="D352" t="s">
+      <c r="D352" s="2" t="s">
         <v>1156</v>
       </c>
-      <c r="E352" t="s">
-        <v>1192</v>
+      <c r="E352" s="2" t="s">
+        <v>1195</v>
       </c>
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.25">
@@ -21762,11 +21761,11 @@
       <c r="C353" t="s">
         <v>502</v>
       </c>
-      <c r="D353" t="s">
+      <c r="D353" s="2" t="s">
         <v>1156</v>
       </c>
-      <c r="E353" t="s">
-        <v>1192</v>
+      <c r="E353" s="2" t="s">
+        <v>1195</v>
       </c>
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.25">
@@ -21779,11 +21778,11 @@
       <c r="C354" t="s">
         <v>504</v>
       </c>
-      <c r="D354" t="s">
+      <c r="D354" s="2" t="s">
         <v>1156</v>
       </c>
-      <c r="E354" t="s">
-        <v>1192</v>
+      <c r="E354" s="2" t="s">
+        <v>1195</v>
       </c>
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.25">
@@ -21793,11 +21792,11 @@
       <c r="B355" t="s">
         <v>503</v>
       </c>
-      <c r="D355" t="s">
+      <c r="D355" s="2" t="s">
         <v>1156</v>
       </c>
-      <c r="E355" t="s">
-        <v>1192</v>
+      <c r="E355" s="2" t="s">
+        <v>1195</v>
       </c>
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.25">
@@ -21807,11 +21806,11 @@
       <c r="B356" t="s">
         <v>503</v>
       </c>
-      <c r="D356" t="s">
+      <c r="D356" s="2" t="s">
         <v>1156</v>
       </c>
-      <c r="E356" t="s">
-        <v>1192</v>
+      <c r="E356" s="2" t="s">
+        <v>1195</v>
       </c>
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.25">
@@ -21824,11 +21823,11 @@
       <c r="C357" t="s">
         <v>1002</v>
       </c>
-      <c r="D357" t="s">
+      <c r="D357" s="2" t="s">
         <v>1156</v>
       </c>
-      <c r="E357" t="s">
-        <v>1192</v>
+      <c r="E357" s="2" t="s">
+        <v>1195</v>
       </c>
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.25">
@@ -21841,11 +21840,11 @@
       <c r="C358" t="s">
         <v>545</v>
       </c>
-      <c r="D358" t="s">
+      <c r="D358" s="2" t="s">
         <v>1156</v>
       </c>
-      <c r="E358" t="s">
-        <v>1192</v>
+      <c r="E358" s="2" t="s">
+        <v>1195</v>
       </c>
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.25">
@@ -21858,11 +21857,11 @@
       <c r="C359" t="s">
         <v>1046</v>
       </c>
-      <c r="D359" t="s">
+      <c r="D359" s="2" t="s">
         <v>1156</v>
       </c>
-      <c r="E359" t="s">
-        <v>1192</v>
+      <c r="E359" s="2" t="s">
+        <v>1195</v>
       </c>
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.25">
@@ -21872,11 +21871,11 @@
       <c r="B360" t="s">
         <v>409</v>
       </c>
-      <c r="D360" t="s">
+      <c r="D360" s="2" t="s">
         <v>1156</v>
       </c>
-      <c r="E360" t="s">
-        <v>1192</v>
+      <c r="E360" s="2" t="s">
+        <v>1195</v>
       </c>
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.25">
@@ -21886,11 +21885,11 @@
       <c r="B361" t="s">
         <v>409</v>
       </c>
-      <c r="D361" t="s">
+      <c r="D361" s="2" t="s">
         <v>1156</v>
       </c>
-      <c r="E361" t="s">
-        <v>1192</v>
+      <c r="E361" s="2" t="s">
+        <v>1195</v>
       </c>
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.25">
@@ -21903,11 +21902,11 @@
       <c r="C362" t="s">
         <v>501</v>
       </c>
-      <c r="D362" t="s">
+      <c r="D362" s="2" t="s">
         <v>1156</v>
       </c>
-      <c r="E362" t="s">
-        <v>1192</v>
+      <c r="E362" s="2" t="s">
+        <v>1195</v>
       </c>
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.25">
@@ -21917,11 +21916,11 @@
       <c r="B363" t="s">
         <v>409</v>
       </c>
-      <c r="D363" t="s">
+      <c r="D363" s="2" t="s">
         <v>1156</v>
       </c>
-      <c r="E363" t="s">
-        <v>1192</v>
+      <c r="E363" s="2" t="s">
+        <v>1195</v>
       </c>
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.25">
@@ -21931,11 +21930,11 @@
       <c r="B364" t="s">
         <v>409</v>
       </c>
-      <c r="D364" t="s">
+      <c r="D364" s="2" t="s">
         <v>1156</v>
       </c>
-      <c r="E364" t="s">
-        <v>1192</v>
+      <c r="E364" s="2" t="s">
+        <v>1195</v>
       </c>
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.25">
@@ -21945,11 +21944,11 @@
       <c r="B365" t="s">
         <v>409</v>
       </c>
-      <c r="D365" t="s">
+      <c r="D365" s="2" t="s">
         <v>1156</v>
       </c>
-      <c r="E365" t="s">
-        <v>1192</v>
+      <c r="E365" s="2" t="s">
+        <v>1195</v>
       </c>
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.25">
@@ -21959,11 +21958,11 @@
       <c r="B366" t="s">
         <v>409</v>
       </c>
-      <c r="D366" t="s">
+      <c r="D366" s="2" t="s">
         <v>1156</v>
       </c>
-      <c r="E366" t="s">
-        <v>1192</v>
+      <c r="E366" s="2" t="s">
+        <v>1195</v>
       </c>
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.25">
@@ -21976,11 +21975,11 @@
       <c r="C367" t="s">
         <v>544</v>
       </c>
-      <c r="D367" t="s">
+      <c r="D367" s="2" t="s">
         <v>1156</v>
       </c>
-      <c r="E367" t="s">
-        <v>1192</v>
+      <c r="E367" s="2" t="s">
+        <v>1195</v>
       </c>
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.25">
@@ -21993,11 +21992,11 @@
       <c r="C368" t="s">
         <v>545</v>
       </c>
-      <c r="D368" t="s">
+      <c r="D368" s="2" t="s">
         <v>1156</v>
       </c>
-      <c r="E368" t="s">
-        <v>1192</v>
+      <c r="E368" s="2" t="s">
+        <v>1195</v>
       </c>
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.25">
@@ -22007,11 +22006,11 @@
       <c r="B369" t="s">
         <v>409</v>
       </c>
-      <c r="D369" t="s">
+      <c r="D369" s="2" t="s">
         <v>1156</v>
       </c>
-      <c r="E369" t="s">
-        <v>1192</v>
+      <c r="E369" s="2" t="s">
+        <v>1195</v>
       </c>
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.25">
@@ -22021,11 +22020,11 @@
       <c r="B370" t="s">
         <v>409</v>
       </c>
-      <c r="D370" t="s">
+      <c r="D370" s="2" t="s">
         <v>1156</v>
       </c>
-      <c r="E370" t="s">
-        <v>1192</v>
+      <c r="E370" s="2" t="s">
+        <v>1195</v>
       </c>
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.25">
@@ -22035,11 +22034,11 @@
       <c r="B371" t="s">
         <v>409</v>
       </c>
-      <c r="D371" t="s">
+      <c r="D371" s="2" t="s">
         <v>1156</v>
       </c>
-      <c r="E371" t="s">
-        <v>1192</v>
+      <c r="E371" s="2" t="s">
+        <v>1195</v>
       </c>
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.25">
@@ -22049,11 +22048,11 @@
       <c r="B372" t="s">
         <v>409</v>
       </c>
-      <c r="D372" t="s">
+      <c r="D372" s="2" t="s">
         <v>1156</v>
       </c>
-      <c r="E372" t="s">
-        <v>1192</v>
+      <c r="E372" s="2" t="s">
+        <v>1195</v>
       </c>
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.25">
@@ -22063,11 +22062,11 @@
       <c r="B373" t="s">
         <v>409</v>
       </c>
-      <c r="D373" t="s">
+      <c r="D373" s="2" t="s">
         <v>1156</v>
       </c>
-      <c r="E373" t="s">
-        <v>1192</v>
+      <c r="E373" s="2" t="s">
+        <v>1195</v>
       </c>
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.25">
@@ -22080,11 +22079,11 @@
       <c r="C374" t="s">
         <v>1046</v>
       </c>
-      <c r="D374" t="s">
+      <c r="D374" s="2" t="s">
         <v>1156</v>
       </c>
-      <c r="E374" t="s">
-        <v>1192</v>
+      <c r="E374" s="2" t="s">
+        <v>1195</v>
       </c>
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.25">
@@ -22094,11 +22093,11 @@
       <c r="B375" t="s">
         <v>410</v>
       </c>
-      <c r="D375" t="s">
+      <c r="D375" s="2" t="s">
         <v>1156</v>
       </c>
-      <c r="E375" t="s">
-        <v>1192</v>
+      <c r="E375" s="2" t="s">
+        <v>1195</v>
       </c>
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.25">
@@ -22108,11 +22107,11 @@
       <c r="B376" t="s">
         <v>510</v>
       </c>
-      <c r="D376" t="s">
+      <c r="D376" s="2" t="s">
         <v>1156</v>
       </c>
-      <c r="E376" t="s">
-        <v>1192</v>
+      <c r="E376" s="2" t="s">
+        <v>1195</v>
       </c>
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.25">
@@ -22125,11 +22124,11 @@
       <c r="C377" t="s">
         <v>1002</v>
       </c>
-      <c r="D377" t="s">
+      <c r="D377" s="2" t="s">
         <v>1156</v>
       </c>
-      <c r="E377" t="s">
-        <v>1192</v>
+      <c r="E377" s="2" t="s">
+        <v>1195</v>
       </c>
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.25">
@@ -22139,11 +22138,11 @@
       <c r="B378" t="s">
         <v>995</v>
       </c>
-      <c r="D378" t="s">
+      <c r="D378" s="2" t="s">
         <v>1156</v>
       </c>
-      <c r="E378" t="s">
-        <v>1192</v>
+      <c r="E378" s="2" t="s">
+        <v>1195</v>
       </c>
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.25">
@@ -22153,11 +22152,11 @@
       <c r="B379" t="s">
         <v>480</v>
       </c>
-      <c r="D379" t="s">
+      <c r="D379" s="2" t="s">
         <v>1156</v>
       </c>
-      <c r="E379" t="s">
-        <v>1192</v>
+      <c r="E379" s="2" t="s">
+        <v>1195</v>
       </c>
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.25">
@@ -22167,11 +22166,11 @@
       <c r="B380" t="s">
         <v>480</v>
       </c>
-      <c r="D380" t="s">
+      <c r="D380" s="2" t="s">
         <v>1156</v>
       </c>
-      <c r="E380" t="s">
-        <v>1192</v>
+      <c r="E380" s="2" t="s">
+        <v>1195</v>
       </c>
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.25">
@@ -22181,11 +22180,11 @@
       <c r="B381" t="s">
         <v>280</v>
       </c>
-      <c r="D381" t="s">
+      <c r="D381" s="2" t="s">
         <v>1156</v>
       </c>
-      <c r="E381" t="s">
-        <v>1192</v>
+      <c r="E381" s="2" t="s">
+        <v>1195</v>
       </c>
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.25">
@@ -22195,11 +22194,11 @@
       <c r="B382" t="s">
         <v>280</v>
       </c>
-      <c r="D382" t="s">
+      <c r="D382" s="2" t="s">
         <v>1156</v>
       </c>
-      <c r="E382" t="s">
-        <v>1192</v>
+      <c r="E382" s="2" t="s">
+        <v>1195</v>
       </c>
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.25">
@@ -22209,11 +22208,11 @@
       <c r="B383" t="s">
         <v>280</v>
       </c>
-      <c r="D383" t="s">
+      <c r="D383" s="2" t="s">
         <v>1156</v>
       </c>
-      <c r="E383" t="s">
-        <v>1192</v>
+      <c r="E383" s="2" t="s">
+        <v>1195</v>
       </c>
     </row>
     <row r="384" spans="1:5" x14ac:dyDescent="0.25">
@@ -22223,11 +22222,11 @@
       <c r="B384" t="s">
         <v>280</v>
       </c>
-      <c r="D384" t="s">
+      <c r="D384" s="2" t="s">
         <v>1156</v>
       </c>
-      <c r="E384" t="s">
-        <v>1192</v>
+      <c r="E384" s="2" t="s">
+        <v>1195</v>
       </c>
     </row>
     <row r="385" spans="1:5" x14ac:dyDescent="0.25">
@@ -22237,11 +22236,11 @@
       <c r="B385" t="s">
         <v>280</v>
       </c>
-      <c r="D385" t="s">
+      <c r="D385" s="2" t="s">
         <v>1156</v>
       </c>
-      <c r="E385" t="s">
-        <v>1192</v>
+      <c r="E385" s="2" t="s">
+        <v>1195</v>
       </c>
     </row>
     <row r="386" spans="1:5" x14ac:dyDescent="0.25">
@@ -22251,11 +22250,11 @@
       <c r="B386" t="s">
         <v>280</v>
       </c>
-      <c r="D386" t="s">
+      <c r="D386" s="2" t="s">
         <v>1156</v>
       </c>
-      <c r="E386" t="s">
-        <v>1192</v>
+      <c r="E386" s="2" t="s">
+        <v>1195</v>
       </c>
     </row>
     <row r="387" spans="1:5" x14ac:dyDescent="0.25">
@@ -22265,11 +22264,11 @@
       <c r="B387" t="s">
         <v>280</v>
       </c>
-      <c r="D387" t="s">
+      <c r="D387" s="2" t="s">
         <v>1156</v>
       </c>
-      <c r="E387" t="s">
-        <v>1192</v>
+      <c r="E387" s="2" t="s">
+        <v>1195</v>
       </c>
     </row>
     <row r="388" spans="1:5" x14ac:dyDescent="0.25">
@@ -22279,11 +22278,11 @@
       <c r="B388" t="s">
         <v>280</v>
       </c>
-      <c r="D388" t="s">
+      <c r="D388" s="2" t="s">
         <v>1156</v>
       </c>
-      <c r="E388" t="s">
-        <v>1192</v>
+      <c r="E388" s="2" t="s">
+        <v>1195</v>
       </c>
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.25">
@@ -22293,11 +22292,11 @@
       <c r="B389" t="s">
         <v>280</v>
       </c>
-      <c r="D389" t="s">
+      <c r="D389" s="2" t="s">
         <v>1156</v>
       </c>
-      <c r="E389" t="s">
-        <v>1192</v>
+      <c r="E389" s="2" t="s">
+        <v>1195</v>
       </c>
     </row>
     <row r="390" spans="1:5" x14ac:dyDescent="0.25">
@@ -22310,11 +22309,11 @@
       <c r="C390" t="s">
         <v>391</v>
       </c>
-      <c r="D390" t="s">
+      <c r="D390" s="2" t="s">
         <v>1156</v>
       </c>
-      <c r="E390" t="s">
-        <v>1192</v>
+      <c r="E390" s="2" t="s">
+        <v>1195</v>
       </c>
     </row>
     <row r="391" spans="1:5" x14ac:dyDescent="0.25">
@@ -22327,11 +22326,11 @@
       <c r="C391" t="s">
         <v>392</v>
       </c>
-      <c r="D391" t="s">
+      <c r="D391" s="2" t="s">
         <v>1156</v>
       </c>
-      <c r="E391" t="s">
-        <v>1192</v>
+      <c r="E391" s="2" t="s">
+        <v>1195</v>
       </c>
     </row>
     <row r="392" spans="1:5" x14ac:dyDescent="0.25">
@@ -22341,11 +22340,11 @@
       <c r="B392" t="s">
         <v>280</v>
       </c>
-      <c r="D392" t="s">
+      <c r="D392" s="2" t="s">
         <v>1156</v>
       </c>
-      <c r="E392" t="s">
-        <v>1192</v>
+      <c r="E392" s="2" t="s">
+        <v>1195</v>
       </c>
     </row>
     <row r="393" spans="1:5" x14ac:dyDescent="0.25">
@@ -22355,11 +22354,11 @@
       <c r="B393" t="s">
         <v>280</v>
       </c>
-      <c r="D393" t="s">
+      <c r="D393" s="2" t="s">
         <v>1156</v>
       </c>
-      <c r="E393" t="s">
-        <v>1192</v>
+      <c r="E393" s="2" t="s">
+        <v>1195</v>
       </c>
     </row>
     <row r="394" spans="1:5" x14ac:dyDescent="0.25">
@@ -22369,11 +22368,11 @@
       <c r="B394" t="s">
         <v>280</v>
       </c>
-      <c r="D394" t="s">
+      <c r="D394" s="2" t="s">
         <v>1156</v>
       </c>
-      <c r="E394" t="s">
-        <v>1192</v>
+      <c r="E394" s="2" t="s">
+        <v>1195</v>
       </c>
     </row>
     <row r="395" spans="1:5" x14ac:dyDescent="0.25">
@@ -22383,11 +22382,11 @@
       <c r="B395" t="s">
         <v>280</v>
       </c>
-      <c r="D395" t="s">
+      <c r="D395" s="2" t="s">
         <v>1156</v>
       </c>
-      <c r="E395" t="s">
-        <v>1192</v>
+      <c r="E395" s="2" t="s">
+        <v>1195</v>
       </c>
     </row>
     <row r="396" spans="1:5" x14ac:dyDescent="0.25">
@@ -22397,11 +22396,11 @@
       <c r="B396" t="s">
         <v>280</v>
       </c>
-      <c r="D396" t="s">
+      <c r="D396" s="2" t="s">
         <v>1156</v>
       </c>
-      <c r="E396" t="s">
-        <v>1192</v>
+      <c r="E396" s="2" t="s">
+        <v>1195</v>
       </c>
     </row>
     <row r="397" spans="1:5" x14ac:dyDescent="0.25">
@@ -22411,11 +22410,11 @@
       <c r="B397" t="s">
         <v>280</v>
       </c>
-      <c r="D397" t="s">
+      <c r="D397" s="2" t="s">
         <v>1156</v>
       </c>
-      <c r="E397" t="s">
-        <v>1192</v>
+      <c r="E397" s="2" t="s">
+        <v>1195</v>
       </c>
     </row>
     <row r="398" spans="1:5" x14ac:dyDescent="0.25">
@@ -22428,11 +22427,11 @@
       <c r="C398" t="s">
         <v>502</v>
       </c>
-      <c r="D398" t="s">
+      <c r="D398" s="2" t="s">
         <v>1156</v>
       </c>
-      <c r="E398" t="s">
-        <v>1192</v>
+      <c r="E398" s="2" t="s">
+        <v>1195</v>
       </c>
     </row>
     <row r="399" spans="1:5" x14ac:dyDescent="0.25">
@@ -22445,11 +22444,11 @@
       <c r="C399" t="s">
         <v>504</v>
       </c>
-      <c r="D399" t="s">
+      <c r="D399" s="2" t="s">
         <v>1156</v>
       </c>
-      <c r="E399" t="s">
-        <v>1192</v>
+      <c r="E399" s="2" t="s">
+        <v>1195</v>
       </c>
     </row>
     <row r="400" spans="1:5" x14ac:dyDescent="0.25">
@@ -22459,11 +22458,11 @@
       <c r="B400" t="s">
         <v>280</v>
       </c>
-      <c r="D400" t="s">
+      <c r="D400" s="2" t="s">
         <v>1156</v>
       </c>
-      <c r="E400" t="s">
-        <v>1192</v>
+      <c r="E400" s="2" t="s">
+        <v>1195</v>
       </c>
     </row>
     <row r="401" spans="1:5" x14ac:dyDescent="0.25">
@@ -22473,11 +22472,11 @@
       <c r="B401" t="s">
         <v>280</v>
       </c>
-      <c r="D401" t="s">
+      <c r="D401" s="2" t="s">
         <v>1156</v>
       </c>
-      <c r="E401" t="s">
-        <v>1192</v>
+      <c r="E401" s="2" t="s">
+        <v>1195</v>
       </c>
     </row>
     <row r="402" spans="1:5" x14ac:dyDescent="0.25">
@@ -22487,11 +22486,11 @@
       <c r="B402" t="s">
         <v>280</v>
       </c>
-      <c r="D402" t="s">
+      <c r="D402" s="2" t="s">
         <v>1156</v>
       </c>
-      <c r="E402" t="s">
-        <v>1192</v>
+      <c r="E402" s="2" t="s">
+        <v>1195</v>
       </c>
     </row>
     <row r="403" spans="1:5" x14ac:dyDescent="0.25">
@@ -22501,11 +22500,11 @@
       <c r="B403" t="s">
         <v>280</v>
       </c>
-      <c r="D403" t="s">
+      <c r="D403" s="2" t="s">
         <v>1156</v>
       </c>
-      <c r="E403" t="s">
-        <v>1192</v>
+      <c r="E403" s="2" t="s">
+        <v>1195</v>
       </c>
     </row>
     <row r="404" spans="1:5" x14ac:dyDescent="0.25">
@@ -22515,11 +22514,11 @@
       <c r="B404" t="s">
         <v>280</v>
       </c>
-      <c r="D404" t="s">
+      <c r="D404" s="2" t="s">
         <v>1156</v>
       </c>
-      <c r="E404" t="s">
-        <v>1192</v>
+      <c r="E404" s="2" t="s">
+        <v>1195</v>
       </c>
     </row>
     <row r="405" spans="1:5" x14ac:dyDescent="0.25">
@@ -22529,11 +22528,11 @@
       <c r="B405" t="s">
         <v>280</v>
       </c>
-      <c r="D405" t="s">
+      <c r="D405" s="2" t="s">
         <v>1156</v>
       </c>
-      <c r="E405" t="s">
-        <v>1192</v>
+      <c r="E405" s="2" t="s">
+        <v>1195</v>
       </c>
     </row>
     <row r="406" spans="1:5" x14ac:dyDescent="0.25">
@@ -22543,11 +22542,11 @@
       <c r="B406" t="s">
         <v>280</v>
       </c>
-      <c r="D406" t="s">
+      <c r="D406" s="2" t="s">
         <v>1156</v>
       </c>
-      <c r="E406" t="s">
-        <v>1192</v>
+      <c r="E406" s="2" t="s">
+        <v>1195</v>
       </c>
     </row>
     <row r="407" spans="1:5" x14ac:dyDescent="0.25">
@@ -22557,11 +22556,11 @@
       <c r="B407" t="s">
         <v>280</v>
       </c>
-      <c r="D407" t="s">
+      <c r="D407" s="2" t="s">
         <v>1156</v>
       </c>
-      <c r="E407" t="s">
-        <v>1192</v>
+      <c r="E407" s="2" t="s">
+        <v>1195</v>
       </c>
     </row>
     <row r="408" spans="1:5" x14ac:dyDescent="0.25">
@@ -22574,11 +22573,11 @@
       <c r="C408" t="s">
         <v>545</v>
       </c>
-      <c r="D408" t="s">
+      <c r="D408" s="2" t="s">
         <v>1156</v>
       </c>
-      <c r="E408" t="s">
-        <v>1192</v>
+      <c r="E408" s="2" t="s">
+        <v>1195</v>
       </c>
     </row>
     <row r="409" spans="1:5" x14ac:dyDescent="0.25">
@@ -22588,11 +22587,11 @@
       <c r="B409" t="s">
         <v>280</v>
       </c>
-      <c r="D409" t="s">
+      <c r="D409" s="2" t="s">
         <v>1156</v>
       </c>
-      <c r="E409" t="s">
-        <v>1192</v>
+      <c r="E409" s="2" t="s">
+        <v>1195</v>
       </c>
     </row>
     <row r="410" spans="1:5" x14ac:dyDescent="0.25">
@@ -22605,11 +22604,11 @@
       <c r="C410" t="s">
         <v>546</v>
       </c>
-      <c r="D410" t="s">
+      <c r="D410" s="2" t="s">
         <v>1156</v>
       </c>
-      <c r="E410" t="s">
-        <v>1192</v>
+      <c r="E410" s="2" t="s">
+        <v>1195</v>
       </c>
     </row>
     <row r="411" spans="1:5" x14ac:dyDescent="0.25">
@@ -22619,11 +22618,11 @@
       <c r="B411" t="s">
         <v>280</v>
       </c>
-      <c r="D411" t="s">
+      <c r="D411" s="2" t="s">
         <v>1156</v>
       </c>
-      <c r="E411" t="s">
-        <v>1192</v>
+      <c r="E411" s="2" t="s">
+        <v>1195</v>
       </c>
     </row>
     <row r="412" spans="1:5" x14ac:dyDescent="0.25">
@@ -22636,11 +22635,11 @@
       <c r="C412" t="s">
         <v>1002</v>
       </c>
-      <c r="D412" t="s">
+      <c r="D412" s="2" t="s">
         <v>1156</v>
       </c>
-      <c r="E412" t="s">
-        <v>1192</v>
+      <c r="E412" s="2" t="s">
+        <v>1195</v>
       </c>
     </row>
     <row r="413" spans="1:5" x14ac:dyDescent="0.25">
@@ -22653,11 +22652,11 @@
       <c r="C413" t="s">
         <v>1002</v>
       </c>
-      <c r="D413" t="s">
+      <c r="D413" s="2" t="s">
         <v>1156</v>
       </c>
-      <c r="E413" t="s">
-        <v>1192</v>
+      <c r="E413" s="2" t="s">
+        <v>1195</v>
       </c>
     </row>
     <row r="414" spans="1:5" x14ac:dyDescent="0.25">
@@ -22667,11 +22666,11 @@
       <c r="B414" t="s">
         <v>280</v>
       </c>
-      <c r="D414" t="s">
+      <c r="D414" s="2" t="s">
         <v>1156</v>
       </c>
-      <c r="E414" t="s">
-        <v>1192</v>
+      <c r="E414" s="2" t="s">
+        <v>1195</v>
       </c>
     </row>
     <row r="415" spans="1:5" x14ac:dyDescent="0.25">
@@ -22681,11 +22680,11 @@
       <c r="B415" t="s">
         <v>280</v>
       </c>
-      <c r="D415" t="s">
+      <c r="D415" s="2" t="s">
         <v>1156</v>
       </c>
-      <c r="E415" t="s">
-        <v>1192</v>
+      <c r="E415" s="2" t="s">
+        <v>1195</v>
       </c>
     </row>
     <row r="416" spans="1:5" x14ac:dyDescent="0.25">
@@ -22698,11 +22697,11 @@
       <c r="C416" t="s">
         <v>545</v>
       </c>
-      <c r="D416" t="s">
+      <c r="D416" s="2" t="s">
         <v>1156</v>
       </c>
-      <c r="E416" t="s">
-        <v>1192</v>
+      <c r="E416" s="2" t="s">
+        <v>1195</v>
       </c>
     </row>
     <row r="417" spans="1:5" x14ac:dyDescent="0.25">
@@ -22712,11 +22711,11 @@
       <c r="B417" t="s">
         <v>280</v>
       </c>
-      <c r="D417" t="s">
+      <c r="D417" s="2" t="s">
         <v>1156</v>
       </c>
-      <c r="E417" t="s">
-        <v>1192</v>
+      <c r="E417" s="2" t="s">
+        <v>1195</v>
       </c>
     </row>
     <row r="418" spans="1:5" x14ac:dyDescent="0.25">
@@ -22726,11 +22725,11 @@
       <c r="B418" t="s">
         <v>280</v>
       </c>
-      <c r="D418" t="s">
+      <c r="D418" s="2" t="s">
         <v>1156</v>
       </c>
-      <c r="E418" t="s">
-        <v>1192</v>
+      <c r="E418" s="2" t="s">
+        <v>1195</v>
       </c>
     </row>
     <row r="419" spans="1:5" x14ac:dyDescent="0.25">
@@ -22740,11 +22739,11 @@
       <c r="B419" t="s">
         <v>280</v>
       </c>
-      <c r="D419" t="s">
+      <c r="D419" s="2" t="s">
         <v>1156</v>
       </c>
-      <c r="E419" t="s">
-        <v>1192</v>
+      <c r="E419" s="2" t="s">
+        <v>1195</v>
       </c>
     </row>
     <row r="420" spans="1:5" x14ac:dyDescent="0.25">
@@ -22754,11 +22753,11 @@
       <c r="B420" t="s">
         <v>280</v>
       </c>
-      <c r="D420" t="s">
+      <c r="D420" s="2" t="s">
         <v>1156</v>
       </c>
-      <c r="E420" t="s">
-        <v>1192</v>
+      <c r="E420" s="2" t="s">
+        <v>1195</v>
       </c>
     </row>
     <row r="421" spans="1:5" x14ac:dyDescent="0.25">
@@ -22768,11 +22767,11 @@
       <c r="B421" t="s">
         <v>280</v>
       </c>
-      <c r="D421" t="s">
+      <c r="D421" s="2" t="s">
         <v>1156</v>
       </c>
-      <c r="E421" t="s">
-        <v>1192</v>
+      <c r="E421" s="2" t="s">
+        <v>1195</v>
       </c>
     </row>
     <row r="422" spans="1:5" x14ac:dyDescent="0.25">
@@ -22782,11 +22781,11 @@
       <c r="B422" t="s">
         <v>280</v>
       </c>
-      <c r="D422" t="s">
+      <c r="D422" s="2" t="s">
         <v>1156</v>
       </c>
-      <c r="E422" t="s">
-        <v>1192</v>
+      <c r="E422" s="2" t="s">
+        <v>1195</v>
       </c>
     </row>
     <row r="423" spans="1:5" x14ac:dyDescent="0.25">
@@ -22796,11 +22795,11 @@
       <c r="B423" t="s">
         <v>280</v>
       </c>
-      <c r="D423" t="s">
+      <c r="D423" s="2" t="s">
         <v>1156</v>
       </c>
-      <c r="E423" t="s">
-        <v>1192</v>
+      <c r="E423" s="2" t="s">
+        <v>1195</v>
       </c>
     </row>
     <row r="424" spans="1:5" x14ac:dyDescent="0.25">
@@ -22810,11 +22809,11 @@
       <c r="B424" t="s">
         <v>280</v>
       </c>
-      <c r="D424" t="s">
+      <c r="D424" s="2" t="s">
         <v>1156</v>
       </c>
-      <c r="E424" t="s">
-        <v>1192</v>
+      <c r="E424" s="2" t="s">
+        <v>1195</v>
       </c>
     </row>
     <row r="425" spans="1:5" x14ac:dyDescent="0.25">
@@ -22824,11 +22823,11 @@
       <c r="B425" t="s">
         <v>280</v>
       </c>
-      <c r="D425" t="s">
+      <c r="D425" s="2" t="s">
         <v>1156</v>
       </c>
-      <c r="E425" t="s">
-        <v>1192</v>
+      <c r="E425" s="2" t="s">
+        <v>1195</v>
       </c>
     </row>
     <row r="426" spans="1:5" x14ac:dyDescent="0.25">
@@ -22838,11 +22837,11 @@
       <c r="B426" t="s">
         <v>280</v>
       </c>
-      <c r="D426" t="s">
+      <c r="D426" s="2" t="s">
         <v>1156</v>
       </c>
-      <c r="E426" t="s">
-        <v>1192</v>
+      <c r="E426" s="2" t="s">
+        <v>1195</v>
       </c>
     </row>
     <row r="427" spans="1:5" x14ac:dyDescent="0.25">
@@ -22852,11 +22851,11 @@
       <c r="B427" t="s">
         <v>280</v>
       </c>
-      <c r="D427" t="s">
+      <c r="D427" s="2" t="s">
         <v>1156</v>
       </c>
-      <c r="E427" t="s">
-        <v>1192</v>
+      <c r="E427" s="2" t="s">
+        <v>1195</v>
       </c>
     </row>
     <row r="428" spans="1:5" x14ac:dyDescent="0.25">
@@ -22866,11 +22865,11 @@
       <c r="B428" t="s">
         <v>280</v>
       </c>
-      <c r="D428" t="s">
+      <c r="D428" s="2" t="s">
         <v>1156</v>
       </c>
-      <c r="E428" t="s">
-        <v>1192</v>
+      <c r="E428" s="2" t="s">
+        <v>1195</v>
       </c>
     </row>
     <row r="429" spans="1:5" x14ac:dyDescent="0.25">
@@ -22880,11 +22879,11 @@
       <c r="B429" t="s">
         <v>280</v>
       </c>
-      <c r="D429" t="s">
+      <c r="D429" s="2" t="s">
         <v>1156</v>
       </c>
-      <c r="E429" t="s">
-        <v>1192</v>
+      <c r="E429" s="2" t="s">
+        <v>1195</v>
       </c>
     </row>
     <row r="430" spans="1:5" x14ac:dyDescent="0.25">
@@ -22897,11 +22896,11 @@
       <c r="C430" t="s">
         <v>1002</v>
       </c>
-      <c r="D430" t="s">
+      <c r="D430" s="2" t="s">
         <v>1156</v>
       </c>
-      <c r="E430" t="s">
-        <v>1192</v>
+      <c r="E430" s="2" t="s">
+        <v>1195</v>
       </c>
     </row>
     <row r="431" spans="1:5" x14ac:dyDescent="0.25">
@@ -22914,11 +22913,11 @@
       <c r="C431" t="s">
         <v>388</v>
       </c>
-      <c r="D431" t="s">
+      <c r="D431" s="2" t="s">
         <v>1156</v>
       </c>
-      <c r="E431" t="s">
-        <v>1192</v>
+      <c r="E431" s="2" t="s">
+        <v>1195</v>
       </c>
     </row>
     <row r="432" spans="1:5" x14ac:dyDescent="0.25">
@@ -22931,11 +22930,11 @@
       <c r="C432" t="s">
         <v>545</v>
       </c>
-      <c r="D432" t="s">
+      <c r="D432" s="2" t="s">
         <v>1156</v>
       </c>
-      <c r="E432" t="s">
-        <v>1192</v>
+      <c r="E432" s="2" t="s">
+        <v>1195</v>
       </c>
     </row>
     <row r="433" spans="1:5" x14ac:dyDescent="0.25">
@@ -22948,11 +22947,11 @@
       <c r="C433" t="s">
         <v>1002</v>
       </c>
-      <c r="D433" t="s">
+      <c r="D433" s="2" t="s">
         <v>1156</v>
       </c>
-      <c r="E433" t="s">
-        <v>1192</v>
+      <c r="E433" s="2" t="s">
+        <v>1195</v>
       </c>
     </row>
     <row r="434" spans="1:5" x14ac:dyDescent="0.25">
@@ -22962,11 +22961,11 @@
       <c r="B434" t="s">
         <v>509</v>
       </c>
-      <c r="D434" t="s">
+      <c r="D434" s="2" t="s">
         <v>1156</v>
       </c>
-      <c r="E434" t="s">
-        <v>1192</v>
+      <c r="E434" s="2" t="s">
+        <v>1195</v>
       </c>
     </row>
     <row r="435" spans="1:5" x14ac:dyDescent="0.25">
@@ -22976,11 +22975,11 @@
       <c r="B435" t="s">
         <v>509</v>
       </c>
-      <c r="D435" t="s">
+      <c r="D435" s="2" t="s">
         <v>1156</v>
       </c>
-      <c r="E435" t="s">
-        <v>1192</v>
+      <c r="E435" s="2" t="s">
+        <v>1195</v>
       </c>
     </row>
     <row r="436" spans="1:5" x14ac:dyDescent="0.25">
@@ -22990,11 +22989,11 @@
       <c r="B436" t="s">
         <v>496</v>
       </c>
-      <c r="D436" t="s">
+      <c r="D436" s="2" t="s">
         <v>1156</v>
       </c>
-      <c r="E436" t="s">
-        <v>1192</v>
+      <c r="E436" s="2" t="s">
+        <v>1195</v>
       </c>
     </row>
     <row r="437" spans="1:5" x14ac:dyDescent="0.25">
@@ -23004,11 +23003,11 @@
       <c r="B437" t="s">
         <v>334</v>
       </c>
-      <c r="D437" t="s">
+      <c r="D437" s="2" t="s">
         <v>1156</v>
       </c>
-      <c r="E437" t="s">
-        <v>1192</v>
+      <c r="E437" s="2" t="s">
+        <v>1195</v>
       </c>
     </row>
     <row r="438" spans="1:5" x14ac:dyDescent="0.25">
@@ -23018,11 +23017,11 @@
       <c r="B438" t="s">
         <v>515</v>
       </c>
-      <c r="D438" t="s">
+      <c r="D438" s="2" t="s">
         <v>1156</v>
       </c>
-      <c r="E438" t="s">
-        <v>1192</v>
+      <c r="E438" s="2" t="s">
+        <v>1195</v>
       </c>
     </row>
     <row r="439" spans="1:5" x14ac:dyDescent="0.25">
@@ -23035,11 +23034,11 @@
       <c r="C439" t="s">
         <v>1046</v>
       </c>
-      <c r="D439" t="s">
+      <c r="D439" s="2" t="s">
         <v>1156</v>
       </c>
-      <c r="E439" t="s">
-        <v>1192</v>
+      <c r="E439" s="2" t="s">
+        <v>1195</v>
       </c>
     </row>
     <row r="440" spans="1:5" x14ac:dyDescent="0.25">
@@ -23049,11 +23048,11 @@
       <c r="B440" t="s">
         <v>396</v>
       </c>
-      <c r="D440" t="s">
+      <c r="D440" s="2" t="s">
         <v>1165</v>
       </c>
-      <c r="E440" t="s">
-        <v>1184</v>
+      <c r="E440" s="2" t="s">
+        <v>1196</v>
       </c>
     </row>
     <row r="441" spans="1:5" x14ac:dyDescent="0.25">
@@ -23063,11 +23062,11 @@
       <c r="B441" t="s">
         <v>396</v>
       </c>
-      <c r="D441" t="s">
+      <c r="D441" s="2" t="s">
         <v>1165</v>
       </c>
-      <c r="E441" t="s">
-        <v>1184</v>
+      <c r="E441" s="2" t="s">
+        <v>1196</v>
       </c>
     </row>
     <row r="442" spans="1:5" x14ac:dyDescent="0.25">
@@ -23077,11 +23076,11 @@
       <c r="B442" t="s">
         <v>396</v>
       </c>
-      <c r="D442" t="s">
+      <c r="D442" s="2" t="s">
         <v>1165</v>
       </c>
-      <c r="E442" t="s">
-        <v>1184</v>
+      <c r="E442" s="2" t="s">
+        <v>1196</v>
       </c>
     </row>
     <row r="443" spans="1:5" x14ac:dyDescent="0.25">
@@ -23091,11 +23090,11 @@
       <c r="B443" t="s">
         <v>401</v>
       </c>
-      <c r="D443" t="s">
+      <c r="D443" s="2" t="s">
         <v>1165</v>
       </c>
-      <c r="E443" t="s">
-        <v>1184</v>
+      <c r="E443" s="2" t="s">
+        <v>1196</v>
       </c>
     </row>
     <row r="444" spans="1:5" x14ac:dyDescent="0.25">
@@ -23105,11 +23104,11 @@
       <c r="B444" t="s">
         <v>402</v>
       </c>
-      <c r="D444" t="s">
+      <c r="D444" s="2" t="s">
         <v>1165</v>
       </c>
-      <c r="E444" t="s">
-        <v>1184</v>
+      <c r="E444" s="2" t="s">
+        <v>1196</v>
       </c>
     </row>
     <row r="445" spans="1:5" x14ac:dyDescent="0.25">
@@ -23119,11 +23118,11 @@
       <c r="B445" t="s">
         <v>324</v>
       </c>
-      <c r="D445" t="s">
+      <c r="D445" s="2" t="s">
         <v>1165</v>
       </c>
-      <c r="E445" t="s">
-        <v>1184</v>
+      <c r="E445" s="2" t="s">
+        <v>1196</v>
       </c>
     </row>
     <row r="446" spans="1:5" x14ac:dyDescent="0.25">
@@ -23136,11 +23135,11 @@
       <c r="C446" t="s">
         <v>1155</v>
       </c>
-      <c r="D446" t="s">
+      <c r="D446" s="2" t="s">
         <v>1154</v>
       </c>
-      <c r="E446" t="s">
-        <v>1190</v>
+      <c r="E446" s="2" t="s">
+        <v>1197</v>
       </c>
     </row>
     <row r="447" spans="1:5" x14ac:dyDescent="0.25">
@@ -23150,11 +23149,11 @@
       <c r="B447" t="s">
         <v>339</v>
       </c>
-      <c r="D447" t="s">
+      <c r="D447" s="2" t="s">
         <v>1154</v>
       </c>
-      <c r="E447" t="s">
-        <v>1190</v>
+      <c r="E447" s="2" t="s">
+        <v>1197</v>
       </c>
     </row>
     <row r="448" spans="1:5" x14ac:dyDescent="0.25">
@@ -23164,11 +23163,11 @@
       <c r="B448" t="s">
         <v>336</v>
       </c>
-      <c r="D448" t="s">
+      <c r="D448" s="2" t="s">
         <v>1154</v>
       </c>
-      <c r="E448" t="s">
-        <v>1190</v>
+      <c r="E448" s="2" t="s">
+        <v>1197</v>
       </c>
     </row>
     <row r="449" spans="1:5" x14ac:dyDescent="0.25">
@@ -23178,11 +23177,11 @@
       <c r="B449" t="s">
         <v>277</v>
       </c>
-      <c r="D449" t="s">
+      <c r="D449" s="2" t="s">
         <v>1154</v>
       </c>
-      <c r="E449" t="s">
-        <v>1190</v>
+      <c r="E449" s="2" t="s">
+        <v>1197</v>
       </c>
     </row>
     <row r="450" spans="1:5" x14ac:dyDescent="0.25">
@@ -23192,11 +23191,11 @@
       <c r="B450" t="s">
         <v>277</v>
       </c>
-      <c r="D450" t="s">
+      <c r="D450" s="2" t="s">
         <v>1154</v>
       </c>
-      <c r="E450" t="s">
-        <v>1190</v>
+      <c r="E450" s="2" t="s">
+        <v>1197</v>
       </c>
     </row>
     <row r="451" spans="1:5" x14ac:dyDescent="0.25">
@@ -23206,11 +23205,11 @@
       <c r="B451" t="s">
         <v>277</v>
       </c>
-      <c r="D451" t="s">
+      <c r="D451" s="2" t="s">
         <v>1154</v>
       </c>
-      <c r="E451" t="s">
-        <v>1190</v>
+      <c r="E451" s="2" t="s">
+        <v>1197</v>
       </c>
     </row>
     <row r="452" spans="1:5" x14ac:dyDescent="0.25">
@@ -23220,11 +23219,11 @@
       <c r="B452" t="s">
         <v>315</v>
       </c>
-      <c r="D452" t="s">
+      <c r="D452" s="2" t="s">
         <v>1154</v>
       </c>
-      <c r="E452" t="s">
-        <v>1190</v>
+      <c r="E452" s="2" t="s">
+        <v>1197</v>
       </c>
     </row>
     <row r="453" spans="1:5" x14ac:dyDescent="0.25">
@@ -23234,11 +23233,11 @@
       <c r="B453" t="s">
         <v>348</v>
       </c>
-      <c r="D453" t="s">
+      <c r="D453" s="2" t="s">
         <v>1154</v>
       </c>
-      <c r="E453" t="s">
-        <v>1190</v>
+      <c r="E453" s="2" t="s">
+        <v>1197</v>
       </c>
     </row>
     <row r="454" spans="1:5" x14ac:dyDescent="0.25">
@@ -23248,11 +23247,11 @@
       <c r="B454" t="s">
         <v>426</v>
       </c>
-      <c r="D454" t="s">
+      <c r="D454" s="2" t="s">
         <v>1154</v>
       </c>
-      <c r="E454" t="s">
-        <v>1190</v>
+      <c r="E454" s="2" t="s">
+        <v>1197</v>
       </c>
     </row>
     <row r="455" spans="1:5" x14ac:dyDescent="0.25">
@@ -23262,11 +23261,11 @@
       <c r="B455" t="s">
         <v>431</v>
       </c>
-      <c r="D455" t="s">
+      <c r="D455" s="2" t="s">
         <v>1154</v>
       </c>
-      <c r="E455" t="s">
-        <v>1190</v>
+      <c r="E455" s="2" t="s">
+        <v>1197</v>
       </c>
     </row>
     <row r="456" spans="1:5" x14ac:dyDescent="0.25">
@@ -23276,11 +23275,11 @@
       <c r="B456" t="s">
         <v>429</v>
       </c>
-      <c r="D456" t="s">
+      <c r="D456" s="2" t="s">
         <v>1154</v>
       </c>
-      <c r="E456" t="s">
-        <v>1190</v>
+      <c r="E456" s="2" t="s">
+        <v>1197</v>
       </c>
     </row>
     <row r="457" spans="1:5" x14ac:dyDescent="0.25">
@@ -23290,11 +23289,11 @@
       <c r="B457" t="s">
         <v>430</v>
       </c>
-      <c r="D457" t="s">
+      <c r="D457" s="2" t="s">
         <v>1154</v>
       </c>
-      <c r="E457" t="s">
-        <v>1190</v>
+      <c r="E457" s="2" t="s">
+        <v>1197</v>
       </c>
     </row>
     <row r="458" spans="1:5" x14ac:dyDescent="0.25">
@@ -23304,11 +23303,11 @@
       <c r="B458" t="s">
         <v>430</v>
       </c>
-      <c r="D458" t="s">
+      <c r="D458" s="2" t="s">
         <v>1154</v>
       </c>
-      <c r="E458" t="s">
-        <v>1190</v>
+      <c r="E458" s="2" t="s">
+        <v>1197</v>
       </c>
     </row>
     <row r="459" spans="1:5" x14ac:dyDescent="0.25">
@@ -23318,11 +23317,11 @@
       <c r="B459" t="s">
         <v>432</v>
       </c>
-      <c r="D459" t="s">
+      <c r="D459" s="2" t="s">
         <v>1154</v>
       </c>
-      <c r="E459" t="s">
-        <v>1190</v>
+      <c r="E459" s="2" t="s">
+        <v>1197</v>
       </c>
     </row>
     <row r="460" spans="1:5" x14ac:dyDescent="0.25">
@@ -23332,11 +23331,11 @@
       <c r="B460" t="s">
         <v>433</v>
       </c>
-      <c r="D460" t="s">
+      <c r="D460" s="2" t="s">
         <v>1154</v>
       </c>
-      <c r="E460" t="s">
-        <v>1190</v>
+      <c r="E460" s="2" t="s">
+        <v>1197</v>
       </c>
     </row>
     <row r="461" spans="1:5" x14ac:dyDescent="0.25">
@@ -23346,11 +23345,11 @@
       <c r="B461" t="s">
         <v>358</v>
       </c>
-      <c r="D461" t="s">
+      <c r="D461" s="2" t="s">
         <v>1154</v>
       </c>
-      <c r="E461" t="s">
-        <v>1190</v>
+      <c r="E461" s="2" t="s">
+        <v>1197</v>
       </c>
     </row>
     <row r="462" spans="1:5" x14ac:dyDescent="0.25">
@@ -23360,11 +23359,11 @@
       <c r="B462" t="s">
         <v>434</v>
       </c>
-      <c r="D462" t="s">
+      <c r="D462" s="2" t="s">
         <v>1154</v>
       </c>
-      <c r="E462" t="s">
-        <v>1190</v>
+      <c r="E462" s="2" t="s">
+        <v>1197</v>
       </c>
     </row>
     <row r="463" spans="1:5" x14ac:dyDescent="0.25">
@@ -23374,11 +23373,11 @@
       <c r="B463" t="s">
         <v>278</v>
       </c>
-      <c r="D463" t="s">
+      <c r="D463" s="2" t="s">
         <v>1154</v>
       </c>
-      <c r="E463" t="s">
-        <v>1190</v>
+      <c r="E463" s="2" t="s">
+        <v>1197</v>
       </c>
     </row>
     <row r="464" spans="1:5" x14ac:dyDescent="0.25">
@@ -23388,11 +23387,11 @@
       <c r="B464" t="s">
         <v>519</v>
       </c>
-      <c r="D464" t="s">
+      <c r="D464" s="2" t="s">
         <v>1154</v>
       </c>
-      <c r="E464" t="s">
-        <v>1190</v>
+      <c r="E464" s="2" t="s">
+        <v>1197</v>
       </c>
     </row>
     <row r="465" spans="1:5" x14ac:dyDescent="0.25">
@@ -23402,11 +23401,11 @@
       <c r="B465" t="s">
         <v>369</v>
       </c>
-      <c r="D465" t="s">
+      <c r="D465" s="2" t="s">
         <v>1154</v>
       </c>
-      <c r="E465" t="s">
-        <v>1190</v>
+      <c r="E465" s="2" t="s">
+        <v>1197</v>
       </c>
     </row>
     <row r="466" spans="1:5" x14ac:dyDescent="0.25">
@@ -23416,11 +23415,11 @@
       <c r="B466" t="s">
         <v>369</v>
       </c>
-      <c r="D466" t="s">
+      <c r="D466" s="2" t="s">
         <v>1154</v>
       </c>
-      <c r="E466" t="s">
-        <v>1190</v>
+      <c r="E466" s="2" t="s">
+        <v>1197</v>
       </c>
     </row>
     <row r="467" spans="1:5" x14ac:dyDescent="0.25">
@@ -23430,11 +23429,11 @@
       <c r="B467" t="s">
         <v>437</v>
       </c>
-      <c r="D467" t="s">
+      <c r="D467" s="2" t="s">
         <v>1154</v>
       </c>
-      <c r="E467" t="s">
-        <v>1190</v>
+      <c r="E467" s="2" t="s">
+        <v>1197</v>
       </c>
     </row>
     <row r="468" spans="1:5" x14ac:dyDescent="0.25">
@@ -23444,11 +23443,11 @@
       <c r="B468" t="s">
         <v>283</v>
       </c>
-      <c r="D468" t="s">
+      <c r="D468" s="2" t="s">
         <v>1154</v>
       </c>
-      <c r="E468" t="s">
-        <v>1190</v>
+      <c r="E468" s="2" t="s">
+        <v>1197</v>
       </c>
     </row>
     <row r="469" spans="1:5" x14ac:dyDescent="0.25">
@@ -23458,11 +23457,11 @@
       <c r="B469" t="s">
         <v>283</v>
       </c>
-      <c r="D469" t="s">
+      <c r="D469" s="2" t="s">
         <v>1154</v>
       </c>
-      <c r="E469" t="s">
-        <v>1190</v>
+      <c r="E469" s="2" t="s">
+        <v>1197</v>
       </c>
     </row>
     <row r="470" spans="1:5" x14ac:dyDescent="0.25">
@@ -23472,11 +23471,11 @@
       <c r="B470" t="s">
         <v>355</v>
       </c>
-      <c r="D470" t="s">
+      <c r="D470" s="2" t="s">
         <v>1154</v>
       </c>
-      <c r="E470" t="s">
-        <v>1190</v>
+      <c r="E470" s="2" t="s">
+        <v>1197</v>
       </c>
     </row>
     <row r="471" spans="1:5" x14ac:dyDescent="0.25">
@@ -23486,11 +23485,11 @@
       <c r="B471" t="s">
         <v>298</v>
       </c>
-      <c r="D471" t="s">
+      <c r="D471" s="2" t="s">
         <v>1154</v>
       </c>
-      <c r="E471" t="s">
-        <v>1190</v>
+      <c r="E471" s="2" t="s">
+        <v>1197</v>
       </c>
     </row>
     <row r="472" spans="1:5" x14ac:dyDescent="0.25">
@@ -23500,11 +23499,11 @@
       <c r="B472" t="s">
         <v>373</v>
       </c>
-      <c r="D472" t="s">
+      <c r="D472" s="2" t="s">
         <v>1154</v>
       </c>
-      <c r="E472" t="s">
-        <v>1190</v>
+      <c r="E472" s="2" t="s">
+        <v>1197</v>
       </c>
     </row>
     <row r="473" spans="1:5" x14ac:dyDescent="0.25">
@@ -23514,11 +23513,11 @@
       <c r="B473" t="s">
         <v>443</v>
       </c>
-      <c r="D473" t="s">
+      <c r="D473" s="2" t="s">
         <v>1154</v>
       </c>
-      <c r="E473" t="s">
-        <v>1190</v>
+      <c r="E473" s="2" t="s">
+        <v>1197</v>
       </c>
     </row>
     <row r="474" spans="1:5" x14ac:dyDescent="0.25">
@@ -23528,11 +23527,11 @@
       <c r="B474" t="s">
         <v>444</v>
       </c>
-      <c r="D474" t="s">
+      <c r="D474" s="2" t="s">
         <v>1154</v>
       </c>
-      <c r="E474" t="s">
-        <v>1190</v>
+      <c r="E474" s="2" t="s">
+        <v>1197</v>
       </c>
     </row>
     <row r="475" spans="1:5" x14ac:dyDescent="0.25">
@@ -23542,11 +23541,11 @@
       <c r="B475" t="s">
         <v>365</v>
       </c>
-      <c r="D475" t="s">
+      <c r="D475" s="2" t="s">
         <v>1154</v>
       </c>
-      <c r="E475" t="s">
-        <v>1190</v>
+      <c r="E475" s="2" t="s">
+        <v>1197</v>
       </c>
     </row>
     <row r="476" spans="1:5" x14ac:dyDescent="0.25">
@@ -23556,11 +23555,11 @@
       <c r="B476" t="s">
         <v>451</v>
       </c>
-      <c r="D476" t="s">
+      <c r="D476" s="2" t="s">
         <v>1154</v>
       </c>
-      <c r="E476" t="s">
-        <v>1190</v>
+      <c r="E476" s="2" t="s">
+        <v>1197</v>
       </c>
     </row>
     <row r="477" spans="1:5" x14ac:dyDescent="0.25">
@@ -23570,11 +23569,11 @@
       <c r="B477" t="s">
         <v>452</v>
       </c>
-      <c r="D477" t="s">
+      <c r="D477" s="2" t="s">
         <v>1154</v>
       </c>
-      <c r="E477" t="s">
-        <v>1190</v>
+      <c r="E477" s="2" t="s">
+        <v>1197</v>
       </c>
     </row>
     <row r="478" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -23584,11 +23583,11 @@
       <c r="B478" t="s">
         <v>344</v>
       </c>
-      <c r="D478" t="s">
+      <c r="D478" s="2" t="s">
         <v>1154</v>
       </c>
-      <c r="E478" t="s">
-        <v>1190</v>
+      <c r="E478" s="2" t="s">
+        <v>1197</v>
       </c>
     </row>
     <row r="479" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -23598,11 +23597,11 @@
       <c r="B479" t="s">
         <v>453</v>
       </c>
-      <c r="D479" t="s">
+      <c r="D479" s="2" t="s">
         <v>1154</v>
       </c>
-      <c r="E479" t="s">
-        <v>1190</v>
+      <c r="E479" s="2" t="s">
+        <v>1197</v>
       </c>
     </row>
     <row r="480" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -23612,11 +23611,11 @@
       <c r="B480" t="s">
         <v>338</v>
       </c>
-      <c r="D480" t="s">
+      <c r="D480" s="2" t="s">
         <v>1154</v>
       </c>
-      <c r="E480" t="s">
-        <v>1190</v>
+      <c r="E480" s="2" t="s">
+        <v>1197</v>
       </c>
     </row>
     <row r="481" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -23626,11 +23625,11 @@
       <c r="B481" t="s">
         <v>337</v>
       </c>
-      <c r="D481" t="s">
+      <c r="D481" s="2" t="s">
         <v>1154</v>
       </c>
-      <c r="E481" t="s">
-        <v>1190</v>
+      <c r="E481" s="2" t="s">
+        <v>1197</v>
       </c>
     </row>
     <row r="482" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -23640,11 +23639,11 @@
       <c r="B482" t="s">
         <v>279</v>
       </c>
-      <c r="D482" t="s">
+      <c r="D482" s="2" t="s">
         <v>1154</v>
       </c>
-      <c r="E482" t="s">
-        <v>1190</v>
+      <c r="E482" s="2" t="s">
+        <v>1197</v>
       </c>
     </row>
     <row r="483" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -23654,11 +23653,11 @@
       <c r="B483" t="s">
         <v>456</v>
       </c>
-      <c r="D483" t="s">
+      <c r="D483" s="2" t="s">
         <v>1154</v>
       </c>
-      <c r="E483" t="s">
-        <v>1190</v>
+      <c r="E483" s="2" t="s">
+        <v>1197</v>
       </c>
     </row>
     <row r="484" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -23668,11 +23667,11 @@
       <c r="B484" t="s">
         <v>456</v>
       </c>
-      <c r="D484" t="s">
+      <c r="D484" s="2" t="s">
         <v>1154</v>
       </c>
-      <c r="E484" t="s">
-        <v>1190</v>
+      <c r="E484" s="2" t="s">
+        <v>1197</v>
       </c>
     </row>
     <row r="485" spans="1:5" x14ac:dyDescent="0.25">
@@ -23682,11 +23681,11 @@
       <c r="B485" t="s">
         <v>458</v>
       </c>
-      <c r="D485" t="s">
+      <c r="D485" s="2" t="s">
         <v>1154</v>
       </c>
-      <c r="E485" t="s">
-        <v>1190</v>
+      <c r="E485" s="2" t="s">
+        <v>1197</v>
       </c>
     </row>
     <row r="486" spans="1:5" x14ac:dyDescent="0.25">
@@ -23696,11 +23695,11 @@
       <c r="B486" t="s">
         <v>458</v>
       </c>
-      <c r="D486" t="s">
+      <c r="D486" s="2" t="s">
         <v>1154</v>
       </c>
-      <c r="E486" t="s">
-        <v>1190</v>
+      <c r="E486" s="2" t="s">
+        <v>1197</v>
       </c>
     </row>
     <row r="487" spans="1:5" x14ac:dyDescent="0.25">
@@ -23710,11 +23709,11 @@
       <c r="B487" t="s">
         <v>286</v>
       </c>
-      <c r="D487" t="s">
+      <c r="D487" s="2" t="s">
         <v>1154</v>
       </c>
-      <c r="E487" t="s">
-        <v>1190</v>
+      <c r="E487" s="2" t="s">
+        <v>1197</v>
       </c>
     </row>
     <row r="488" spans="1:5" x14ac:dyDescent="0.25">
@@ -23724,11 +23723,11 @@
       <c r="B488" t="s">
         <v>459</v>
       </c>
-      <c r="D488" t="s">
+      <c r="D488" s="2" t="s">
         <v>1154</v>
       </c>
-      <c r="E488" t="s">
-        <v>1190</v>
+      <c r="E488" s="2" t="s">
+        <v>1197</v>
       </c>
     </row>
     <row r="489" spans="1:5" x14ac:dyDescent="0.25">
@@ -23738,11 +23737,11 @@
       <c r="B489" t="s">
         <v>363</v>
       </c>
-      <c r="D489" t="s">
+      <c r="D489" s="2" t="s">
         <v>1154</v>
       </c>
-      <c r="E489" t="s">
-        <v>1190</v>
+      <c r="E489" s="2" t="s">
+        <v>1197</v>
       </c>
     </row>
     <row r="490" spans="1:5" x14ac:dyDescent="0.25">
@@ -23752,11 +23751,11 @@
       <c r="B490" t="s">
         <v>294</v>
       </c>
-      <c r="D490" t="s">
+      <c r="D490" s="2" t="s">
         <v>1154</v>
       </c>
-      <c r="E490" t="s">
-        <v>1190</v>
+      <c r="E490" s="2" t="s">
+        <v>1197</v>
       </c>
     </row>
     <row r="491" spans="1:5" x14ac:dyDescent="0.25">
@@ -23766,11 +23765,11 @@
       <c r="B491" t="s">
         <v>463</v>
       </c>
-      <c r="D491" t="s">
+      <c r="D491" s="2" t="s">
         <v>1154</v>
       </c>
-      <c r="E491" t="s">
-        <v>1190</v>
+      <c r="E491" s="2" t="s">
+        <v>1197</v>
       </c>
     </row>
     <row r="492" spans="1:5" x14ac:dyDescent="0.25">
@@ -23780,11 +23779,11 @@
       <c r="B492" t="s">
         <v>285</v>
       </c>
-      <c r="D492" t="s">
+      <c r="D492" s="2" t="s">
         <v>1154</v>
       </c>
-      <c r="E492" t="s">
-        <v>1190</v>
+      <c r="E492" s="2" t="s">
+        <v>1197</v>
       </c>
     </row>
     <row r="493" spans="1:5" x14ac:dyDescent="0.25">
@@ -23794,11 +23793,11 @@
       <c r="B493" t="s">
         <v>342</v>
       </c>
-      <c r="D493" t="s">
+      <c r="D493" s="2" t="s">
         <v>1154</v>
       </c>
-      <c r="E493" t="s">
-        <v>1190</v>
+      <c r="E493" s="2" t="s">
+        <v>1197</v>
       </c>
     </row>
     <row r="494" spans="1:5" x14ac:dyDescent="0.25">
@@ -23808,11 +23807,11 @@
       <c r="B494" t="s">
         <v>318</v>
       </c>
-      <c r="D494" t="s">
+      <c r="D494" s="2" t="s">
         <v>1154</v>
       </c>
-      <c r="E494" t="s">
-        <v>1190</v>
+      <c r="E494" s="2" t="s">
+        <v>1197</v>
       </c>
     </row>
     <row r="495" spans="1:5" x14ac:dyDescent="0.25">
@@ -23822,11 +23821,11 @@
       <c r="B495" t="s">
         <v>378</v>
       </c>
-      <c r="D495" t="s">
+      <c r="D495" s="2" t="s">
         <v>1154</v>
       </c>
-      <c r="E495" t="s">
-        <v>1190</v>
+      <c r="E495" s="2" t="s">
+        <v>1197</v>
       </c>
     </row>
     <row r="496" spans="1:5" x14ac:dyDescent="0.25">
@@ -23836,11 +23835,11 @@
       <c r="B496" t="s">
         <v>465</v>
       </c>
-      <c r="D496" t="s">
+      <c r="D496" s="2" t="s">
         <v>1154</v>
       </c>
-      <c r="E496" t="s">
-        <v>1190</v>
+      <c r="E496" s="2" t="s">
+        <v>1197</v>
       </c>
     </row>
     <row r="497" spans="1:5" x14ac:dyDescent="0.25">
@@ -23850,11 +23849,11 @@
       <c r="B497" t="s">
         <v>467</v>
       </c>
-      <c r="D497" t="s">
+      <c r="D497" s="2" t="s">
         <v>1154</v>
       </c>
-      <c r="E497" t="s">
-        <v>1190</v>
+      <c r="E497" s="2" t="s">
+        <v>1197</v>
       </c>
     </row>
     <row r="498" spans="1:5" x14ac:dyDescent="0.25">
@@ -23864,11 +23863,11 @@
       <c r="B498" t="s">
         <v>287</v>
       </c>
-      <c r="D498" t="s">
+      <c r="D498" s="2" t="s">
         <v>1154</v>
       </c>
-      <c r="E498" t="s">
-        <v>1190</v>
+      <c r="E498" s="2" t="s">
+        <v>1197</v>
       </c>
     </row>
     <row r="499" spans="1:5" x14ac:dyDescent="0.25">
@@ -23878,11 +23877,11 @@
       <c r="B499" t="s">
         <v>469</v>
       </c>
-      <c r="D499" t="s">
+      <c r="D499" s="2" t="s">
         <v>1154</v>
       </c>
-      <c r="E499" t="s">
-        <v>1190</v>
+      <c r="E499" s="2" t="s">
+        <v>1197</v>
       </c>
     </row>
     <row r="500" spans="1:5" x14ac:dyDescent="0.25">
@@ -23892,11 +23891,11 @@
       <c r="B500" t="s">
         <v>470</v>
       </c>
-      <c r="D500" t="s">
+      <c r="D500" s="2" t="s">
         <v>1154</v>
       </c>
-      <c r="E500" t="s">
-        <v>1190</v>
+      <c r="E500" s="2" t="s">
+        <v>1197</v>
       </c>
     </row>
     <row r="501" spans="1:5" x14ac:dyDescent="0.25">
@@ -23906,11 +23905,11 @@
       <c r="B501" t="s">
         <v>471</v>
       </c>
-      <c r="D501" t="s">
+      <c r="D501" s="2" t="s">
         <v>1154</v>
       </c>
-      <c r="E501" t="s">
-        <v>1190</v>
+      <c r="E501" s="2" t="s">
+        <v>1197</v>
       </c>
     </row>
     <row r="502" spans="1:5" x14ac:dyDescent="0.25">
@@ -23920,11 +23919,11 @@
       <c r="B502" t="s">
         <v>476</v>
       </c>
-      <c r="D502" t="s">
+      <c r="D502" s="2" t="s">
         <v>1154</v>
       </c>
-      <c r="E502" t="s">
-        <v>1190</v>
+      <c r="E502" s="2" t="s">
+        <v>1197</v>
       </c>
     </row>
     <row r="503" spans="1:5" x14ac:dyDescent="0.25">
@@ -23934,11 +23933,11 @@
       <c r="B503" t="s">
         <v>477</v>
       </c>
-      <c r="D503" t="s">
+      <c r="D503" s="2" t="s">
         <v>1154</v>
       </c>
-      <c r="E503" t="s">
-        <v>1190</v>
+      <c r="E503" s="2" t="s">
+        <v>1197</v>
       </c>
     </row>
     <row r="504" spans="1:5" x14ac:dyDescent="0.25">
@@ -23948,11 +23947,11 @@
       <c r="B504" t="s">
         <v>475</v>
       </c>
-      <c r="D504" t="s">
+      <c r="D504" s="2" t="s">
         <v>1154</v>
       </c>
-      <c r="E504" t="s">
-        <v>1190</v>
+      <c r="E504" s="2" t="s">
+        <v>1197</v>
       </c>
     </row>
     <row r="505" spans="1:5" x14ac:dyDescent="0.25">
@@ -23962,11 +23961,11 @@
       <c r="B505" t="s">
         <v>1137</v>
       </c>
-      <c r="D505" t="s">
+      <c r="D505" s="2" t="s">
         <v>1175</v>
       </c>
-      <c r="E505" t="s">
-        <v>1190</v>
+      <c r="E505" s="2" t="s">
+        <v>1197</v>
       </c>
     </row>
     <row r="506" spans="1:5" x14ac:dyDescent="0.25">
@@ -23976,11 +23975,11 @@
       <c r="B506" t="s">
         <v>481</v>
       </c>
-      <c r="D506" t="s">
+      <c r="D506" s="2" t="s">
         <v>1175</v>
       </c>
-      <c r="E506" t="s">
-        <v>1190</v>
+      <c r="E506" s="2" t="s">
+        <v>1197</v>
       </c>
     </row>
     <row r="507" spans="1:5" x14ac:dyDescent="0.25">
@@ -23990,11 +23989,11 @@
       <c r="B507" t="s">
         <v>328</v>
       </c>
-      <c r="D507" t="s">
+      <c r="D507" s="2" t="s">
         <v>1175</v>
       </c>
-      <c r="E507" t="s">
-        <v>1190</v>
+      <c r="E507" s="2" t="s">
+        <v>1197</v>
       </c>
     </row>
     <row r="508" spans="1:5" x14ac:dyDescent="0.25">
@@ -24004,11 +24003,11 @@
       <c r="B508" t="s">
         <v>482</v>
       </c>
-      <c r="D508" t="s">
+      <c r="D508" s="2" t="s">
         <v>1154</v>
       </c>
-      <c r="E508" t="s">
-        <v>1190</v>
+      <c r="E508" s="2" t="s">
+        <v>1197</v>
       </c>
     </row>
     <row r="509" spans="1:5" x14ac:dyDescent="0.25">
@@ -24018,11 +24017,11 @@
       <c r="B509" t="s">
         <v>331</v>
       </c>
-      <c r="D509" t="s">
+      <c r="D509" s="2" t="s">
         <v>1154</v>
       </c>
-      <c r="E509" t="s">
-        <v>1190</v>
+      <c r="E509" s="2" t="s">
+        <v>1197</v>
       </c>
     </row>
     <row r="510" spans="1:5" x14ac:dyDescent="0.25">
@@ -24032,11 +24031,11 @@
       <c r="B510" t="s">
         <v>331</v>
       </c>
-      <c r="D510" t="s">
+      <c r="D510" s="2" t="s">
         <v>1154</v>
       </c>
-      <c r="E510" t="s">
-        <v>1190</v>
+      <c r="E510" s="2" t="s">
+        <v>1197</v>
       </c>
     </row>
     <row r="511" spans="1:5" x14ac:dyDescent="0.25">
@@ -24046,11 +24045,11 @@
       <c r="B511" t="s">
         <v>331</v>
       </c>
-      <c r="D511" t="s">
+      <c r="D511" s="2" t="s">
         <v>1154</v>
       </c>
-      <c r="E511" t="s">
-        <v>1190</v>
+      <c r="E511" s="2" t="s">
+        <v>1197</v>
       </c>
     </row>
     <row r="512" spans="1:5" x14ac:dyDescent="0.25">
@@ -24060,11 +24059,11 @@
       <c r="B512" t="s">
         <v>364</v>
       </c>
-      <c r="D512" t="s">
+      <c r="D512" s="2" t="s">
         <v>1154</v>
       </c>
-      <c r="E512" t="s">
-        <v>1190</v>
+      <c r="E512" s="2" t="s">
+        <v>1197</v>
       </c>
     </row>
     <row r="513" spans="1:5" x14ac:dyDescent="0.25">
@@ -24074,11 +24073,11 @@
       <c r="B513" t="s">
         <v>376</v>
       </c>
-      <c r="D513" t="s">
+      <c r="D513" s="2" t="s">
         <v>1154</v>
       </c>
-      <c r="E513" t="s">
-        <v>1190</v>
+      <c r="E513" s="2" t="s">
+        <v>1197</v>
       </c>
     </row>
     <row r="514" spans="1:5" x14ac:dyDescent="0.25">
@@ -24088,11 +24087,11 @@
       <c r="B514" t="s">
         <v>361</v>
       </c>
-      <c r="D514" t="s">
+      <c r="D514" s="2" t="s">
         <v>1154</v>
       </c>
-      <c r="E514" t="s">
-        <v>1190</v>
+      <c r="E514" s="2" t="s">
+        <v>1197</v>
       </c>
     </row>
     <row r="515" spans="1:5" x14ac:dyDescent="0.25">
@@ -24102,11 +24101,11 @@
       <c r="B515" t="s">
         <v>360</v>
       </c>
-      <c r="D515" t="s">
+      <c r="D515" s="2" t="s">
         <v>1154</v>
       </c>
-      <c r="E515" t="s">
-        <v>1190</v>
+      <c r="E515" s="2" t="s">
+        <v>1197</v>
       </c>
     </row>
     <row r="516" spans="1:5" x14ac:dyDescent="0.25">
@@ -24116,11 +24115,11 @@
       <c r="B516" t="s">
         <v>485</v>
       </c>
-      <c r="D516" t="s">
+      <c r="D516" s="2" t="s">
         <v>1154</v>
       </c>
-      <c r="E516" t="s">
-        <v>1190</v>
+      <c r="E516" s="2" t="s">
+        <v>1197</v>
       </c>
     </row>
     <row r="517" spans="1:5" x14ac:dyDescent="0.25">
@@ -24130,11 +24129,11 @@
       <c r="B517" t="s">
         <v>487</v>
       </c>
-      <c r="D517" t="s">
+      <c r="D517" s="2" t="s">
         <v>1154</v>
       </c>
-      <c r="E517" t="s">
-        <v>1190</v>
+      <c r="E517" s="2" t="s">
+        <v>1197</v>
       </c>
     </row>
     <row r="518" spans="1:5" x14ac:dyDescent="0.25">
@@ -24144,11 +24143,11 @@
       <c r="B518" t="s">
         <v>484</v>
       </c>
-      <c r="D518" t="s">
+      <c r="D518" s="2" t="s">
         <v>1154</v>
       </c>
-      <c r="E518" t="s">
-        <v>1190</v>
+      <c r="E518" s="2" t="s">
+        <v>1197</v>
       </c>
     </row>
     <row r="519" spans="1:5" x14ac:dyDescent="0.25">
@@ -24158,11 +24157,11 @@
       <c r="B519" t="s">
         <v>484</v>
       </c>
-      <c r="D519" t="s">
+      <c r="D519" s="2" t="s">
         <v>1154</v>
       </c>
-      <c r="E519" t="s">
-        <v>1190</v>
+      <c r="E519" s="2" t="s">
+        <v>1197</v>
       </c>
     </row>
     <row r="520" spans="1:5" x14ac:dyDescent="0.25">
@@ -24172,11 +24171,11 @@
       <c r="B520" t="s">
         <v>483</v>
       </c>
-      <c r="D520" t="s">
+      <c r="D520" s="2" t="s">
         <v>1154</v>
       </c>
-      <c r="E520" t="s">
-        <v>1190</v>
+      <c r="E520" s="2" t="s">
+        <v>1197</v>
       </c>
     </row>
     <row r="521" spans="1:5" x14ac:dyDescent="0.25">
@@ -24186,11 +24185,11 @@
       <c r="B521" t="s">
         <v>486</v>
       </c>
-      <c r="D521" t="s">
+      <c r="D521" s="2" t="s">
         <v>1154</v>
       </c>
-      <c r="E521" t="s">
-        <v>1190</v>
+      <c r="E521" s="2" t="s">
+        <v>1197</v>
       </c>
     </row>
     <row r="522" spans="1:5" x14ac:dyDescent="0.25">
@@ -24200,11 +24199,11 @@
       <c r="B522" t="s">
         <v>350</v>
       </c>
-      <c r="D522" t="s">
+      <c r="D522" s="2" t="s">
         <v>1154</v>
       </c>
-      <c r="E522" t="s">
-        <v>1190</v>
+      <c r="E522" s="2" t="s">
+        <v>1197</v>
       </c>
     </row>
     <row r="523" spans="1:5" x14ac:dyDescent="0.25">
@@ -24214,11 +24213,11 @@
       <c r="B523" t="s">
         <v>488</v>
       </c>
-      <c r="D523" t="s">
+      <c r="D523" s="2" t="s">
         <v>1154</v>
       </c>
-      <c r="E523" t="s">
-        <v>1190</v>
+      <c r="E523" s="2" t="s">
+        <v>1197</v>
       </c>
     </row>
     <row r="524" spans="1:5" x14ac:dyDescent="0.25">
@@ -24228,11 +24227,11 @@
       <c r="B524" t="s">
         <v>377</v>
       </c>
-      <c r="D524" t="s">
+      <c r="D524" s="2" t="s">
         <v>1154</v>
       </c>
-      <c r="E524" t="s">
-        <v>1190</v>
+      <c r="E524" s="2" t="s">
+        <v>1197</v>
       </c>
     </row>
     <row r="525" spans="1:5" x14ac:dyDescent="0.25">
@@ -24242,11 +24241,11 @@
       <c r="B525" t="s">
         <v>491</v>
       </c>
-      <c r="D525" t="s">
+      <c r="D525" s="2" t="s">
         <v>1154</v>
       </c>
-      <c r="E525" t="s">
-        <v>1190</v>
+      <c r="E525" s="2" t="s">
+        <v>1197</v>
       </c>
     </row>
     <row r="526" spans="1:5" x14ac:dyDescent="0.25">
@@ -24256,11 +24255,11 @@
       <c r="B526" t="s">
         <v>492</v>
       </c>
-      <c r="D526" t="s">
+      <c r="D526" s="2" t="s">
         <v>1154</v>
       </c>
-      <c r="E526" t="s">
-        <v>1190</v>
+      <c r="E526" s="2" t="s">
+        <v>1197</v>
       </c>
     </row>
     <row r="527" spans="1:5" x14ac:dyDescent="0.25">
@@ -24270,11 +24269,11 @@
       <c r="B527" t="s">
         <v>489</v>
       </c>
-      <c r="D527" t="s">
+      <c r="D527" s="2" t="s">
         <v>1154</v>
       </c>
-      <c r="E527" t="s">
-        <v>1190</v>
+      <c r="E527" s="2" t="s">
+        <v>1197</v>
       </c>
     </row>
     <row r="528" spans="1:5" x14ac:dyDescent="0.25">
@@ -24284,11 +24283,11 @@
       <c r="B528" t="s">
         <v>493</v>
       </c>
-      <c r="D528" t="s">
+      <c r="D528" s="2" t="s">
         <v>1154</v>
       </c>
-      <c r="E528" t="s">
-        <v>1190</v>
+      <c r="E528" s="2" t="s">
+        <v>1197</v>
       </c>
     </row>
     <row r="529" spans="1:5" x14ac:dyDescent="0.25">
@@ -24298,11 +24297,11 @@
       <c r="B529" t="s">
         <v>493</v>
       </c>
-      <c r="D529" t="s">
+      <c r="D529" s="2" t="s">
         <v>1154</v>
       </c>
-      <c r="E529" t="s">
-        <v>1190</v>
+      <c r="E529" s="2" t="s">
+        <v>1197</v>
       </c>
     </row>
     <row r="530" spans="1:5" x14ac:dyDescent="0.25">
@@ -24312,11 +24311,11 @@
       <c r="B530" t="s">
         <v>528</v>
       </c>
-      <c r="D530" t="s">
+      <c r="D530" s="2" t="s">
         <v>1154</v>
       </c>
-      <c r="E530" t="s">
-        <v>1190</v>
+      <c r="E530" s="2" t="s">
+        <v>1197</v>
       </c>
     </row>
     <row r="531" spans="1:5" x14ac:dyDescent="0.25">
@@ -24326,11 +24325,11 @@
       <c r="B531" t="s">
         <v>381</v>
       </c>
-      <c r="D531" t="s">
+      <c r="D531" s="2" t="s">
         <v>1154</v>
       </c>
-      <c r="E531" t="s">
-        <v>1190</v>
+      <c r="E531" s="2" t="s">
+        <v>1197</v>
       </c>
     </row>
     <row r="532" spans="1:5" x14ac:dyDescent="0.25">
@@ -24340,11 +24339,11 @@
       <c r="B532" t="s">
         <v>314</v>
       </c>
-      <c r="D532" t="s">
+      <c r="D532" s="2" t="s">
         <v>1154</v>
       </c>
-      <c r="E532" t="s">
-        <v>1190</v>
+      <c r="E532" s="2" t="s">
+        <v>1197</v>
       </c>
     </row>
     <row r="533" spans="1:5" x14ac:dyDescent="0.25">
@@ -24354,11 +24353,11 @@
       <c r="B533" t="s">
         <v>445</v>
       </c>
-      <c r="D533" t="s">
+      <c r="D533" s="2" t="s">
         <v>1154</v>
       </c>
-      <c r="E533" t="s">
-        <v>1190</v>
+      <c r="E533" s="2" t="s">
+        <v>1197</v>
       </c>
     </row>
     <row r="534" spans="1:5" x14ac:dyDescent="0.25">
@@ -24368,11 +24367,11 @@
       <c r="B534" t="s">
         <v>497</v>
       </c>
-      <c r="D534" t="s">
+      <c r="D534" s="2" t="s">
         <v>1154</v>
       </c>
-      <c r="E534" t="s">
-        <v>1190</v>
+      <c r="E534" s="2" t="s">
+        <v>1197</v>
       </c>
     </row>
     <row r="535" spans="1:5" x14ac:dyDescent="0.25">
@@ -24382,11 +24381,11 @@
       <c r="B535" t="s">
         <v>498</v>
       </c>
-      <c r="D535" t="s">
+      <c r="D535" s="2" t="s">
         <v>1154</v>
       </c>
-      <c r="E535" t="s">
-        <v>1190</v>
+      <c r="E535" s="2" t="s">
+        <v>1197</v>
       </c>
     </row>
     <row r="536" spans="1:5" x14ac:dyDescent="0.25">
@@ -24396,11 +24395,11 @@
       <c r="B536" t="s">
         <v>499</v>
       </c>
-      <c r="D536" t="s">
+      <c r="D536" s="2" t="s">
         <v>1154</v>
       </c>
-      <c r="E536" t="s">
-        <v>1190</v>
+      <c r="E536" s="2" t="s">
+        <v>1197</v>
       </c>
     </row>
     <row r="537" spans="1:5" x14ac:dyDescent="0.25">
@@ -24410,11 +24409,11 @@
       <c r="B537" t="s">
         <v>383</v>
       </c>
-      <c r="D537" t="s">
+      <c r="D537" s="2" t="s">
         <v>1154</v>
       </c>
-      <c r="E537" t="s">
-        <v>1190</v>
+      <c r="E537" s="2" t="s">
+        <v>1197</v>
       </c>
     </row>
     <row r="538" spans="1:5" x14ac:dyDescent="0.25">
@@ -24424,11 +24423,11 @@
       <c r="B538" t="s">
         <v>383</v>
       </c>
-      <c r="D538" t="s">
+      <c r="D538" s="2" t="s">
         <v>1154</v>
       </c>
-      <c r="E538" t="s">
-        <v>1190</v>
+      <c r="E538" s="2" t="s">
+        <v>1197</v>
       </c>
     </row>
     <row r="539" spans="1:5" x14ac:dyDescent="0.25">
@@ -24438,11 +24437,11 @@
       <c r="B539" t="s">
         <v>295</v>
       </c>
-      <c r="D539" t="s">
+      <c r="D539" s="2" t="s">
         <v>1154</v>
       </c>
-      <c r="E539" t="s">
-        <v>1190</v>
+      <c r="E539" s="2" t="s">
+        <v>1197</v>
       </c>
     </row>
     <row r="540" spans="1:5" x14ac:dyDescent="0.25">
@@ -24452,11 +24451,11 @@
       <c r="B540" t="s">
         <v>295</v>
       </c>
-      <c r="D540" t="s">
+      <c r="D540" s="2" t="s">
         <v>1154</v>
       </c>
-      <c r="E540" t="s">
-        <v>1190</v>
+      <c r="E540" s="2" t="s">
+        <v>1197</v>
       </c>
     </row>
     <row r="541" spans="1:5" x14ac:dyDescent="0.25">
@@ -24466,11 +24465,11 @@
       <c r="B541" t="s">
         <v>1138</v>
       </c>
-      <c r="D541" t="s">
+      <c r="D541" s="2" t="s">
         <v>1154</v>
       </c>
-      <c r="E541" t="s">
-        <v>1190</v>
+      <c r="E541" s="2" t="s">
+        <v>1197</v>
       </c>
     </row>
     <row r="542" spans="1:5" x14ac:dyDescent="0.25">
@@ -24480,11 +24479,11 @@
       <c r="B542" t="s">
         <v>309</v>
       </c>
-      <c r="D542" t="s">
+      <c r="D542" s="2" t="s">
         <v>1154</v>
       </c>
-      <c r="E542" t="s">
-        <v>1190</v>
+      <c r="E542" s="2" t="s">
+        <v>1197</v>
       </c>
     </row>
     <row r="543" spans="1:5" x14ac:dyDescent="0.25">
@@ -24494,11 +24493,11 @@
       <c r="B543" t="s">
         <v>284</v>
       </c>
-      <c r="D543" t="s">
+      <c r="D543" s="2" t="s">
         <v>1154</v>
       </c>
-      <c r="E543" t="s">
-        <v>1190</v>
+      <c r="E543" s="2" t="s">
+        <v>1197</v>
       </c>
     </row>
     <row r="544" spans="1:5" x14ac:dyDescent="0.25">
@@ -24508,11 +24507,11 @@
       <c r="B544" t="s">
         <v>500</v>
       </c>
-      <c r="D544" t="s">
+      <c r="D544" s="2" t="s">
         <v>1154</v>
       </c>
-      <c r="E544" t="s">
-        <v>1190</v>
+      <c r="E544" s="2" t="s">
+        <v>1197</v>
       </c>
     </row>
     <row r="545" spans="1:5" x14ac:dyDescent="0.25">
@@ -24522,11 +24521,11 @@
       <c r="B545" t="s">
         <v>500</v>
       </c>
-      <c r="D545" t="s">
+      <c r="D545" s="2" t="s">
         <v>1154</v>
       </c>
-      <c r="E545" t="s">
-        <v>1190</v>
+      <c r="E545" s="2" t="s">
+        <v>1197</v>
       </c>
     </row>
     <row r="546" spans="1:5" x14ac:dyDescent="0.25">
@@ -24536,11 +24535,11 @@
       <c r="B546" t="s">
         <v>1140</v>
       </c>
-      <c r="D546" t="s">
+      <c r="D546" s="2" t="s">
         <v>1157</v>
       </c>
-      <c r="E546" t="s">
-        <v>1194</v>
+      <c r="E546" s="2" t="s">
+        <v>1198</v>
       </c>
     </row>
     <row r="547" spans="1:5" x14ac:dyDescent="0.25">
@@ -24553,11 +24552,11 @@
       <c r="C547" t="s">
         <v>1046</v>
       </c>
-      <c r="D547" t="s">
+      <c r="D547" s="2" t="s">
         <v>1157</v>
       </c>
-      <c r="E547" t="s">
-        <v>1194</v>
+      <c r="E547" s="2" t="s">
+        <v>1198</v>
       </c>
     </row>
     <row r="548" spans="1:5" x14ac:dyDescent="0.25">
@@ -24570,11 +24569,11 @@
       <c r="C548" t="s">
         <v>1046</v>
       </c>
-      <c r="D548" t="s">
+      <c r="D548" s="2" t="s">
         <v>1157</v>
       </c>
-      <c r="E548" t="s">
-        <v>1194</v>
+      <c r="E548" s="2" t="s">
+        <v>1198</v>
       </c>
     </row>
     <row r="549" spans="1:5" x14ac:dyDescent="0.25">
@@ -24584,11 +24583,11 @@
       <c r="B549" t="s">
         <v>291</v>
       </c>
-      <c r="D549" t="s">
+      <c r="D549" s="2" t="s">
         <v>1157</v>
       </c>
-      <c r="E549" t="s">
-        <v>1194</v>
+      <c r="E549" s="2" t="s">
+        <v>1198</v>
       </c>
     </row>
     <row r="550" spans="1:5" x14ac:dyDescent="0.25">
@@ -24598,11 +24597,11 @@
       <c r="B550" t="s">
         <v>382</v>
       </c>
-      <c r="D550" t="s">
+      <c r="D550" s="2" t="s">
         <v>1157</v>
       </c>
-      <c r="E550" t="s">
-        <v>1194</v>
+      <c r="E550" s="2" t="s">
+        <v>1198</v>
       </c>
     </row>
     <row r="551" spans="1:5" x14ac:dyDescent="0.25">
@@ -24612,11 +24611,11 @@
       <c r="B551" t="s">
         <v>505</v>
       </c>
-      <c r="D551" t="s">
+      <c r="D551" s="2" t="s">
         <v>1157</v>
       </c>
-      <c r="E551" t="s">
-        <v>1194</v>
+      <c r="E551" s="2" t="s">
+        <v>1198</v>
       </c>
     </row>
     <row r="552" spans="1:5" x14ac:dyDescent="0.25">
@@ -24629,11 +24628,11 @@
       <c r="C552" t="s">
         <v>1046</v>
       </c>
-      <c r="D552" t="s">
+      <c r="D552" s="2" t="s">
         <v>1157</v>
       </c>
-      <c r="E552" t="s">
-        <v>1194</v>
+      <c r="E552" s="2" t="s">
+        <v>1198</v>
       </c>
     </row>
     <row r="553" spans="1:5" x14ac:dyDescent="0.25">
@@ -24646,11 +24645,11 @@
       <c r="C553" t="s">
         <v>1046</v>
       </c>
-      <c r="D553" t="s">
+      <c r="D553" s="2" t="s">
         <v>1157</v>
       </c>
-      <c r="E553" t="s">
-        <v>1194</v>
+      <c r="E553" s="2" t="s">
+        <v>1198</v>
       </c>
     </row>
     <row r="554" spans="1:5" x14ac:dyDescent="0.25">
@@ -24663,11 +24662,11 @@
       <c r="C554" t="s">
         <v>1046</v>
       </c>
-      <c r="D554" t="s">
+      <c r="D554" s="2" t="s">
         <v>1157</v>
       </c>
-      <c r="E554" t="s">
-        <v>1194</v>
+      <c r="E554" s="2" t="s">
+        <v>1198</v>
       </c>
     </row>
     <row r="555" spans="1:5" x14ac:dyDescent="0.25">
@@ -24680,6 +24679,12 @@
       <c r="C555" t="s">
         <v>384</v>
       </c>
+      <c r="D555" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E555" s="2" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="556" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
@@ -24688,6 +24693,12 @@
       <c r="B556" t="s">
         <v>42</v>
       </c>
+      <c r="D556" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E556" s="2" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="557" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
@@ -24699,6 +24710,12 @@
       <c r="C557" t="s">
         <v>1047</v>
       </c>
+      <c r="D557" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E557" s="2" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="558" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
@@ -24710,6 +24727,12 @@
       <c r="C558" t="s">
         <v>1048</v>
       </c>
+      <c r="D558" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E558" s="2" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="559" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
@@ -24721,10 +24744,16 @@
       <c r="C559" t="s">
         <v>1003</v>
       </c>
+      <c r="D559" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E559" s="2" t="s">
+        <v>214</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E559">
-    <sortCondition ref="E2:E559"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F559">
+    <sortCondition ref="F2:F559"/>
     <sortCondition ref="B2:B559"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -25327,7 +25356,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C09B363B-C6B2-4D65-B886-87592E9EEAD6}">
   <dimension ref="A1:C71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A52" workbookViewId="0">
       <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>

--- a/data/Data_extraction_postcrosschecking.xlsx
+++ b/data/Data_extraction_postcrosschecking.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unsw-my.sharepoint.com/personal/z3439723_ad_unsw_edu_au/Documents/Overview of reviews_trans environment effects/Analysis/Nongen_map_of_reviews/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="697" documentId="8_{5C8DE252-67D3-437E-999F-0322730C74C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A1EB7C98-476F-4F69-9BFA-BB14476A3C3E}"/>
+  <xr:revisionPtr revIDLastSave="698" documentId="8_{5C8DE252-67D3-437E-999F-0322730C74C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{35E3DC32-0B8F-4C0F-B6C3-F687EB6E0D93}"/>
   <bookViews>
-    <workbookView xWindow="-29850" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{E4D07577-1050-462D-A7B0-049CD472D6CE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E4D07577-1050-462D-A7B0-049CD472D6CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Publication_info" sheetId="1" r:id="rId1"/>
@@ -4105,11 +4105,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5B06098-F9D7-4E2C-96DC-A163CE4FD1C7}">
   <dimension ref="A1:M60"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B42" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B55" sqref="B55"/>
+      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4162,34 +4162,34 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1073</v>
+        <v>1065</v>
       </c>
       <c r="B2" t="s">
-        <v>94</v>
+        <v>48</v>
       </c>
       <c r="C2">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="D2" t="s">
-        <v>95</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G2" t="s">
-        <v>96</v>
+        <v>50</v>
       </c>
       <c r="H2" t="s">
-        <v>55</v>
+        <v>17</v>
+      </c>
+      <c r="I2" t="s">
+        <v>51</v>
       </c>
       <c r="J2">
-        <v>4</v>
-      </c>
-      <c r="L2" t="s">
-        <v>42</v>
-      </c>
-      <c r="M2" t="s">
-        <v>97</v>
+        <v>151</v>
+      </c>
+      <c r="L2">
+        <v>770</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -4229,63 +4229,63 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1133</v>
+        <v>1067</v>
       </c>
       <c r="B4" t="s">
-        <v>1056</v>
+        <v>58</v>
       </c>
       <c r="C4">
-        <v>2011</v>
+        <v>2017</v>
       </c>
       <c r="D4" t="s">
-        <v>186</v>
+        <v>30</v>
       </c>
       <c r="E4" t="s">
-        <v>53</v>
+        <v>15</v>
+      </c>
+      <c r="G4" t="s">
+        <v>59</v>
       </c>
       <c r="H4" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="J4">
-        <v>3</v>
+        <v>171</v>
       </c>
       <c r="L4" t="s">
         <v>42</v>
       </c>
       <c r="M4" t="s">
-        <v>97</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="B5" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C5">
-        <v>2012</v>
+        <v>2016</v>
       </c>
       <c r="D5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E5" t="s">
         <v>53</v>
       </c>
       <c r="G5" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H5" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="I5" t="s">
-        <v>70</v>
-      </c>
-      <c r="J5" t="s">
-        <v>42</v>
-      </c>
-      <c r="K5" t="s">
-        <v>71</v>
+        <v>65</v>
+      </c>
+      <c r="J5">
+        <v>13</v>
       </c>
       <c r="L5" t="s">
         <v>42</v>
@@ -4296,217 +4296,253 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1084</v>
+        <v>1069</v>
       </c>
       <c r="B6" t="s">
-        <v>135</v>
+        <v>66</v>
       </c>
       <c r="C6">
         <v>2012</v>
       </c>
       <c r="D6" t="s">
-        <v>136</v>
+        <v>67</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="G6" t="s">
-        <v>137</v>
+        <v>68</v>
       </c>
       <c r="H6" t="s">
-        <v>75</v>
-      </c>
-      <c r="J6">
-        <v>49</v>
+        <v>69</v>
+      </c>
+      <c r="I6" t="s">
+        <v>70</v>
+      </c>
+      <c r="J6" t="s">
+        <v>42</v>
+      </c>
+      <c r="K6" t="s">
+        <v>71</v>
       </c>
       <c r="L6" t="s">
         <v>42</v>
       </c>
       <c r="M6" t="s">
-        <v>138</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1134</v>
+        <v>1129</v>
       </c>
       <c r="B7" t="s">
-        <v>187</v>
+        <v>77</v>
       </c>
       <c r="C7">
-        <v>2012</v>
+        <v>2017</v>
       </c>
       <c r="D7" t="s">
-        <v>188</v>
+        <v>78</v>
       </c>
       <c r="E7" t="s">
-        <v>15</v>
+        <v>53</v>
+      </c>
+      <c r="F7" t="s">
+        <v>79</v>
       </c>
       <c r="H7" t="s">
-        <v>75</v>
+        <v>25</v>
+      </c>
+      <c r="I7" t="s">
+        <v>80</v>
       </c>
       <c r="J7">
-        <v>101</v>
+        <v>35</v>
+      </c>
+      <c r="K7" t="s">
+        <v>81</v>
       </c>
       <c r="L7" t="s">
         <v>42</v>
       </c>
       <c r="M7" t="s">
-        <v>189</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="B8" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="C8">
-        <v>2012</v>
+        <v>2016</v>
       </c>
       <c r="D8" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="E8" t="s">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="G8" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="H8" t="s">
-        <v>75</v>
+        <v>60</v>
+      </c>
+      <c r="I8" t="s">
+        <v>86</v>
       </c>
       <c r="J8">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="K8" t="s">
-        <v>76</v>
-      </c>
-      <c r="L8" t="s">
-        <v>42</v>
+        <v>87</v>
+      </c>
+      <c r="L8">
+        <v>127</v>
       </c>
       <c r="M8" t="s">
-        <v>57</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>1111</v>
+        <v>1059</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>1135</v>
       </c>
       <c r="C9">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="D9" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E9" t="s">
         <v>15</v>
       </c>
       <c r="G9" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="H9" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="I9" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="J9">
-        <v>58</v>
+        <v>46</v>
+      </c>
+      <c r="K9" t="s">
+        <v>27</v>
       </c>
       <c r="L9">
-        <v>664</v>
+        <v>390</v>
       </c>
       <c r="M9" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>1060</v>
+        <v>1072</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>89</v>
       </c>
       <c r="C10">
-        <v>2014</v>
+        <v>2018</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="E10" t="s">
         <v>15</v>
       </c>
       <c r="G10" t="s">
-        <v>31</v>
+        <v>68</v>
       </c>
       <c r="H10" t="s">
-        <v>20</v>
+        <v>17</v>
+      </c>
+      <c r="I10" t="s">
+        <v>91</v>
       </c>
       <c r="J10">
-        <v>35</v>
-      </c>
-      <c r="L10">
-        <v>89</v>
+        <v>41</v>
+      </c>
+      <c r="K10" t="s">
+        <v>92</v>
+      </c>
+      <c r="L10" t="s">
+        <v>42</v>
+      </c>
+      <c r="M10" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>1061</v>
+        <v>1073</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>94</v>
       </c>
       <c r="C11">
-        <v>2015</v>
+        <v>2010</v>
       </c>
       <c r="D11" t="s">
-        <v>33</v>
+        <v>95</v>
       </c>
       <c r="E11" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="G11" t="s">
-        <v>34</v>
+        <v>96</v>
       </c>
       <c r="H11" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="J11">
-        <v>53</v>
-      </c>
-      <c r="L11">
-        <v>116</v>
+        <v>4</v>
+      </c>
+      <c r="L11" t="s">
+        <v>42</v>
+      </c>
+      <c r="M11" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>1110</v>
+        <v>1074</v>
       </c>
       <c r="B12" t="s">
-        <v>220</v>
+        <v>98</v>
       </c>
       <c r="C12">
-        <v>2015</v>
+        <v>2019</v>
       </c>
       <c r="D12" t="s">
-        <v>221</v>
+        <v>99</v>
       </c>
       <c r="E12" t="s">
         <v>53</v>
       </c>
+      <c r="G12" t="s">
+        <v>100</v>
+      </c>
       <c r="H12" t="s">
-        <v>75</v>
-      </c>
-      <c r="J12" t="s">
-        <v>42</v>
-      </c>
-      <c r="K12" t="s">
-        <v>222</v>
+        <v>101</v>
+      </c>
+      <c r="I12" t="s">
+        <v>102</v>
+      </c>
+      <c r="J12">
+        <v>36</v>
       </c>
       <c r="L12" t="s">
         <v>42</v>
@@ -4517,384 +4553,384 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>1068</v>
+        <v>1075</v>
       </c>
       <c r="B13" t="s">
-        <v>62</v>
+        <v>103</v>
       </c>
       <c r="C13">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="D13" t="s">
-        <v>63</v>
+        <v>104</v>
       </c>
       <c r="E13" t="s">
         <v>53</v>
       </c>
       <c r="G13" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="H13" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="I13" t="s">
-        <v>65</v>
+        <v>105</v>
       </c>
       <c r="J13">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="L13" t="s">
         <v>42</v>
       </c>
       <c r="M13" t="s">
-        <v>57</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>1071</v>
+        <v>1076</v>
       </c>
       <c r="B14" t="s">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="C14">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D14" t="s">
-        <v>84</v>
+        <v>107</v>
       </c>
       <c r="E14" t="s">
         <v>15</v>
       </c>
       <c r="G14" t="s">
-        <v>85</v>
+        <v>108</v>
       </c>
       <c r="H14" t="s">
         <v>60</v>
       </c>
       <c r="I14" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="J14">
-        <v>21</v>
-      </c>
-      <c r="K14" t="s">
-        <v>87</v>
+        <v>39</v>
       </c>
       <c r="L14">
-        <v>127</v>
-      </c>
-      <c r="M14" t="s">
-        <v>88</v>
+        <v>205</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>1059</v>
+        <v>1077</v>
       </c>
       <c r="B15" t="s">
-        <v>1135</v>
+        <v>110</v>
       </c>
       <c r="C15">
-        <v>2016</v>
+        <v>2021</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>111</v>
       </c>
       <c r="E15" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="G15" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="H15" t="s">
-        <v>25</v>
-      </c>
-      <c r="I15" t="s">
-        <v>26</v>
+        <v>112</v>
       </c>
       <c r="J15">
-        <v>46</v>
+        <v>340</v>
       </c>
       <c r="K15" t="s">
-        <v>27</v>
-      </c>
-      <c r="L15">
-        <v>390</v>
+        <v>113</v>
+      </c>
+      <c r="L15" t="s">
+        <v>42</v>
       </c>
       <c r="M15" t="s">
-        <v>28</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>1086</v>
+        <v>1078</v>
       </c>
       <c r="B16" t="s">
-        <v>147</v>
+        <v>114</v>
       </c>
       <c r="C16">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D16" t="s">
-        <v>33</v>
+        <v>115</v>
       </c>
       <c r="E16" t="s">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="G16" t="s">
-        <v>54</v>
+        <v>116</v>
       </c>
       <c r="H16" t="s">
-        <v>35</v>
+        <v>60</v>
+      </c>
+      <c r="I16" t="s">
+        <v>117</v>
       </c>
       <c r="J16">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="K16" t="s">
-        <v>148</v>
+        <v>118</v>
       </c>
       <c r="L16" t="s">
         <v>42</v>
       </c>
       <c r="M16" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>1099</v>
+        <v>1079</v>
       </c>
       <c r="B17" t="s">
-        <v>1057</v>
+        <v>120</v>
       </c>
       <c r="C17">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="D17" t="s">
-        <v>190</v>
+        <v>73</v>
       </c>
       <c r="E17" t="s">
-        <v>53</v>
+        <v>15</v>
+      </c>
+      <c r="G17" t="s">
+        <v>121</v>
       </c>
       <c r="H17" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="J17">
-        <v>26</v>
-      </c>
-      <c r="K17" t="s">
-        <v>191</v>
-      </c>
-      <c r="L17" t="s">
-        <v>42</v>
+        <v>173</v>
+      </c>
+      <c r="L17">
+        <v>195</v>
       </c>
       <c r="M17" t="s">
-        <v>97</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>1101</v>
+        <v>1080</v>
       </c>
       <c r="B18" t="s">
-        <v>193</v>
+        <v>123</v>
       </c>
       <c r="C18">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="D18" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="E18" t="s">
-        <v>15</v>
+        <v>53</v>
+      </c>
+      <c r="G18" t="s">
+        <v>100</v>
       </c>
       <c r="H18" t="s">
-        <v>60</v>
+        <v>17</v>
+      </c>
+      <c r="I18" t="s">
+        <v>124</v>
       </c>
       <c r="J18">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="K18" t="s">
-        <v>194</v>
-      </c>
-      <c r="L18">
-        <v>170</v>
+        <v>125</v>
+      </c>
+      <c r="L18" t="s">
+        <v>42</v>
       </c>
       <c r="M18" t="s">
-        <v>194</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>1067</v>
+        <v>1109</v>
       </c>
       <c r="B19" t="s">
-        <v>58</v>
+        <v>218</v>
       </c>
       <c r="C19">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="D19" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E19" t="s">
-        <v>15</v>
-      </c>
-      <c r="G19" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="H19" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="J19">
-        <v>171</v>
+        <v>19</v>
+      </c>
+      <c r="K19" t="s">
+        <v>219</v>
       </c>
       <c r="L19" t="s">
         <v>42</v>
       </c>
       <c r="M19" t="s">
-        <v>61</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>1129</v>
+        <v>1063</v>
       </c>
       <c r="B20" t="s">
-        <v>77</v>
+        <v>36</v>
       </c>
       <c r="C20">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D20" t="s">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="E20" t="s">
-        <v>53</v>
-      </c>
-      <c r="F20" t="s">
-        <v>79</v>
+        <v>38</v>
+      </c>
+      <c r="G20" t="s">
+        <v>39</v>
       </c>
       <c r="H20" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="I20" t="s">
-        <v>80</v>
+        <v>26</v>
       </c>
       <c r="J20">
-        <v>35</v>
+        <v>211</v>
       </c>
       <c r="K20" t="s">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="L20" t="s">
         <v>42</v>
       </c>
-      <c r="M20" t="s">
-        <v>82</v>
-      </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>1076</v>
+        <v>1081</v>
       </c>
       <c r="B21" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="C21">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D21" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="E21" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="G21" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="H21" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="I21" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="J21">
-        <v>39</v>
-      </c>
-      <c r="L21">
-        <v>205</v>
+        <v>17</v>
+      </c>
+      <c r="L21" t="s">
+        <v>42</v>
+      </c>
+      <c r="M21" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>1078</v>
+        <v>1108</v>
       </c>
       <c r="B22" t="s">
-        <v>114</v>
+        <v>215</v>
       </c>
       <c r="C22">
         <v>2017</v>
       </c>
       <c r="D22" t="s">
-        <v>115</v>
+        <v>216</v>
       </c>
       <c r="E22" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="G22" t="s">
-        <v>116</v>
+        <v>217</v>
       </c>
       <c r="H22" t="s">
         <v>60</v>
       </c>
-      <c r="I22" t="s">
-        <v>117</v>
-      </c>
       <c r="J22">
-        <v>12</v>
-      </c>
-      <c r="K22" t="s">
-        <v>118</v>
+        <v>21</v>
       </c>
       <c r="L22" t="s">
         <v>42</v>
       </c>
       <c r="M22" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>1108</v>
+        <v>1082</v>
       </c>
       <c r="B23" t="s">
-        <v>215</v>
+        <v>130</v>
       </c>
       <c r="C23">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D23" t="s">
-        <v>216</v>
+        <v>131</v>
       </c>
       <c r="E23" t="s">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="G23" t="s">
-        <v>217</v>
+        <v>108</v>
       </c>
       <c r="H23" t="s">
-        <v>60</v>
+        <v>40</v>
+      </c>
+      <c r="I23" t="s">
+        <v>132</v>
       </c>
       <c r="J23">
-        <v>21</v>
-      </c>
-      <c r="L23" t="s">
-        <v>42</v>
+        <v>29</v>
+      </c>
+      <c r="K23" t="s">
+        <v>133</v>
+      </c>
+      <c r="L23">
+        <v>97</v>
       </c>
       <c r="M23" t="s">
-        <v>97</v>
+        <v>134</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
@@ -4931,200 +4967,200 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>1087</v>
+        <v>1084</v>
       </c>
       <c r="B25" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="C25">
-        <v>2017</v>
+        <v>2012</v>
       </c>
       <c r="D25" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="E25" t="s">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="G25" t="s">
-        <v>42</v>
+        <v>137</v>
       </c>
       <c r="H25" t="s">
-        <v>60</v>
-      </c>
-      <c r="I25" t="s">
-        <v>151</v>
+        <v>75</v>
       </c>
       <c r="J25">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="L25" t="s">
         <v>42</v>
       </c>
       <c r="M25" t="s">
-        <v>97</v>
+        <v>138</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>1094</v>
+        <v>1061</v>
       </c>
       <c r="B26" t="s">
-        <v>171</v>
+        <v>32</v>
       </c>
       <c r="C26">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="D26" t="s">
-        <v>172</v>
+        <v>33</v>
       </c>
       <c r="E26" t="s">
         <v>15</v>
       </c>
+      <c r="G26" t="s">
+        <v>34</v>
+      </c>
       <c r="H26" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="J26">
-        <v>388</v>
-      </c>
-      <c r="K26" t="s">
-        <v>173</v>
+        <v>53</v>
       </c>
       <c r="L26">
-        <v>1125</v>
+        <v>116</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>1098</v>
+        <v>1130</v>
       </c>
       <c r="B27" t="s">
-        <v>185</v>
+        <v>139</v>
       </c>
       <c r="C27">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="D27" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="E27" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="G27" t="s">
-        <v>54</v>
+        <v>141</v>
       </c>
       <c r="H27" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I27" t="s">
-        <v>168</v>
+        <v>142</v>
       </c>
       <c r="J27">
-        <v>68</v>
-      </c>
-      <c r="L27">
-        <v>362</v>
+        <v>472</v>
+      </c>
+      <c r="K27" t="s">
+        <v>143</v>
+      </c>
+      <c r="L27" t="s">
+        <v>42</v>
+      </c>
+      <c r="M27" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>1072</v>
+        <v>1085</v>
       </c>
       <c r="B28" t="s">
-        <v>89</v>
+        <v>144</v>
       </c>
       <c r="C28">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="D28" t="s">
-        <v>90</v>
+        <v>145</v>
       </c>
       <c r="E28" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="G28" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="H28" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="I28" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="J28">
-        <v>41</v>
-      </c>
-      <c r="K28" t="s">
-        <v>92</v>
+        <v>16</v>
       </c>
       <c r="L28" t="s">
         <v>42</v>
       </c>
       <c r="M28" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>1063</v>
+        <v>1086</v>
       </c>
       <c r="B29" t="s">
-        <v>36</v>
+        <v>147</v>
       </c>
       <c r="C29">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="D29" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E29" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="G29" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="H29" t="s">
-        <v>40</v>
-      </c>
-      <c r="I29" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="J29">
-        <v>211</v>
+        <v>9</v>
       </c>
       <c r="K29" t="s">
-        <v>41</v>
+        <v>148</v>
       </c>
       <c r="L29" t="s">
         <v>42</v>
       </c>
+      <c r="M29" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>1081</v>
+        <v>1087</v>
       </c>
       <c r="B30" t="s">
-        <v>126</v>
+        <v>149</v>
       </c>
       <c r="C30">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D30" t="s">
-        <v>127</v>
+        <v>150</v>
       </c>
       <c r="E30" t="s">
         <v>53</v>
       </c>
       <c r="G30" t="s">
-        <v>128</v>
+        <v>42</v>
       </c>
       <c r="H30" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="I30" t="s">
-        <v>129</v>
+        <v>151</v>
       </c>
       <c r="J30">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="L30" t="s">
         <v>42</v>
@@ -5135,235 +5171,232 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>1082</v>
+        <v>1088</v>
       </c>
       <c r="B31" t="s">
-        <v>130</v>
+        <v>152</v>
       </c>
       <c r="C31">
         <v>2018</v>
       </c>
       <c r="D31" t="s">
-        <v>131</v>
+        <v>30</v>
       </c>
       <c r="E31" t="s">
         <v>15</v>
       </c>
       <c r="G31" t="s">
-        <v>108</v>
+        <v>153</v>
       </c>
       <c r="H31" t="s">
-        <v>40</v>
+        <v>101</v>
       </c>
       <c r="I31" t="s">
-        <v>132</v>
+        <v>154</v>
       </c>
       <c r="J31">
-        <v>29</v>
-      </c>
-      <c r="K31" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="L31">
-        <v>97</v>
-      </c>
-      <c r="M31" t="s">
-        <v>134</v>
+        <v>474</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="B32" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C32">
         <v>2018</v>
       </c>
       <c r="D32" t="s">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="E32" t="s">
         <v>15</v>
       </c>
       <c r="G32" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="H32" t="s">
-        <v>101</v>
+        <v>35</v>
       </c>
       <c r="I32" t="s">
         <v>154</v>
       </c>
       <c r="J32">
-        <v>145</v>
+        <v>76</v>
       </c>
       <c r="L32">
-        <v>474</v>
+        <v>157</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>1089</v>
+        <v>1107</v>
       </c>
       <c r="B33" t="s">
-        <v>155</v>
+        <v>212</v>
       </c>
       <c r="C33">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="D33" t="s">
-        <v>73</v>
+        <v>174</v>
       </c>
       <c r="E33" t="s">
         <v>15</v>
       </c>
-      <c r="G33" t="s">
-        <v>156</v>
-      </c>
       <c r="H33" t="s">
-        <v>35</v>
-      </c>
-      <c r="I33" t="s">
-        <v>154</v>
+        <v>45</v>
       </c>
       <c r="J33">
-        <v>76</v>
-      </c>
-      <c r="L33">
-        <v>157</v>
+        <v>15</v>
+      </c>
+      <c r="K33" t="s">
+        <v>213</v>
+      </c>
+      <c r="L33" t="s">
+        <v>42</v>
+      </c>
+      <c r="M33" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="B34" t="s">
-        <v>1058</v>
+        <v>1136</v>
       </c>
       <c r="C34">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="D34" t="s">
-        <v>37</v>
+        <v>157</v>
       </c>
       <c r="E34" t="s">
         <v>15</v>
       </c>
       <c r="G34" t="s">
-        <v>34</v>
+        <v>158</v>
       </c>
       <c r="H34" t="s">
-        <v>17</v>
-      </c>
-      <c r="I34" t="s">
-        <v>168</v>
+        <v>45</v>
       </c>
       <c r="J34">
-        <v>29</v>
-      </c>
-      <c r="K34" t="s">
-        <v>169</v>
+        <v>24</v>
       </c>
       <c r="L34">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="M34" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>1097</v>
+        <v>1131</v>
       </c>
       <c r="B35" t="s">
-        <v>181</v>
+        <v>207</v>
       </c>
       <c r="C35">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="D35" t="s">
-        <v>182</v>
+        <v>208</v>
       </c>
       <c r="E35" t="s">
-        <v>15</v>
+        <v>53</v>
+      </c>
+      <c r="F35" t="s">
+        <v>209</v>
       </c>
       <c r="H35" t="s">
-        <v>40</v>
+        <v>112</v>
       </c>
       <c r="J35">
-        <v>19</v>
+        <v>77</v>
       </c>
       <c r="K35" t="s">
-        <v>183</v>
-      </c>
-      <c r="L35" t="s">
-        <v>42</v>
+        <v>210</v>
+      </c>
+      <c r="L35">
+        <v>13</v>
       </c>
       <c r="M35" t="s">
-        <v>184</v>
+        <v>211</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>1065</v>
+        <v>1091</v>
       </c>
       <c r="B36" t="s">
-        <v>48</v>
+        <v>160</v>
       </c>
       <c r="C36">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D36" t="s">
-        <v>14</v>
+        <v>161</v>
       </c>
       <c r="E36" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="G36" t="s">
-        <v>50</v>
+        <v>162</v>
       </c>
       <c r="H36" t="s">
         <v>17</v>
       </c>
       <c r="I36" t="s">
-        <v>51</v>
+        <v>163</v>
       </c>
       <c r="J36">
-        <v>151</v>
+        <v>7</v>
+      </c>
+      <c r="K36" t="s">
+        <v>164</v>
       </c>
       <c r="L36">
-        <v>770</v>
+        <v>4</v>
+      </c>
+      <c r="M36" t="s">
+        <v>990</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>1074</v>
+        <v>1092</v>
       </c>
       <c r="B37" t="s">
-        <v>98</v>
+        <v>165</v>
       </c>
       <c r="C37">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="D37" t="s">
-        <v>99</v>
+        <v>166</v>
       </c>
       <c r="E37" t="s">
         <v>53</v>
       </c>
       <c r="G37" t="s">
-        <v>100</v>
+        <v>69</v>
       </c>
       <c r="H37" t="s">
-        <v>101</v>
+        <v>45</v>
       </c>
       <c r="I37" t="s">
-        <v>102</v>
+        <v>167</v>
       </c>
       <c r="J37">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="L37" t="s">
         <v>42</v>
@@ -5374,153 +5407,165 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>1109</v>
+        <v>1093</v>
       </c>
       <c r="B38" t="s">
-        <v>218</v>
+        <v>1058</v>
       </c>
       <c r="C38">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D38" t="s">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>53</v>
+        <v>15</v>
+      </c>
+      <c r="G38" t="s">
+        <v>34</v>
       </c>
       <c r="H38" t="s">
         <v>17</v>
       </c>
+      <c r="I38" t="s">
+        <v>168</v>
+      </c>
       <c r="J38">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="K38" t="s">
-        <v>219</v>
-      </c>
-      <c r="L38" t="s">
-        <v>42</v>
+        <v>169</v>
+      </c>
+      <c r="L38">
+        <v>25</v>
       </c>
       <c r="M38" t="s">
-        <v>97</v>
+        <v>170</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>1102</v>
+        <v>1094</v>
       </c>
       <c r="B39" t="s">
-        <v>195</v>
+        <v>171</v>
       </c>
       <c r="C39">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="D39" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
       <c r="E39" t="s">
-        <v>53</v>
-      </c>
-      <c r="G39" t="s">
-        <v>197</v>
+        <v>15</v>
       </c>
       <c r="H39" t="s">
         <v>17</v>
       </c>
-      <c r="I39" t="s">
-        <v>198</v>
-      </c>
       <c r="J39">
-        <v>28</v>
-      </c>
-      <c r="L39" t="s">
-        <v>42</v>
-      </c>
-      <c r="M39" t="s">
-        <v>97</v>
+        <v>388</v>
+      </c>
+      <c r="K39" t="s">
+        <v>173</v>
+      </c>
+      <c r="L39">
+        <v>1125</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>1100</v>
+        <v>1064</v>
       </c>
       <c r="B40" t="s">
-        <v>192</v>
+        <v>43</v>
       </c>
       <c r="C40">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D40" t="s">
-        <v>90</v>
+        <v>44</v>
       </c>
       <c r="E40" t="s">
         <v>15</v>
       </c>
+      <c r="G40" t="s">
+        <v>24</v>
+      </c>
       <c r="H40" t="s">
-        <v>101</v>
+        <v>45</v>
+      </c>
+      <c r="I40" t="s">
+        <v>46</v>
       </c>
       <c r="J40">
-        <v>26</v>
+        <v>232</v>
       </c>
       <c r="L40">
-        <v>92</v>
+        <v>413</v>
+      </c>
+      <c r="M40" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>1062</v>
+        <v>1102</v>
       </c>
       <c r="B41" t="s">
-        <v>13</v>
+        <v>195</v>
       </c>
       <c r="C41">
         <v>2019</v>
       </c>
       <c r="D41" t="s">
-        <v>14</v>
+        <v>196</v>
       </c>
       <c r="E41" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="G41" t="s">
-        <v>16</v>
+        <v>197</v>
       </c>
       <c r="H41" t="s">
         <v>17</v>
       </c>
+      <c r="I41" t="s">
+        <v>198</v>
+      </c>
       <c r="J41">
-        <v>139</v>
-      </c>
-      <c r="L41">
-        <v>1170</v>
+        <v>28</v>
+      </c>
+      <c r="L41" t="s">
+        <v>42</v>
+      </c>
+      <c r="M41" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>1075</v>
+        <v>1095</v>
       </c>
       <c r="B42" t="s">
-        <v>103</v>
+        <v>1054</v>
       </c>
       <c r="C42">
         <v>2020</v>
       </c>
       <c r="D42" t="s">
-        <v>104</v>
+        <v>174</v>
       </c>
       <c r="E42" t="s">
         <v>53</v>
       </c>
-      <c r="G42" t="s">
-        <v>55</v>
-      </c>
       <c r="H42" t="s">
         <v>45</v>
       </c>
-      <c r="I42" t="s">
-        <v>105</v>
-      </c>
       <c r="J42">
-        <v>39</v>
+        <v>16</v>
+      </c>
+      <c r="K42" t="s">
+        <v>175</v>
       </c>
       <c r="L42" t="s">
         <v>42</v>
@@ -5531,395 +5576,368 @@
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>1079</v>
+        <v>1132</v>
       </c>
       <c r="B43" t="s">
-        <v>120</v>
+        <v>176</v>
       </c>
       <c r="C43">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D43" t="s">
-        <v>73</v>
+        <v>177</v>
       </c>
       <c r="E43" t="s">
         <v>15</v>
       </c>
-      <c r="G43" t="s">
-        <v>121</v>
-      </c>
       <c r="H43" t="s">
-        <v>45</v>
+        <v>112</v>
       </c>
       <c r="J43">
-        <v>173</v>
+        <v>65</v>
       </c>
       <c r="L43">
-        <v>195</v>
+        <v>112</v>
       </c>
       <c r="M43" t="s">
-        <v>122</v>
+        <v>178</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>1080</v>
+        <v>1096</v>
       </c>
       <c r="B44" t="s">
-        <v>123</v>
+        <v>1055</v>
       </c>
       <c r="C44">
         <v>2020</v>
       </c>
       <c r="D44" t="s">
-        <v>37</v>
+        <v>179</v>
       </c>
       <c r="E44" t="s">
         <v>53</v>
       </c>
-      <c r="G44" t="s">
-        <v>100</v>
-      </c>
       <c r="H44" t="s">
-        <v>17</v>
-      </c>
-      <c r="I44" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="J44">
-        <v>34</v>
-      </c>
-      <c r="K44" t="s">
-        <v>125</v>
+        <v>23</v>
       </c>
       <c r="L44" t="s">
         <v>42</v>
       </c>
       <c r="M44" t="s">
-        <v>97</v>
+        <v>180</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>1130</v>
+        <v>1097</v>
       </c>
       <c r="B45" t="s">
-        <v>139</v>
+        <v>181</v>
       </c>
       <c r="C45">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="D45" t="s">
-        <v>140</v>
+        <v>182</v>
       </c>
       <c r="E45" t="s">
-        <v>38</v>
-      </c>
-      <c r="G45" t="s">
-        <v>141</v>
+        <v>15</v>
       </c>
       <c r="H45" t="s">
-        <v>45</v>
-      </c>
-      <c r="I45" t="s">
-        <v>142</v>
+        <v>40</v>
       </c>
       <c r="J45">
-        <v>472</v>
+        <v>19</v>
       </c>
       <c r="K45" t="s">
-        <v>143</v>
+        <v>183</v>
       </c>
       <c r="L45" t="s">
         <v>42</v>
       </c>
       <c r="M45" t="s">
-        <v>97</v>
+        <v>184</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>1107</v>
+        <v>1098</v>
       </c>
       <c r="B46" t="s">
-        <v>212</v>
+        <v>185</v>
       </c>
       <c r="C46">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="D46" t="s">
-        <v>174</v>
+        <v>131</v>
       </c>
       <c r="E46" t="s">
         <v>15</v>
       </c>
+      <c r="G46" t="s">
+        <v>54</v>
+      </c>
       <c r="H46" t="s">
-        <v>45</v>
+        <v>40</v>
+      </c>
+      <c r="I46" t="s">
+        <v>168</v>
       </c>
       <c r="J46">
-        <v>15</v>
-      </c>
-      <c r="K46" t="s">
-        <v>213</v>
-      </c>
-      <c r="L46" t="s">
-        <v>42</v>
-      </c>
-      <c r="M46" t="s">
-        <v>214</v>
+        <v>68</v>
+      </c>
+      <c r="L46">
+        <v>362</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>1090</v>
+        <v>1133</v>
       </c>
       <c r="B47" t="s">
-        <v>1136</v>
+        <v>1056</v>
       </c>
       <c r="C47">
-        <v>2020</v>
+        <v>2011</v>
       </c>
       <c r="D47" t="s">
-        <v>157</v>
+        <v>186</v>
       </c>
       <c r="E47" t="s">
-        <v>15</v>
-      </c>
-      <c r="G47" t="s">
-        <v>158</v>
+        <v>53</v>
       </c>
       <c r="H47" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="J47">
-        <v>24</v>
-      </c>
-      <c r="L47">
-        <v>59</v>
+        <v>3</v>
+      </c>
+      <c r="L47" t="s">
+        <v>42</v>
       </c>
       <c r="M47" t="s">
-        <v>159</v>
+        <v>97</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>1091</v>
+        <v>1134</v>
       </c>
       <c r="B48" t="s">
-        <v>160</v>
+        <v>187</v>
       </c>
       <c r="C48">
-        <v>2020</v>
+        <v>2012</v>
       </c>
       <c r="D48" t="s">
-        <v>161</v>
+        <v>188</v>
       </c>
       <c r="E48" t="s">
         <v>15</v>
       </c>
-      <c r="G48" t="s">
-        <v>162</v>
-      </c>
       <c r="H48" t="s">
-        <v>17</v>
-      </c>
-      <c r="I48" t="s">
-        <v>163</v>
+        <v>75</v>
       </c>
       <c r="J48">
-        <v>7</v>
-      </c>
-      <c r="K48" t="s">
-        <v>164</v>
-      </c>
-      <c r="L48">
-        <v>4</v>
+        <v>101</v>
+      </c>
+      <c r="L48" t="s">
+        <v>42</v>
       </c>
       <c r="M48" t="s">
-        <v>990</v>
+        <v>189</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>1064</v>
+        <v>1099</v>
       </c>
       <c r="B49" t="s">
-        <v>43</v>
+        <v>1057</v>
       </c>
       <c r="C49">
-        <v>2020</v>
+        <v>2016</v>
       </c>
       <c r="D49" t="s">
-        <v>44</v>
+        <v>190</v>
       </c>
       <c r="E49" t="s">
-        <v>15</v>
-      </c>
-      <c r="G49" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="H49" t="s">
-        <v>45</v>
-      </c>
-      <c r="I49" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="J49">
-        <v>232</v>
-      </c>
-      <c r="L49">
-        <v>413</v>
+        <v>26</v>
+      </c>
+      <c r="K49" t="s">
+        <v>191</v>
+      </c>
+      <c r="L49" t="s">
+        <v>42</v>
       </c>
       <c r="M49" t="s">
-        <v>47</v>
+        <v>97</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>1095</v>
+        <v>1070</v>
       </c>
       <c r="B50" t="s">
-        <v>1054</v>
+        <v>72</v>
       </c>
       <c r="C50">
-        <v>2020</v>
+        <v>2012</v>
       </c>
       <c r="D50" t="s">
-        <v>174</v>
+        <v>73</v>
       </c>
       <c r="E50" t="s">
         <v>53</v>
       </c>
+      <c r="G50" t="s">
+        <v>74</v>
+      </c>
       <c r="H50" t="s">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="J50">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="K50" t="s">
-        <v>175</v>
+        <v>76</v>
       </c>
       <c r="L50" t="s">
         <v>42</v>
       </c>
       <c r="M50" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>1096</v>
+        <v>1110</v>
       </c>
       <c r="B51" t="s">
-        <v>1055</v>
+        <v>220</v>
       </c>
       <c r="C51">
-        <v>2020</v>
+        <v>2015</v>
       </c>
       <c r="D51" t="s">
-        <v>179</v>
+        <v>221</v>
       </c>
       <c r="E51" t="s">
         <v>53</v>
       </c>
       <c r="H51" t="s">
-        <v>101</v>
-      </c>
-      <c r="J51">
-        <v>23</v>
+        <v>75</v>
+      </c>
+      <c r="J51" t="s">
+        <v>42</v>
+      </c>
+      <c r="K51" t="s">
+        <v>222</v>
       </c>
       <c r="L51" t="s">
         <v>42</v>
       </c>
       <c r="M51" t="s">
-        <v>180</v>
+        <v>97</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>1103</v>
+        <v>1100</v>
       </c>
       <c r="B52" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="C52">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D52" t="s">
-        <v>200</v>
+        <v>90</v>
       </c>
       <c r="E52" t="s">
-        <v>53</v>
-      </c>
-      <c r="F52" t="s">
-        <v>201</v>
+        <v>15</v>
       </c>
       <c r="H52" t="s">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="J52">
-        <v>60</v>
-      </c>
-      <c r="K52" t="s">
-        <v>202</v>
-      </c>
-      <c r="L52" t="s">
-        <v>42</v>
-      </c>
-      <c r="M52" t="s">
-        <v>97</v>
+        <v>26</v>
+      </c>
+      <c r="L52">
+        <v>92</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="B53" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="C53">
-        <v>2020</v>
+        <v>2016</v>
       </c>
       <c r="D53" t="s">
-        <v>90</v>
+        <v>14</v>
       </c>
       <c r="E53" t="s">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="H53" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="J53">
-        <v>43</v>
-      </c>
-      <c r="L53" t="s">
-        <v>42</v>
+        <v>54</v>
+      </c>
+      <c r="K53" t="s">
+        <v>194</v>
+      </c>
+      <c r="L53">
+        <v>170</v>
       </c>
       <c r="M53" t="s">
-        <v>97</v>
+        <v>194</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="B54" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C54">
         <v>2020</v>
       </c>
       <c r="D54" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="E54" t="s">
         <v>53</v>
       </c>
+      <c r="F54" t="s">
+        <v>201</v>
+      </c>
       <c r="H54" t="s">
         <v>45</v>
       </c>
       <c r="J54">
-        <v>43</v>
+        <v>60</v>
+      </c>
+      <c r="K54" t="s">
+        <v>202</v>
       </c>
       <c r="L54" t="s">
         <v>42</v>
@@ -5930,31 +5948,25 @@
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>1077</v>
+        <v>1104</v>
       </c>
       <c r="B55" t="s">
-        <v>110</v>
+        <v>203</v>
       </c>
       <c r="C55">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="D55" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="E55" t="s">
         <v>53</v>
       </c>
-      <c r="G55" t="s">
-        <v>40</v>
-      </c>
       <c r="H55" t="s">
-        <v>112</v>
+        <v>45</v>
       </c>
       <c r="J55">
-        <v>340</v>
-      </c>
-      <c r="K55" t="s">
-        <v>113</v>
+        <v>43</v>
       </c>
       <c r="L55" t="s">
         <v>42</v>
@@ -5965,167 +5977,155 @@
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>1085</v>
+        <v>1062</v>
       </c>
       <c r="B56" t="s">
-        <v>144</v>
+        <v>13</v>
       </c>
       <c r="C56">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="D56" t="s">
-        <v>145</v>
+        <v>14</v>
       </c>
       <c r="E56" t="s">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="G56" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="H56" t="s">
-        <v>45</v>
-      </c>
-      <c r="I56" t="s">
-        <v>146</v>
+        <v>17</v>
       </c>
       <c r="J56">
-        <v>16</v>
-      </c>
-      <c r="L56" t="s">
-        <v>42</v>
-      </c>
-      <c r="M56" t="s">
-        <v>97</v>
+        <v>139</v>
+      </c>
+      <c r="L56">
+        <v>1170</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>1131</v>
+        <v>1060</v>
       </c>
       <c r="B57" t="s">
-        <v>207</v>
+        <v>29</v>
       </c>
       <c r="C57">
-        <v>2021</v>
+        <v>2014</v>
       </c>
       <c r="D57" t="s">
-        <v>208</v>
+        <v>30</v>
       </c>
       <c r="E57" t="s">
-        <v>53</v>
-      </c>
-      <c r="F57" t="s">
-        <v>209</v>
+        <v>15</v>
+      </c>
+      <c r="G57" t="s">
+        <v>31</v>
       </c>
       <c r="H57" t="s">
-        <v>112</v>
+        <v>20</v>
       </c>
       <c r="J57">
-        <v>77</v>
-      </c>
-      <c r="K57" t="s">
-        <v>210</v>
+        <v>35</v>
       </c>
       <c r="L57">
-        <v>13</v>
-      </c>
-      <c r="M57" t="s">
-        <v>211</v>
+        <v>89</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>1092</v>
+        <v>1106</v>
       </c>
       <c r="B58" t="s">
-        <v>165</v>
+        <v>206</v>
       </c>
       <c r="C58">
         <v>2021</v>
       </c>
       <c r="D58" t="s">
-        <v>166</v>
+        <v>30</v>
       </c>
       <c r="E58" t="s">
-        <v>53</v>
-      </c>
-      <c r="G58" t="s">
-        <v>69</v>
+        <v>15</v>
       </c>
       <c r="H58" t="s">
-        <v>45</v>
-      </c>
-      <c r="I58" t="s">
-        <v>167</v>
+        <v>112</v>
       </c>
       <c r="J58">
-        <v>16</v>
-      </c>
-      <c r="L58" t="s">
-        <v>42</v>
-      </c>
-      <c r="M58" t="s">
-        <v>97</v>
+        <v>33</v>
+      </c>
+      <c r="L58">
+        <v>407</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>1132</v>
+        <v>1105</v>
       </c>
       <c r="B59" t="s">
-        <v>176</v>
+        <v>204</v>
       </c>
       <c r="C59">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="D59" t="s">
-        <v>177</v>
+        <v>205</v>
       </c>
       <c r="E59" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="H59" t="s">
-        <v>112</v>
+        <v>45</v>
       </c>
       <c r="J59">
-        <v>65</v>
-      </c>
-      <c r="L59">
-        <v>112</v>
+        <v>43</v>
+      </c>
+      <c r="L59" t="s">
+        <v>42</v>
       </c>
       <c r="M59" t="s">
-        <v>178</v>
+        <v>97</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>1106</v>
+        <v>1111</v>
       </c>
       <c r="B60" t="s">
-        <v>206</v>
+        <v>18</v>
       </c>
       <c r="C60">
-        <v>2021</v>
+        <v>2013</v>
       </c>
       <c r="D60" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="E60" t="s">
         <v>15</v>
       </c>
+      <c r="G60" t="s">
+        <v>16</v>
+      </c>
       <c r="H60" t="s">
-        <v>112</v>
+        <v>20</v>
+      </c>
+      <c r="I60" t="s">
+        <v>21</v>
       </c>
       <c r="J60">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="L60">
-        <v>407</v>
+        <v>664</v>
+      </c>
+      <c r="M60" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M60">
-    <sortCondition ref="C2:C60"/>
+    <sortCondition ref="B2:B60"/>
   </sortState>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576" xr:uid="{DB022EC1-5D0C-437D-AEE8-D7CCA583FFD3}">
@@ -6133,7 +6133,7 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="D25" r:id="rId1" display="https://www.scielo.br/j/rbsmi/a/83WDWJZwNKBY58h7FTbJWRM/?lang=en" xr:uid="{894162DD-6BD6-4673-99C3-C0746E2FD6BE}"/>
+    <hyperlink ref="D30" r:id="rId1" display="https://www.scielo.br/j/rbsmi/a/83WDWJZwNKBY58h7FTbJWRM/?lang=en" xr:uid="{894162DD-6BD6-4673-99C3-C0746E2FD6BE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -16530,7 +16530,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B61DB050-FA39-425C-8BE9-84756207D428}">
   <dimension ref="A1:F566"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
+    <sheetView topLeftCell="A90" workbookViewId="0">
       <selection activeCell="L106" sqref="L106"/>
     </sheetView>
   </sheetViews>
